--- a/database/industries/kashi/kesave/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kesave/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D4E7A-D20A-49C0-A99D-8F7E2535DEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF12B0-040C-42E9-94CE-446B12CC5461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1507,36 +1507,36 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>193695</v>
       </c>
       <c r="AA11" s="11">
-        <v>193695</v>
+        <v>163665</v>
       </c>
       <c r="AB11" s="11">
-        <v>163665</v>
+        <v>159934</v>
       </c>
       <c r="AC11" s="11">
-        <v>159934</v>
+        <v>170994</v>
       </c>
       <c r="AD11" s="11">
-        <v>170994</v>
+        <v>143473</v>
       </c>
       <c r="AE11" s="11">
-        <v>143473</v>
+        <v>172630</v>
       </c>
       <c r="AF11" s="11">
-        <v>172630</v>
+        <v>195869</v>
       </c>
       <c r="AG11" s="11">
-        <v>195869</v>
+        <v>187957</v>
       </c>
       <c r="AH11" s="11">
-        <v>187957</v>
-      </c>
-      <c r="AI11" s="11">
         <v>187995</v>
       </c>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1570,29 +1570,29 @@
       <c r="AT11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU11" s="11" t="s">
-        <v>58</v>
+      <c r="AU11" s="11">
+        <v>121757</v>
       </c>
       <c r="AV11" s="11">
-        <v>121757</v>
+        <v>297564</v>
       </c>
       <c r="AW11" s="11">
-        <v>297564</v>
+        <v>328902</v>
       </c>
       <c r="AX11" s="11">
-        <v>328902</v>
+        <v>277167</v>
       </c>
       <c r="AY11" s="11">
-        <v>277167</v>
+        <v>311452</v>
       </c>
       <c r="AZ11" s="11">
-        <v>311452</v>
+        <v>311640</v>
       </c>
       <c r="BA11" s="11">
-        <v>311640</v>
+        <v>296173</v>
       </c>
       <c r="BB11" s="11">
-        <v>296173</v>
+        <v>300514</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1666,92 +1666,92 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>513396</v>
       </c>
       <c r="AA12" s="13">
-        <v>513396</v>
+        <v>522670</v>
       </c>
       <c r="AB12" s="13">
-        <v>522670</v>
+        <v>535562</v>
       </c>
       <c r="AC12" s="13">
-        <v>535562</v>
+        <v>500111</v>
       </c>
       <c r="AD12" s="13">
-        <v>500111</v>
+        <v>583413</v>
       </c>
       <c r="AE12" s="13">
-        <v>583413</v>
+        <v>516362</v>
       </c>
       <c r="AF12" s="13">
-        <v>516362</v>
+        <v>548987</v>
       </c>
       <c r="AG12" s="13">
-        <v>548987</v>
+        <v>557937</v>
       </c>
       <c r="AH12" s="13">
-        <v>557937</v>
+        <v>349897</v>
       </c>
       <c r="AI12" s="13">
-        <v>349897</v>
+        <v>209907</v>
       </c>
       <c r="AJ12" s="13">
-        <v>209907</v>
+        <v>543375</v>
       </c>
       <c r="AK12" s="13">
-        <v>543375</v>
+        <v>531214</v>
       </c>
       <c r="AL12" s="13">
-        <v>531214</v>
+        <v>568851</v>
       </c>
       <c r="AM12" s="13">
-        <v>568851</v>
+        <v>498587</v>
       </c>
       <c r="AN12" s="13">
-        <v>498587</v>
+        <v>572639</v>
       </c>
       <c r="AO12" s="13">
-        <v>572639</v>
+        <v>545660</v>
       </c>
       <c r="AP12" s="13">
-        <v>545660</v>
+        <v>581841</v>
       </c>
       <c r="AQ12" s="13">
-        <v>581841</v>
+        <v>579751</v>
       </c>
       <c r="AR12" s="13">
-        <v>579751</v>
+        <v>579161</v>
       </c>
       <c r="AS12" s="13">
-        <v>579161</v>
+        <v>542538</v>
       </c>
       <c r="AT12" s="13">
-        <v>542538</v>
+        <v>302450</v>
       </c>
       <c r="AU12" s="13">
-        <v>302450</v>
+        <v>224233</v>
       </c>
       <c r="AV12" s="13">
-        <v>224233</v>
+        <v>586684</v>
       </c>
       <c r="AW12" s="13">
-        <v>586684</v>
+        <v>613013</v>
       </c>
       <c r="AX12" s="13">
-        <v>613013</v>
+        <v>526570</v>
       </c>
       <c r="AY12" s="13">
-        <v>526570</v>
+        <v>509602</v>
       </c>
       <c r="AZ12" s="13">
-        <v>509602</v>
+        <v>538209</v>
       </c>
       <c r="BA12" s="13">
-        <v>538209</v>
+        <v>540053</v>
       </c>
       <c r="BB12" s="13">
-        <v>540053</v>
+        <v>501747</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1825,92 +1825,92 @@
       <c r="Y13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Z13" s="11">
+        <v>294177</v>
       </c>
       <c r="AA13" s="11">
-        <v>294177</v>
+        <v>265700</v>
       </c>
       <c r="AB13" s="11">
-        <v>265700</v>
+        <v>272295</v>
       </c>
       <c r="AC13" s="11">
-        <v>272295</v>
+        <v>271352</v>
       </c>
       <c r="AD13" s="11">
-        <v>271352</v>
+        <v>269581</v>
       </c>
       <c r="AE13" s="11">
-        <v>269581</v>
+        <v>259870</v>
       </c>
       <c r="AF13" s="11">
-        <v>259870</v>
+        <v>230057</v>
       </c>
       <c r="AG13" s="11">
-        <v>230057</v>
+        <v>191426</v>
       </c>
       <c r="AH13" s="11">
-        <v>191426</v>
+        <v>234199</v>
       </c>
       <c r="AI13" s="11">
-        <v>234199</v>
+        <v>95189</v>
       </c>
       <c r="AJ13" s="11">
-        <v>95189</v>
+        <v>268860</v>
       </c>
       <c r="AK13" s="11">
-        <v>268860</v>
+        <v>236453</v>
       </c>
       <c r="AL13" s="11">
-        <v>236453</v>
+        <v>248916</v>
       </c>
       <c r="AM13" s="11">
-        <v>248916</v>
+        <v>275516</v>
       </c>
       <c r="AN13" s="11">
-        <v>275516</v>
+        <v>212457</v>
       </c>
       <c r="AO13" s="11">
-        <v>212457</v>
+        <v>221344</v>
       </c>
       <c r="AP13" s="11">
-        <v>221344</v>
+        <v>235251</v>
       </c>
       <c r="AQ13" s="11">
-        <v>235251</v>
+        <v>231663</v>
       </c>
       <c r="AR13" s="11">
-        <v>231663</v>
+        <v>238828</v>
       </c>
       <c r="AS13" s="11">
-        <v>238828</v>
+        <v>250309</v>
       </c>
       <c r="AT13" s="11">
-        <v>250309</v>
+        <v>109645</v>
       </c>
       <c r="AU13" s="11">
-        <v>109645</v>
+        <v>64450</v>
       </c>
       <c r="AV13" s="11">
-        <v>64450</v>
+        <v>281297</v>
       </c>
       <c r="AW13" s="11">
-        <v>281297</v>
+        <v>303271</v>
       </c>
       <c r="AX13" s="11">
-        <v>303271</v>
+        <v>285556</v>
       </c>
       <c r="AY13" s="11">
-        <v>285556</v>
+        <v>259449</v>
       </c>
       <c r="AZ13" s="11">
-        <v>259449</v>
+        <v>240069</v>
       </c>
       <c r="BA13" s="11">
-        <v>240069</v>
+        <v>262754</v>
       </c>
       <c r="BB13" s="11">
-        <v>262754</v>
+        <v>276961</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2011,44 +2011,44 @@
       <c r="AH14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="13" t="s">
-        <v>58</v>
+      <c r="AI14" s="13">
+        <v>167446</v>
       </c>
       <c r="AJ14" s="13">
-        <v>167446</v>
+        <v>305656</v>
       </c>
       <c r="AK14" s="13">
-        <v>305656</v>
+        <v>256718</v>
       </c>
       <c r="AL14" s="13">
-        <v>256718</v>
+        <v>296062</v>
       </c>
       <c r="AM14" s="13">
-        <v>296062</v>
+        <v>300779</v>
       </c>
       <c r="AN14" s="13">
-        <v>300779</v>
+        <v>280005</v>
       </c>
       <c r="AO14" s="13">
-        <v>280005</v>
+        <v>313062</v>
       </c>
       <c r="AP14" s="13">
-        <v>313062</v>
+        <v>232411</v>
       </c>
       <c r="AQ14" s="13">
-        <v>232411</v>
+        <v>285816</v>
       </c>
       <c r="AR14" s="13">
-        <v>285816</v>
+        <v>290008</v>
       </c>
       <c r="AS14" s="13">
-        <v>290008</v>
+        <v>288278</v>
       </c>
       <c r="AT14" s="13">
-        <v>288278</v>
-      </c>
-      <c r="AU14" s="13">
         <v>187242</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV14" s="13" t="s">
         <v>58</v>
@@ -2142,91 +2142,91 @@
         <v>0</v>
       </c>
       <c r="Z15" s="15">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="AA15" s="15">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="AB15" s="15">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="AC15" s="15">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="AD15" s="15">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="AE15" s="15">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AF15" s="15">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AG15" s="15">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AH15" s="15">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AI15" s="15">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AJ15" s="15">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AK15" s="15">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AL15" s="15">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AM15" s="15">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AN15" s="15">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AO15" s="15">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AP15" s="15">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AQ15" s="15">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AR15" s="15">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AS15" s="15">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AT15" s="15">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AU15" s="15">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AV15" s="15">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AW15" s="15">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AX15" s="15">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AY15" s="15">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AZ15" s="15">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="BA15" s="15">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="BB15" s="15">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2357,8 +2357,8 @@
       <c r="Y17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Z17" s="11">
+        <v>0</v>
       </c>
       <c r="AA17" s="11">
         <v>0</v>
@@ -2384,8 +2384,8 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
@@ -2420,17 +2420,17 @@
       <c r="AT17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>58</v>
+      <c r="AU17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>0</v>
       </c>
       <c r="AY17" s="11">
         <v>0</v>
@@ -2516,8 +2516,8 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13">
+        <v>0</v>
       </c>
       <c r="AA18" s="13">
         <v>0</v>
@@ -2546,8 +2546,8 @@
       <c r="AI18" s="13">
         <v>0</v>
       </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>58</v>
@@ -2576,20 +2576,20 @@
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>0</v>
       </c>
       <c r="AY18" s="13">
         <v>0</v>
@@ -2675,8 +2675,8 @@
       <c r="Y19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Z19" s="11">
+        <v>0</v>
       </c>
       <c r="AA19" s="11">
         <v>0</v>
@@ -2705,8 +2705,8 @@
       <c r="AI19" s="11">
         <v>0</v>
       </c>
-      <c r="AJ19" s="11">
-        <v>0</v>
+      <c r="AJ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK19" s="11" t="s">
         <v>58</v>
@@ -2735,20 +2735,20 @@
       <c r="AS19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX19" s="11" t="s">
-        <v>58</v>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>0</v>
       </c>
       <c r="AY19" s="11">
         <v>0</v>
@@ -2861,11 +2861,11 @@
       <c r="AH20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>0</v>
+      <c r="AI20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>58</v>
@@ -2894,8 +2894,8 @@
       <c r="AS20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT20" s="13" t="s">
-        <v>58</v>
+      <c r="AT20" s="13">
+        <v>0</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>58</v>
@@ -3205,8 +3205,8 @@
       <c r="Y23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="15" t="s">
-        <v>58</v>
+      <c r="Z23" s="15">
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
         <v>0</v>
@@ -3363,91 +3363,91 @@
         <v>0</v>
       </c>
       <c r="Z24" s="19">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="AA24" s="19">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="AB24" s="19">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="AC24" s="19">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="AD24" s="19">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="AE24" s="19">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AF24" s="19">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AG24" s="19">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AH24" s="19">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AI24" s="19">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AJ24" s="19">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AK24" s="19">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AL24" s="19">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AM24" s="19">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AN24" s="19">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AO24" s="19">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AP24" s="19">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AR24" s="19">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AS24" s="19">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AT24" s="19">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AU24" s="19">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AV24" s="19">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AW24" s="19">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AX24" s="19">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AY24" s="19">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="BA24" s="19">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="BB24" s="19">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3955,36 +3955,36 @@
       <c r="Y31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>58</v>
+      <c r="Z31" s="11">
+        <v>157213</v>
       </c>
       <c r="AA31" s="11">
-        <v>157213</v>
+        <v>109825</v>
       </c>
       <c r="AB31" s="11">
-        <v>109825</v>
+        <v>70069</v>
       </c>
       <c r="AC31" s="11">
-        <v>70069</v>
+        <v>80329</v>
       </c>
       <c r="AD31" s="11">
-        <v>80329</v>
+        <v>107753</v>
       </c>
       <c r="AE31" s="11">
-        <v>107753</v>
+        <v>103412</v>
       </c>
       <c r="AF31" s="11">
-        <v>103412</v>
+        <v>54134</v>
       </c>
       <c r="AG31" s="11">
-        <v>54134</v>
+        <v>88101</v>
       </c>
       <c r="AH31" s="11">
-        <v>88101</v>
-      </c>
-      <c r="AI31" s="11">
         <v>152276</v>
       </c>
+      <c r="AI31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4018,29 +4018,29 @@
       <c r="AT31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU31" s="11" t="s">
-        <v>58</v>
+      <c r="AU31" s="11">
+        <v>36914</v>
       </c>
       <c r="AV31" s="11">
-        <v>36914</v>
+        <v>222034</v>
       </c>
       <c r="AW31" s="11">
-        <v>222034</v>
+        <v>116900</v>
       </c>
       <c r="AX31" s="11">
-        <v>116900</v>
+        <v>125871</v>
       </c>
       <c r="AY31" s="11">
-        <v>125871</v>
+        <v>175141</v>
       </c>
       <c r="AZ31" s="11">
-        <v>175141</v>
+        <v>115401</v>
       </c>
       <c r="BA31" s="11">
-        <v>121433</v>
+        <v>151098</v>
       </c>
       <c r="BB31" s="11">
-        <v>151098</v>
+        <v>140609</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4114,92 +4114,92 @@
       <c r="Y32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="13" t="s">
-        <v>58</v>
+      <c r="Z32" s="13">
+        <v>170409</v>
       </c>
       <c r="AA32" s="13">
-        <v>170409</v>
+        <v>230557</v>
       </c>
       <c r="AB32" s="13">
-        <v>230557</v>
+        <v>128844</v>
       </c>
       <c r="AC32" s="13">
-        <v>128844</v>
+        <v>145939</v>
       </c>
       <c r="AD32" s="13">
-        <v>145939</v>
+        <v>129142</v>
       </c>
       <c r="AE32" s="13">
-        <v>129142</v>
+        <v>123757</v>
       </c>
       <c r="AF32" s="13">
-        <v>123757</v>
+        <v>149886</v>
       </c>
       <c r="AG32" s="13">
-        <v>149886</v>
+        <v>135433</v>
       </c>
       <c r="AH32" s="13">
-        <v>135433</v>
+        <v>271362</v>
       </c>
       <c r="AI32" s="13">
-        <v>271362</v>
+        <v>21713</v>
       </c>
       <c r="AJ32" s="13">
-        <v>21713</v>
+        <v>118560</v>
       </c>
       <c r="AK32" s="13">
-        <v>118560</v>
+        <v>157349</v>
       </c>
       <c r="AL32" s="13">
-        <v>157349</v>
+        <v>124028</v>
       </c>
       <c r="AM32" s="13">
-        <v>124028</v>
+        <v>125520</v>
       </c>
       <c r="AN32" s="13">
-        <v>125520</v>
+        <v>176836</v>
       </c>
       <c r="AO32" s="13">
-        <v>176836</v>
+        <v>115191</v>
       </c>
       <c r="AP32" s="13">
-        <v>115191</v>
+        <v>147093</v>
       </c>
       <c r="AQ32" s="13">
-        <v>147093</v>
+        <v>173023</v>
       </c>
       <c r="AR32" s="13">
-        <v>173023</v>
+        <v>208100</v>
       </c>
       <c r="AS32" s="13">
-        <v>208100</v>
+        <v>143577</v>
       </c>
       <c r="AT32" s="13">
-        <v>143577</v>
+        <v>188874</v>
       </c>
       <c r="AU32" s="13">
-        <v>188874</v>
+        <v>25576</v>
       </c>
       <c r="AV32" s="13">
-        <v>25576</v>
+        <v>166074</v>
       </c>
       <c r="AW32" s="13">
-        <v>166074</v>
+        <v>122081</v>
       </c>
       <c r="AX32" s="13">
-        <v>122081</v>
+        <v>76234</v>
       </c>
       <c r="AY32" s="13">
-        <v>76234</v>
+        <v>106830</v>
       </c>
       <c r="AZ32" s="13">
-        <v>106830</v>
+        <v>87196</v>
       </c>
       <c r="BA32" s="13">
-        <v>97255</v>
+        <v>78702</v>
       </c>
       <c r="BB32" s="13">
-        <v>78702</v>
+        <v>75805</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4273,92 +4273,92 @@
       <c r="Y33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Z33" s="11">
+        <v>199515</v>
       </c>
       <c r="AA33" s="11">
-        <v>199515</v>
+        <v>225060</v>
       </c>
       <c r="AB33" s="11">
-        <v>225060</v>
+        <v>157943</v>
       </c>
       <c r="AC33" s="11">
-        <v>157943</v>
+        <v>162744</v>
       </c>
       <c r="AD33" s="11">
-        <v>162744</v>
+        <v>186441</v>
       </c>
       <c r="AE33" s="11">
-        <v>186441</v>
+        <v>145570</v>
       </c>
       <c r="AF33" s="11">
-        <v>145570</v>
+        <v>125809</v>
       </c>
       <c r="AG33" s="11">
-        <v>125809</v>
+        <v>102883</v>
       </c>
       <c r="AH33" s="11">
-        <v>102883</v>
+        <v>165659</v>
       </c>
       <c r="AI33" s="11">
-        <v>165659</v>
+        <v>54355</v>
       </c>
       <c r="AJ33" s="11">
-        <v>54355</v>
+        <v>142938</v>
       </c>
       <c r="AK33" s="11">
-        <v>142938</v>
+        <v>159160</v>
       </c>
       <c r="AL33" s="11">
-        <v>159160</v>
+        <v>99353</v>
       </c>
       <c r="AM33" s="11">
-        <v>99353</v>
+        <v>109819</v>
       </c>
       <c r="AN33" s="11">
-        <v>109819</v>
+        <v>143423</v>
       </c>
       <c r="AO33" s="11">
-        <v>143423</v>
+        <v>62828</v>
       </c>
       <c r="AP33" s="11">
-        <v>62828</v>
+        <v>86890</v>
       </c>
       <c r="AQ33" s="11">
-        <v>86890</v>
+        <v>89937</v>
       </c>
       <c r="AR33" s="11">
-        <v>89937</v>
+        <v>122708</v>
       </c>
       <c r="AS33" s="11">
-        <v>122708</v>
+        <v>93783</v>
       </c>
       <c r="AT33" s="11">
-        <v>93783</v>
+        <v>135318</v>
       </c>
       <c r="AU33" s="11">
-        <v>135318</v>
+        <v>28510</v>
       </c>
       <c r="AV33" s="11">
-        <v>28510</v>
+        <v>138958</v>
       </c>
       <c r="AW33" s="11">
-        <v>138958</v>
+        <v>171951</v>
       </c>
       <c r="AX33" s="11">
-        <v>171951</v>
+        <v>183085</v>
       </c>
       <c r="AY33" s="11">
-        <v>183085</v>
+        <v>144382</v>
       </c>
       <c r="AZ33" s="11">
-        <v>144382</v>
+        <v>155477</v>
       </c>
       <c r="BA33" s="11">
-        <v>157939</v>
+        <v>108063</v>
       </c>
       <c r="BB33" s="11">
-        <v>108063</v>
+        <v>170679</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4459,44 +4459,44 @@
       <c r="AH34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI34" s="13" t="s">
-        <v>58</v>
+      <c r="AI34" s="13">
+        <v>78410</v>
       </c>
       <c r="AJ34" s="13">
-        <v>78410</v>
+        <v>179697</v>
       </c>
       <c r="AK34" s="13">
-        <v>179697</v>
+        <v>196147</v>
       </c>
       <c r="AL34" s="13">
-        <v>196147</v>
+        <v>128734</v>
       </c>
       <c r="AM34" s="13">
-        <v>128734</v>
+        <v>133728</v>
       </c>
       <c r="AN34" s="13">
-        <v>133728</v>
+        <v>216519</v>
       </c>
       <c r="AO34" s="13">
-        <v>216519</v>
+        <v>129333</v>
       </c>
       <c r="AP34" s="13">
-        <v>129333</v>
+        <v>139062</v>
       </c>
       <c r="AQ34" s="13">
-        <v>139062</v>
+        <v>181203</v>
       </c>
       <c r="AR34" s="13">
-        <v>181203</v>
+        <v>229327</v>
       </c>
       <c r="AS34" s="13">
-        <v>229327</v>
+        <v>114416</v>
       </c>
       <c r="AT34" s="13">
-        <v>114416</v>
-      </c>
-      <c r="AU34" s="13">
         <v>161834</v>
+      </c>
+      <c r="AU34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV34" s="13" t="s">
         <v>58</v>
@@ -4590,91 +4590,91 @@
         <v>0</v>
       </c>
       <c r="Z35" s="15">
-        <v>0</v>
+        <v>527137</v>
       </c>
       <c r="AA35" s="15">
-        <v>527137</v>
+        <v>565442</v>
       </c>
       <c r="AB35" s="15">
-        <v>565442</v>
+        <v>356856</v>
       </c>
       <c r="AC35" s="15">
-        <v>356856</v>
+        <v>389012</v>
       </c>
       <c r="AD35" s="15">
-        <v>389012</v>
+        <v>423336</v>
       </c>
       <c r="AE35" s="15">
-        <v>423336</v>
+        <v>372739</v>
       </c>
       <c r="AF35" s="15">
-        <v>372739</v>
+        <v>329829</v>
       </c>
       <c r="AG35" s="15">
-        <v>329829</v>
+        <v>326417</v>
       </c>
       <c r="AH35" s="15">
-        <v>326417</v>
+        <v>589297</v>
       </c>
       <c r="AI35" s="15">
-        <v>589297</v>
+        <v>154478</v>
       </c>
       <c r="AJ35" s="15">
-        <v>154478</v>
+        <v>441195</v>
       </c>
       <c r="AK35" s="15">
-        <v>441195</v>
+        <v>512656</v>
       </c>
       <c r="AL35" s="15">
-        <v>512656</v>
+        <v>352115</v>
       </c>
       <c r="AM35" s="15">
-        <v>352115</v>
+        <v>369067</v>
       </c>
       <c r="AN35" s="15">
-        <v>369067</v>
+        <v>536778</v>
       </c>
       <c r="AO35" s="15">
-        <v>536778</v>
+        <v>307352</v>
       </c>
       <c r="AP35" s="15">
-        <v>307352</v>
+        <v>373045</v>
       </c>
       <c r="AQ35" s="15">
-        <v>373045</v>
+        <v>444163</v>
       </c>
       <c r="AR35" s="15">
-        <v>444163</v>
+        <v>560135</v>
       </c>
       <c r="AS35" s="15">
-        <v>560135</v>
+        <v>351776</v>
       </c>
       <c r="AT35" s="15">
-        <v>351776</v>
+        <v>486026</v>
       </c>
       <c r="AU35" s="15">
-        <v>486026</v>
+        <v>91000</v>
       </c>
       <c r="AV35" s="15">
-        <v>91000</v>
+        <v>527066</v>
       </c>
       <c r="AW35" s="15">
-        <v>527066</v>
+        <v>410932</v>
       </c>
       <c r="AX35" s="15">
-        <v>410932</v>
+        <v>385190</v>
       </c>
       <c r="AY35" s="15">
-        <v>385190</v>
+        <v>426353</v>
       </c>
       <c r="AZ35" s="15">
-        <v>426353</v>
+        <v>358074</v>
       </c>
       <c r="BA35" s="15">
-        <v>376627</v>
+        <v>337863</v>
       </c>
       <c r="BB35" s="15">
-        <v>337863</v>
+        <v>387093</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4805,36 +4805,36 @@
       <c r="Y37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Z37" s="11">
+        <v>40471</v>
       </c>
       <c r="AA37" s="11">
-        <v>40471</v>
+        <v>124436</v>
       </c>
       <c r="AB37" s="11">
-        <v>124436</v>
+        <v>69197</v>
       </c>
       <c r="AC37" s="11">
-        <v>69197</v>
+        <v>130619</v>
       </c>
       <c r="AD37" s="11">
-        <v>130619</v>
+        <v>38922</v>
       </c>
       <c r="AE37" s="11">
-        <v>38922</v>
+        <v>48400</v>
       </c>
       <c r="AF37" s="11">
-        <v>48400</v>
+        <v>152485</v>
       </c>
       <c r="AG37" s="11">
-        <v>152485</v>
+        <v>92234</v>
       </c>
       <c r="AH37" s="11">
-        <v>92234</v>
-      </c>
-      <c r="AI37" s="11">
         <v>124843</v>
       </c>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ37" s="11" t="s">
         <v>58</v>
       </c>
@@ -4868,29 +4868,29 @@
       <c r="AT37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU37" s="11" t="s">
-        <v>58</v>
+      <c r="AU37" s="11">
+        <v>35275</v>
       </c>
       <c r="AV37" s="11">
-        <v>35275</v>
+        <v>142817</v>
       </c>
       <c r="AW37" s="11">
-        <v>142817</v>
+        <v>177901</v>
       </c>
       <c r="AX37" s="11">
-        <v>177901</v>
+        <v>118060</v>
       </c>
       <c r="AY37" s="11">
-        <v>118060</v>
+        <v>120579</v>
       </c>
       <c r="AZ37" s="11">
-        <v>120579</v>
+        <v>137694</v>
       </c>
       <c r="BA37" s="11">
-        <v>157248</v>
+        <v>101628</v>
       </c>
       <c r="BB37" s="11">
-        <v>101628</v>
+        <v>158886</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4964,92 +4964,92 @@
       <c r="Y38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="13" t="s">
-        <v>58</v>
+      <c r="Z38" s="13">
+        <v>383465</v>
       </c>
       <c r="AA38" s="13">
-        <v>383465</v>
+        <v>413359</v>
       </c>
       <c r="AB38" s="13">
-        <v>413359</v>
+        <v>425914</v>
       </c>
       <c r="AC38" s="13">
-        <v>425914</v>
+        <v>398169</v>
       </c>
       <c r="AD38" s="13">
-        <v>398169</v>
+        <v>431265</v>
       </c>
       <c r="AE38" s="13">
-        <v>431265</v>
+        <v>435143</v>
       </c>
       <c r="AF38" s="13">
-        <v>435143</v>
+        <v>422211</v>
       </c>
       <c r="AG38" s="13">
-        <v>422211</v>
+        <v>397161</v>
       </c>
       <c r="AH38" s="13">
-        <v>397161</v>
+        <v>368607</v>
       </c>
       <c r="AI38" s="13">
-        <v>368607</v>
+        <v>134825</v>
       </c>
       <c r="AJ38" s="13">
-        <v>134825</v>
+        <v>419239</v>
       </c>
       <c r="AK38" s="13">
-        <v>419239</v>
+        <v>361838</v>
       </c>
       <c r="AL38" s="13">
-        <v>361838</v>
+        <v>424216</v>
       </c>
       <c r="AM38" s="13">
-        <v>424216</v>
+        <v>332369</v>
       </c>
       <c r="AN38" s="13">
-        <v>332369</v>
+        <v>467662</v>
       </c>
       <c r="AO38" s="13">
-        <v>467662</v>
+        <v>366344</v>
       </c>
       <c r="AP38" s="13">
-        <v>366344</v>
+        <v>385263</v>
       </c>
       <c r="AQ38" s="13">
-        <v>385263</v>
+        <v>408853</v>
       </c>
       <c r="AR38" s="13">
-        <v>408853</v>
+        <v>241790</v>
       </c>
       <c r="AS38" s="13">
-        <v>241790</v>
+        <v>405401</v>
       </c>
       <c r="AT38" s="13">
-        <v>405401</v>
+        <v>370364</v>
       </c>
       <c r="AU38" s="13">
-        <v>370364</v>
+        <v>111198</v>
       </c>
       <c r="AV38" s="13">
-        <v>111198</v>
+        <v>459752</v>
       </c>
       <c r="AW38" s="13">
-        <v>459752</v>
+        <v>406699</v>
       </c>
       <c r="AX38" s="13">
-        <v>406699</v>
+        <v>380998</v>
       </c>
       <c r="AY38" s="13">
-        <v>380998</v>
+        <v>417198</v>
       </c>
       <c r="AZ38" s="13">
-        <v>417198</v>
+        <v>440103</v>
       </c>
       <c r="BA38" s="13">
-        <v>463542</v>
+        <v>418791</v>
       </c>
       <c r="BB38" s="13">
-        <v>418791</v>
+        <v>401516</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5123,92 +5123,92 @@
       <c r="Y39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="11" t="s">
-        <v>58</v>
+      <c r="Z39" s="11">
+        <v>99597</v>
       </c>
       <c r="AA39" s="11">
-        <v>99597</v>
+        <v>126443</v>
       </c>
       <c r="AB39" s="11">
-        <v>126443</v>
+        <v>126925</v>
       </c>
       <c r="AC39" s="11">
-        <v>126925</v>
+        <v>61552</v>
       </c>
       <c r="AD39" s="11">
-        <v>61552</v>
+        <v>160199</v>
       </c>
       <c r="AE39" s="11">
-        <v>160199</v>
+        <v>58676</v>
       </c>
       <c r="AF39" s="11">
-        <v>58676</v>
+        <v>112590</v>
       </c>
       <c r="AG39" s="11">
-        <v>112590</v>
+        <v>77241</v>
       </c>
       <c r="AH39" s="11">
-        <v>77241</v>
+        <v>146549</v>
       </c>
       <c r="AI39" s="11">
-        <v>146549</v>
+        <v>26569</v>
       </c>
       <c r="AJ39" s="11">
-        <v>26569</v>
+        <v>79411</v>
       </c>
       <c r="AK39" s="11">
-        <v>79411</v>
+        <v>140194</v>
       </c>
       <c r="AL39" s="11">
-        <v>140194</v>
+        <v>100281</v>
       </c>
       <c r="AM39" s="11">
-        <v>100281</v>
+        <v>83401</v>
       </c>
       <c r="AN39" s="11">
-        <v>83401</v>
+        <v>45914</v>
       </c>
       <c r="AO39" s="11">
-        <v>45914</v>
+        <v>100331</v>
       </c>
       <c r="AP39" s="11">
-        <v>100331</v>
+        <v>96570</v>
       </c>
       <c r="AQ39" s="11">
-        <v>96570</v>
+        <v>156769</v>
       </c>
       <c r="AR39" s="11">
-        <v>156769</v>
+        <v>52200</v>
       </c>
       <c r="AS39" s="11">
-        <v>52200</v>
+        <v>91395</v>
       </c>
       <c r="AT39" s="11">
-        <v>91395</v>
+        <v>98929</v>
       </c>
       <c r="AU39" s="11">
-        <v>98929</v>
+        <v>20687</v>
       </c>
       <c r="AV39" s="11">
-        <v>20687</v>
+        <v>135735</v>
       </c>
       <c r="AW39" s="11">
-        <v>135735</v>
+        <v>104370</v>
       </c>
       <c r="AX39" s="11">
-        <v>104370</v>
+        <v>51975</v>
       </c>
       <c r="AY39" s="11">
-        <v>51975</v>
+        <v>93648</v>
       </c>
       <c r="AZ39" s="11">
-        <v>93648</v>
+        <v>72147</v>
       </c>
       <c r="BA39" s="11">
-        <v>79867</v>
+        <v>68671</v>
       </c>
       <c r="BB39" s="11">
-        <v>68671</v>
+        <v>71042</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5309,44 +5309,44 @@
       <c r="AH40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI40" s="13" t="s">
-        <v>58</v>
+      <c r="AI40" s="13">
+        <v>24221</v>
       </c>
       <c r="AJ40" s="13">
-        <v>24221</v>
+        <v>78885</v>
       </c>
       <c r="AK40" s="13">
-        <v>78885</v>
+        <v>108909</v>
       </c>
       <c r="AL40" s="13">
-        <v>108909</v>
+        <v>122534</v>
       </c>
       <c r="AM40" s="13">
-        <v>122534</v>
+        <v>149006</v>
       </c>
       <c r="AN40" s="13">
-        <v>149006</v>
+        <v>89817</v>
       </c>
       <c r="AO40" s="13">
-        <v>89817</v>
+        <v>140404</v>
       </c>
       <c r="AP40" s="13">
-        <v>140404</v>
+        <v>77757</v>
       </c>
       <c r="AQ40" s="13">
-        <v>77757</v>
+        <v>126406</v>
       </c>
       <c r="AR40" s="13">
-        <v>126406</v>
+        <v>83622</v>
       </c>
       <c r="AS40" s="13">
-        <v>83622</v>
+        <v>140009</v>
       </c>
       <c r="AT40" s="13">
-        <v>140009</v>
-      </c>
-      <c r="AU40" s="13">
         <v>109915</v>
+      </c>
+      <c r="AU40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV40" s="13" t="s">
         <v>58</v>
@@ -5440,91 +5440,91 @@
         <v>0</v>
       </c>
       <c r="Z41" s="15">
-        <v>0</v>
+        <v>523533</v>
       </c>
       <c r="AA41" s="15">
-        <v>523533</v>
+        <v>664238</v>
       </c>
       <c r="AB41" s="15">
-        <v>664238</v>
+        <v>622036</v>
       </c>
       <c r="AC41" s="15">
-        <v>622036</v>
+        <v>590340</v>
       </c>
       <c r="AD41" s="15">
-        <v>590340</v>
+        <v>630386</v>
       </c>
       <c r="AE41" s="15">
-        <v>630386</v>
+        <v>542219</v>
       </c>
       <c r="AF41" s="15">
-        <v>542219</v>
+        <v>687286</v>
       </c>
       <c r="AG41" s="15">
-        <v>687286</v>
+        <v>566636</v>
       </c>
       <c r="AH41" s="15">
-        <v>566636</v>
+        <v>639999</v>
       </c>
       <c r="AI41" s="15">
-        <v>639999</v>
+        <v>185615</v>
       </c>
       <c r="AJ41" s="15">
-        <v>185615</v>
+        <v>577535</v>
       </c>
       <c r="AK41" s="15">
-        <v>577535</v>
+        <v>610941</v>
       </c>
       <c r="AL41" s="15">
-        <v>610941</v>
+        <v>647031</v>
       </c>
       <c r="AM41" s="15">
-        <v>647031</v>
+        <v>564776</v>
       </c>
       <c r="AN41" s="15">
-        <v>564776</v>
+        <v>603393</v>
       </c>
       <c r="AO41" s="15">
-        <v>603393</v>
+        <v>607079</v>
       </c>
       <c r="AP41" s="15">
-        <v>607079</v>
+        <v>559590</v>
       </c>
       <c r="AQ41" s="15">
-        <v>559590</v>
+        <v>692028</v>
       </c>
       <c r="AR41" s="15">
-        <v>692028</v>
+        <v>377612</v>
       </c>
       <c r="AS41" s="15">
-        <v>377612</v>
+        <v>636805</v>
       </c>
       <c r="AT41" s="15">
-        <v>636805</v>
+        <v>579208</v>
       </c>
       <c r="AU41" s="15">
-        <v>579208</v>
+        <v>167160</v>
       </c>
       <c r="AV41" s="15">
-        <v>167160</v>
+        <v>738304</v>
       </c>
       <c r="AW41" s="15">
-        <v>738304</v>
+        <v>688970</v>
       </c>
       <c r="AX41" s="15">
-        <v>688970</v>
+        <v>551033</v>
       </c>
       <c r="AY41" s="15">
-        <v>551033</v>
+        <v>631425</v>
       </c>
       <c r="AZ41" s="15">
-        <v>631425</v>
+        <v>649944</v>
       </c>
       <c r="BA41" s="15">
-        <v>700657</v>
+        <v>589090</v>
       </c>
       <c r="BB41" s="15">
-        <v>589090</v>
+        <v>631444</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5653,8 +5653,8 @@
       <c r="Y43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="15" t="s">
-        <v>58</v>
+      <c r="Z43" s="15">
+        <v>0</v>
       </c>
       <c r="AA43" s="15">
         <v>0</v>
@@ -5867,8 +5867,8 @@
       <c r="Y45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="15" t="s">
-        <v>58</v>
+      <c r="Z45" s="15">
+        <v>0</v>
       </c>
       <c r="AA45" s="15">
         <v>0</v>
@@ -6025,91 +6025,91 @@
         <v>0</v>
       </c>
       <c r="Z46" s="19">
-        <v>0</v>
+        <v>1050670</v>
       </c>
       <c r="AA46" s="19">
-        <v>1050670</v>
+        <v>1229680</v>
       </c>
       <c r="AB46" s="19">
-        <v>1229680</v>
+        <v>978892</v>
       </c>
       <c r="AC46" s="19">
-        <v>978892</v>
+        <v>979352</v>
       </c>
       <c r="AD46" s="19">
-        <v>979352</v>
+        <v>1053722</v>
       </c>
       <c r="AE46" s="19">
-        <v>1053722</v>
+        <v>914958</v>
       </c>
       <c r="AF46" s="19">
-        <v>914958</v>
+        <v>1017115</v>
       </c>
       <c r="AG46" s="19">
-        <v>1017115</v>
+        <v>893053</v>
       </c>
       <c r="AH46" s="19">
-        <v>893053</v>
+        <v>1229296</v>
       </c>
       <c r="AI46" s="19">
-        <v>1229296</v>
+        <v>340093</v>
       </c>
       <c r="AJ46" s="19">
-        <v>340093</v>
+        <v>1018730</v>
       </c>
       <c r="AK46" s="19">
-        <v>1018730</v>
+        <v>1123597</v>
       </c>
       <c r="AL46" s="19">
-        <v>1123597</v>
+        <v>999146</v>
       </c>
       <c r="AM46" s="19">
-        <v>999146</v>
+        <v>933843</v>
       </c>
       <c r="AN46" s="19">
-        <v>933843</v>
+        <v>1140171</v>
       </c>
       <c r="AO46" s="19">
-        <v>1140171</v>
+        <v>914431</v>
       </c>
       <c r="AP46" s="19">
-        <v>914431</v>
+        <v>932635</v>
       </c>
       <c r="AQ46" s="19">
-        <v>932635</v>
+        <v>1136191</v>
       </c>
       <c r="AR46" s="19">
-        <v>1136191</v>
+        <v>937747</v>
       </c>
       <c r="AS46" s="19">
-        <v>937747</v>
+        <v>988581</v>
       </c>
       <c r="AT46" s="19">
-        <v>988581</v>
+        <v>1065234</v>
       </c>
       <c r="AU46" s="19">
-        <v>1065234</v>
+        <v>258160</v>
       </c>
       <c r="AV46" s="19">
-        <v>258160</v>
+        <v>1265370</v>
       </c>
       <c r="AW46" s="19">
-        <v>1265370</v>
+        <v>1099902</v>
       </c>
       <c r="AX46" s="19">
-        <v>1099902</v>
+        <v>936223</v>
       </c>
       <c r="AY46" s="19">
-        <v>936223</v>
+        <v>1057778</v>
       </c>
       <c r="AZ46" s="19">
-        <v>1057778</v>
+        <v>1008018</v>
       </c>
       <c r="BA46" s="19">
-        <v>1077284</v>
+        <v>926953</v>
       </c>
       <c r="BB46" s="19">
-        <v>926953</v>
+        <v>1018537</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6617,36 +6617,36 @@
       <c r="Y53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Z53" s="11">
+        <v>91719</v>
       </c>
       <c r="AA53" s="11">
-        <v>91719</v>
+        <v>64644</v>
       </c>
       <c r="AB53" s="11">
-        <v>64644</v>
+        <v>38385</v>
       </c>
       <c r="AC53" s="11">
-        <v>38385</v>
+        <v>39593</v>
       </c>
       <c r="AD53" s="11">
-        <v>39593</v>
+        <v>72532</v>
       </c>
       <c r="AE53" s="11">
-        <v>72532</v>
+        <v>83617</v>
       </c>
       <c r="AF53" s="11">
-        <v>83617</v>
+        <v>35090</v>
       </c>
       <c r="AG53" s="11">
-        <v>35090</v>
+        <v>68882</v>
       </c>
       <c r="AH53" s="11">
-        <v>68882</v>
-      </c>
-      <c r="AI53" s="11">
         <v>105852</v>
       </c>
+      <c r="AI53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ53" s="11" t="s">
         <v>58</v>
       </c>
@@ -6680,29 +6680,29 @@
       <c r="AT53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
+      <c r="AU53" s="11">
+        <v>46885</v>
       </c>
       <c r="AV53" s="11">
-        <v>46885</v>
+        <v>311708</v>
       </c>
       <c r="AW53" s="11">
-        <v>311708</v>
+        <v>205509</v>
       </c>
       <c r="AX53" s="11">
-        <v>205509</v>
+        <v>241531</v>
       </c>
       <c r="AY53" s="11">
-        <v>241531</v>
+        <v>333143</v>
       </c>
       <c r="AZ53" s="11">
-        <v>333143</v>
+        <v>217001</v>
       </c>
       <c r="BA53" s="11">
-        <v>227730</v>
+        <v>318089</v>
       </c>
       <c r="BB53" s="11">
-        <v>318088</v>
+        <v>288736</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6776,92 +6776,92 @@
       <c r="Y54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z54" s="13" t="s">
-        <v>58</v>
+      <c r="Z54" s="13">
+        <v>99165</v>
       </c>
       <c r="AA54" s="13">
-        <v>99165</v>
+        <v>138574</v>
       </c>
       <c r="AB54" s="13">
-        <v>138574</v>
+        <v>77678</v>
       </c>
       <c r="AC54" s="13">
-        <v>77678</v>
+        <v>93297</v>
       </c>
       <c r="AD54" s="13">
-        <v>93297</v>
+        <v>88796</v>
       </c>
       <c r="AE54" s="13">
-        <v>88796</v>
+        <v>85251</v>
       </c>
       <c r="AF54" s="13">
-        <v>85251</v>
+        <v>102061</v>
       </c>
       <c r="AG54" s="13">
-        <v>102061</v>
+        <v>99098</v>
       </c>
       <c r="AH54" s="13">
-        <v>99098</v>
+        <v>182395</v>
       </c>
       <c r="AI54" s="13">
-        <v>182395</v>
+        <v>16981</v>
       </c>
       <c r="AJ54" s="13">
-        <v>16981</v>
+        <v>102944</v>
       </c>
       <c r="AK54" s="13">
-        <v>102944</v>
+        <v>120664</v>
       </c>
       <c r="AL54" s="13">
-        <v>120664</v>
+        <v>108731</v>
       </c>
       <c r="AM54" s="13">
-        <v>108731</v>
+        <v>122151</v>
       </c>
       <c r="AN54" s="13">
-        <v>122151</v>
+        <v>169664</v>
       </c>
       <c r="AO54" s="13">
-        <v>169664</v>
+        <v>108633</v>
       </c>
       <c r="AP54" s="13">
-        <v>108633</v>
+        <v>143495</v>
       </c>
       <c r="AQ54" s="13">
-        <v>143495</v>
+        <v>180232</v>
       </c>
       <c r="AR54" s="13">
-        <v>180232</v>
+        <v>213080</v>
       </c>
       <c r="AS54" s="13">
-        <v>213080</v>
+        <v>142168</v>
       </c>
       <c r="AT54" s="13">
-        <v>142168</v>
+        <v>188996</v>
       </c>
       <c r="AU54" s="13">
-        <v>188996</v>
+        <v>28813</v>
       </c>
       <c r="AV54" s="13">
-        <v>28813</v>
+        <v>182024</v>
       </c>
       <c r="AW54" s="13">
-        <v>182024</v>
+        <v>142635</v>
       </c>
       <c r="AX54" s="13">
-        <v>142635</v>
+        <v>95455</v>
       </c>
       <c r="AY54" s="13">
-        <v>95455</v>
+        <v>128565</v>
       </c>
       <c r="AZ54" s="13">
-        <v>128565</v>
+        <v>99688</v>
       </c>
       <c r="BA54" s="13">
-        <v>111367</v>
+        <v>93125</v>
       </c>
       <c r="BB54" s="13">
-        <v>93125</v>
+        <v>87827</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6935,92 +6935,92 @@
       <c r="Y55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="11" t="s">
-        <v>58</v>
+      <c r="Z55" s="11">
+        <v>19982</v>
       </c>
       <c r="AA55" s="11">
-        <v>19982</v>
+        <v>24741</v>
       </c>
       <c r="AB55" s="11">
-        <v>24741</v>
+        <v>23815</v>
       </c>
       <c r="AC55" s="11">
-        <v>23815</v>
+        <v>25235</v>
       </c>
       <c r="AD55" s="11">
-        <v>25235</v>
+        <v>30868</v>
       </c>
       <c r="AE55" s="11">
-        <v>30868</v>
+        <v>25977</v>
       </c>
       <c r="AF55" s="11">
-        <v>25977</v>
+        <v>21210</v>
       </c>
       <c r="AG55" s="11">
-        <v>21210</v>
+        <v>17439</v>
       </c>
       <c r="AH55" s="11">
-        <v>17439</v>
+        <v>27448</v>
       </c>
       <c r="AI55" s="11">
-        <v>27448</v>
+        <v>9756</v>
       </c>
       <c r="AJ55" s="11">
-        <v>9756</v>
+        <v>26510</v>
       </c>
       <c r="AK55" s="11">
-        <v>26510</v>
+        <v>28638</v>
       </c>
       <c r="AL55" s="11">
-        <v>28638</v>
+        <v>20848</v>
       </c>
       <c r="AM55" s="11">
-        <v>20848</v>
+        <v>22730</v>
       </c>
       <c r="AN55" s="11">
-        <v>22730</v>
+        <v>29287</v>
       </c>
       <c r="AO55" s="11">
-        <v>29287</v>
+        <v>13800</v>
       </c>
       <c r="AP55" s="11">
-        <v>13800</v>
+        <v>19450</v>
       </c>
       <c r="AQ55" s="11">
-        <v>19450</v>
+        <v>20005</v>
       </c>
       <c r="AR55" s="11">
-        <v>20005</v>
+        <v>25965</v>
       </c>
       <c r="AS55" s="11">
-        <v>25965</v>
+        <v>22973</v>
       </c>
       <c r="AT55" s="11">
-        <v>22973</v>
+        <v>28613</v>
       </c>
       <c r="AU55" s="11">
-        <v>28613</v>
+        <v>8133</v>
       </c>
       <c r="AV55" s="11">
-        <v>8133</v>
+        <v>33272</v>
       </c>
       <c r="AW55" s="11">
-        <v>33272</v>
+        <v>42481</v>
       </c>
       <c r="AX55" s="11">
-        <v>42481</v>
+        <v>44975</v>
       </c>
       <c r="AY55" s="11">
-        <v>44975</v>
+        <v>34481</v>
       </c>
       <c r="AZ55" s="11">
-        <v>34481</v>
+        <v>37490</v>
       </c>
       <c r="BA55" s="11">
-        <v>40006</v>
+        <v>30797</v>
       </c>
       <c r="BB55" s="11">
-        <v>30798</v>
+        <v>47534</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7121,44 +7121,44 @@
       <c r="AH56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI56" s="13" t="s">
-        <v>58</v>
+      <c r="AI56" s="13">
+        <v>85420</v>
       </c>
       <c r="AJ56" s="13">
-        <v>85420</v>
+        <v>164318</v>
       </c>
       <c r="AK56" s="13">
-        <v>164318</v>
+        <v>181602</v>
       </c>
       <c r="AL56" s="13">
-        <v>181602</v>
+        <v>133471</v>
       </c>
       <c r="AM56" s="13">
-        <v>133471</v>
+        <v>155524</v>
       </c>
       <c r="AN56" s="13">
-        <v>155524</v>
+        <v>269597</v>
       </c>
       <c r="AO56" s="13">
-        <v>269597</v>
+        <v>143720</v>
       </c>
       <c r="AP56" s="13">
-        <v>143720</v>
+        <v>193974</v>
       </c>
       <c r="AQ56" s="13">
-        <v>193974</v>
+        <v>240164</v>
       </c>
       <c r="AR56" s="13">
-        <v>240164</v>
+        <v>297223</v>
       </c>
       <c r="AS56" s="13">
-        <v>297223</v>
+        <v>171892</v>
       </c>
       <c r="AT56" s="13">
-        <v>171892</v>
-      </c>
-      <c r="AU56" s="13">
         <v>242794</v>
+      </c>
+      <c r="AU56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV56" s="13" t="s">
         <v>58</v>
@@ -7252,91 +7252,91 @@
         <v>0</v>
       </c>
       <c r="Z57" s="15">
-        <v>0</v>
+        <v>210866</v>
       </c>
       <c r="AA57" s="15">
-        <v>210866</v>
+        <v>227959</v>
       </c>
       <c r="AB57" s="15">
-        <v>227959</v>
+        <v>139878</v>
       </c>
       <c r="AC57" s="15">
-        <v>139878</v>
+        <v>158125</v>
       </c>
       <c r="AD57" s="15">
-        <v>158125</v>
+        <v>192196</v>
       </c>
       <c r="AE57" s="15">
-        <v>192196</v>
+        <v>194845</v>
       </c>
       <c r="AF57" s="15">
-        <v>194845</v>
+        <v>158361</v>
       </c>
       <c r="AG57" s="15">
-        <v>158361</v>
+        <v>185419</v>
       </c>
       <c r="AH57" s="15">
-        <v>185419</v>
+        <v>315695</v>
       </c>
       <c r="AI57" s="15">
-        <v>315695</v>
+        <v>112157</v>
       </c>
       <c r="AJ57" s="15">
-        <v>112157</v>
+        <v>293772</v>
       </c>
       <c r="AK57" s="15">
-        <v>293772</v>
+        <v>330904</v>
       </c>
       <c r="AL57" s="15">
-        <v>330904</v>
+        <v>263050</v>
       </c>
       <c r="AM57" s="15">
-        <v>263050</v>
+        <v>300405</v>
       </c>
       <c r="AN57" s="15">
-        <v>300405</v>
+        <v>468548</v>
       </c>
       <c r="AO57" s="15">
-        <v>468548</v>
+        <v>266153</v>
       </c>
       <c r="AP57" s="15">
-        <v>266153</v>
+        <v>356919</v>
       </c>
       <c r="AQ57" s="15">
-        <v>356919</v>
+        <v>440401</v>
       </c>
       <c r="AR57" s="15">
-        <v>440401</v>
+        <v>536268</v>
       </c>
       <c r="AS57" s="15">
-        <v>536268</v>
+        <v>337033</v>
       </c>
       <c r="AT57" s="15">
-        <v>337033</v>
+        <v>460403</v>
       </c>
       <c r="AU57" s="15">
-        <v>460403</v>
+        <v>83831</v>
       </c>
       <c r="AV57" s="15">
-        <v>83831</v>
+        <v>527004</v>
       </c>
       <c r="AW57" s="15">
-        <v>527004</v>
+        <v>390625</v>
       </c>
       <c r="AX57" s="15">
-        <v>390625</v>
+        <v>381961</v>
       </c>
       <c r="AY57" s="15">
-        <v>381961</v>
+        <v>496189</v>
       </c>
       <c r="AZ57" s="15">
-        <v>496189</v>
+        <v>354179</v>
       </c>
       <c r="BA57" s="15">
-        <v>379103</v>
+        <v>442011</v>
       </c>
       <c r="BB57" s="15">
-        <v>442011</v>
+        <v>424097</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7467,36 +7467,36 @@
       <c r="Y59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Z59" s="11">
+        <v>19999</v>
       </c>
       <c r="AA59" s="11">
-        <v>19999</v>
+        <v>81194</v>
       </c>
       <c r="AB59" s="11">
-        <v>81194</v>
+        <v>46269</v>
       </c>
       <c r="AC59" s="11">
-        <v>46269</v>
+        <v>121884</v>
       </c>
       <c r="AD59" s="11">
-        <v>121884</v>
+        <v>29875</v>
       </c>
       <c r="AE59" s="11">
-        <v>29875</v>
+        <v>39777</v>
       </c>
       <c r="AF59" s="11">
-        <v>39777</v>
+        <v>132236</v>
       </c>
       <c r="AG59" s="11">
-        <v>132236</v>
+        <v>67300</v>
       </c>
       <c r="AH59" s="11">
-        <v>67300</v>
-      </c>
-      <c r="AI59" s="11">
         <v>92430</v>
       </c>
+      <c r="AI59" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ59" s="11" t="s">
         <v>58</v>
       </c>
@@ -7530,29 +7530,29 @@
       <c r="AT59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU59" s="11" t="s">
-        <v>58</v>
+      <c r="AU59" s="11">
+        <v>29004</v>
       </c>
       <c r="AV59" s="11">
-        <v>29004</v>
+        <v>152016</v>
       </c>
       <c r="AW59" s="11">
-        <v>152016</v>
+        <v>222900</v>
       </c>
       <c r="AX59" s="11">
-        <v>222900</v>
+        <v>169118</v>
       </c>
       <c r="AY59" s="11">
-        <v>169118</v>
+        <v>164015</v>
       </c>
       <c r="AZ59" s="11">
-        <v>164015</v>
+        <v>186467</v>
       </c>
       <c r="BA59" s="11">
-        <v>213746</v>
+        <v>157123</v>
       </c>
       <c r="BB59" s="11">
-        <v>157123</v>
+        <v>234660</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7626,92 +7626,92 @@
       <c r="Y60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z60" s="13" t="s">
-        <v>58</v>
+      <c r="Z60" s="13">
+        <v>223081</v>
       </c>
       <c r="AA60" s="13">
-        <v>223081</v>
+        <v>265666</v>
       </c>
       <c r="AB60" s="13">
-        <v>265666</v>
+        <v>313803</v>
       </c>
       <c r="AC60" s="13">
-        <v>313803</v>
+        <v>328067</v>
       </c>
       <c r="AD60" s="13">
-        <v>328067</v>
+        <v>354756</v>
       </c>
       <c r="AE60" s="13">
-        <v>354756</v>
+        <v>339312</v>
       </c>
       <c r="AF60" s="13">
-        <v>339312</v>
+        <v>329116</v>
       </c>
       <c r="AG60" s="13">
-        <v>329116</v>
+        <v>275356</v>
       </c>
       <c r="AH60" s="13">
-        <v>275356</v>
+        <v>279143</v>
       </c>
       <c r="AI60" s="13">
-        <v>279143</v>
+        <v>97640</v>
       </c>
       <c r="AJ60" s="13">
-        <v>97640</v>
+        <v>276416</v>
       </c>
       <c r="AK60" s="13">
-        <v>276416</v>
+        <v>244439</v>
       </c>
       <c r="AL60" s="13">
-        <v>244439</v>
+        <v>306873</v>
       </c>
       <c r="AM60" s="13">
-        <v>306873</v>
+        <v>262913</v>
       </c>
       <c r="AN60" s="13">
-        <v>262913</v>
+        <v>408445</v>
       </c>
       <c r="AO60" s="13">
-        <v>408445</v>
+        <v>323609</v>
       </c>
       <c r="AP60" s="13">
-        <v>323609</v>
+        <v>335119</v>
       </c>
       <c r="AQ60" s="13">
-        <v>335119</v>
+        <v>363015</v>
       </c>
       <c r="AR60" s="13">
-        <v>363015</v>
+        <v>216631</v>
       </c>
       <c r="AS60" s="13">
-        <v>216631</v>
+        <v>329162</v>
       </c>
       <c r="AT60" s="13">
-        <v>329162</v>
+        <v>303289</v>
       </c>
       <c r="AU60" s="13">
-        <v>303289</v>
+        <v>91544</v>
       </c>
       <c r="AV60" s="13">
-        <v>91544</v>
+        <v>389509</v>
       </c>
       <c r="AW60" s="13">
-        <v>389509</v>
+        <v>377878</v>
       </c>
       <c r="AX60" s="13">
-        <v>377878</v>
+        <v>370302</v>
       </c>
       <c r="AY60" s="13">
-        <v>370302</v>
+        <v>435562</v>
       </c>
       <c r="AZ60" s="13">
-        <v>435562</v>
+        <v>419503</v>
       </c>
       <c r="BA60" s="13">
-        <v>468773</v>
+        <v>444035</v>
       </c>
       <c r="BB60" s="13">
-        <v>444036</v>
+        <v>456304</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7785,92 +7785,92 @@
       <c r="Y61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z61" s="11" t="s">
-        <v>58</v>
+      <c r="Z61" s="11">
+        <v>10318</v>
       </c>
       <c r="AA61" s="11">
-        <v>10318</v>
+        <v>12697</v>
       </c>
       <c r="AB61" s="11">
-        <v>12697</v>
+        <v>14512</v>
       </c>
       <c r="AC61" s="11">
-        <v>14512</v>
+        <v>8714</v>
       </c>
       <c r="AD61" s="11">
-        <v>8714</v>
+        <v>22536</v>
       </c>
       <c r="AE61" s="11">
-        <v>22536</v>
+        <v>7307</v>
       </c>
       <c r="AF61" s="11">
-        <v>7307</v>
+        <v>15872</v>
       </c>
       <c r="AG61" s="11">
-        <v>15872</v>
+        <v>10136</v>
       </c>
       <c r="AH61" s="11">
-        <v>10136</v>
+        <v>18930</v>
       </c>
       <c r="AI61" s="11">
-        <v>18930</v>
+        <v>2464</v>
       </c>
       <c r="AJ61" s="11">
-        <v>2464</v>
+        <v>9121</v>
       </c>
       <c r="AK61" s="11">
-        <v>9121</v>
+        <v>16127</v>
       </c>
       <c r="AL61" s="11">
-        <v>16127</v>
+        <v>14060</v>
       </c>
       <c r="AM61" s="11">
-        <v>14060</v>
+        <v>10982</v>
       </c>
       <c r="AN61" s="11">
-        <v>10982</v>
+        <v>7529</v>
       </c>
       <c r="AO61" s="11">
-        <v>7529</v>
+        <v>17266</v>
       </c>
       <c r="AP61" s="11">
-        <v>17266</v>
+        <v>15697</v>
       </c>
       <c r="AQ61" s="11">
-        <v>15697</v>
+        <v>25719</v>
       </c>
       <c r="AR61" s="11">
-        <v>25719</v>
+        <v>9069</v>
       </c>
       <c r="AS61" s="11">
-        <v>9069</v>
+        <v>13384</v>
       </c>
       <c r="AT61" s="11">
-        <v>13384</v>
+        <v>17230</v>
       </c>
       <c r="AU61" s="11">
-        <v>17230</v>
+        <v>2661</v>
       </c>
       <c r="AV61" s="11">
-        <v>2661</v>
+        <v>23910</v>
       </c>
       <c r="AW61" s="11">
-        <v>23910</v>
+        <v>17857</v>
       </c>
       <c r="AX61" s="11">
-        <v>17857</v>
+        <v>12214</v>
       </c>
       <c r="AY61" s="11">
-        <v>12214</v>
+        <v>21005</v>
       </c>
       <c r="AZ61" s="11">
-        <v>21005</v>
+        <v>16007</v>
       </c>
       <c r="BA61" s="11">
-        <v>16008</v>
+        <v>16732</v>
       </c>
       <c r="BB61" s="11">
-        <v>16731</v>
+        <v>18434</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7971,44 +7971,44 @@
       <c r="AH62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI62" s="13" t="s">
-        <v>58</v>
+      <c r="AI62" s="13">
+        <v>17227</v>
       </c>
       <c r="AJ62" s="13">
-        <v>17227</v>
+        <v>54115</v>
       </c>
       <c r="AK62" s="13">
-        <v>54115</v>
+        <v>77260</v>
       </c>
       <c r="AL62" s="13">
-        <v>77260</v>
+        <v>99278</v>
       </c>
       <c r="AM62" s="13">
-        <v>99278</v>
+        <v>135620</v>
       </c>
       <c r="AN62" s="13">
-        <v>135620</v>
+        <v>88603</v>
       </c>
       <c r="AO62" s="13">
-        <v>88603</v>
+        <v>157623</v>
       </c>
       <c r="AP62" s="13">
-        <v>157623</v>
+        <v>84504</v>
       </c>
       <c r="AQ62" s="13">
-        <v>84504</v>
+        <v>142667</v>
       </c>
       <c r="AR62" s="13">
-        <v>142667</v>
+        <v>91194</v>
       </c>
       <c r="AS62" s="13">
-        <v>91194</v>
+        <v>140962</v>
       </c>
       <c r="AT62" s="13">
-        <v>140962</v>
-      </c>
-      <c r="AU62" s="13">
         <v>97155</v>
+      </c>
+      <c r="AU62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV62" s="13" t="s">
         <v>58</v>
@@ -8102,91 +8102,91 @@
         <v>0</v>
       </c>
       <c r="Z63" s="15">
-        <v>0</v>
+        <v>253398</v>
       </c>
       <c r="AA63" s="15">
-        <v>253398</v>
+        <v>359557</v>
       </c>
       <c r="AB63" s="15">
-        <v>359557</v>
+        <v>374584</v>
       </c>
       <c r="AC63" s="15">
-        <v>374584</v>
+        <v>458665</v>
       </c>
       <c r="AD63" s="15">
-        <v>458665</v>
+        <v>407167</v>
       </c>
       <c r="AE63" s="15">
-        <v>407167</v>
+        <v>386396</v>
       </c>
       <c r="AF63" s="15">
-        <v>386396</v>
+        <v>477224</v>
       </c>
       <c r="AG63" s="15">
-        <v>477224</v>
+        <v>352792</v>
       </c>
       <c r="AH63" s="15">
-        <v>352792</v>
+        <v>390503</v>
       </c>
       <c r="AI63" s="15">
-        <v>390503</v>
+        <v>117331</v>
       </c>
       <c r="AJ63" s="15">
-        <v>117331</v>
+        <v>339652</v>
       </c>
       <c r="AK63" s="15">
-        <v>339652</v>
+        <v>337826</v>
       </c>
       <c r="AL63" s="15">
-        <v>337826</v>
+        <v>420211</v>
       </c>
       <c r="AM63" s="15">
-        <v>420211</v>
+        <v>409515</v>
       </c>
       <c r="AN63" s="15">
-        <v>409515</v>
+        <v>504577</v>
       </c>
       <c r="AO63" s="15">
-        <v>504577</v>
+        <v>498498</v>
       </c>
       <c r="AP63" s="15">
-        <v>498498</v>
+        <v>435320</v>
       </c>
       <c r="AQ63" s="15">
-        <v>435320</v>
+        <v>531401</v>
       </c>
       <c r="AR63" s="15">
-        <v>531401</v>
+        <v>316894</v>
       </c>
       <c r="AS63" s="15">
-        <v>316894</v>
+        <v>483508</v>
       </c>
       <c r="AT63" s="15">
-        <v>483508</v>
+        <v>417674</v>
       </c>
       <c r="AU63" s="15">
-        <v>417674</v>
+        <v>123209</v>
       </c>
       <c r="AV63" s="15">
-        <v>123209</v>
+        <v>565435</v>
       </c>
       <c r="AW63" s="15">
-        <v>565435</v>
+        <v>618635</v>
       </c>
       <c r="AX63" s="15">
-        <v>618635</v>
+        <v>551634</v>
       </c>
       <c r="AY63" s="15">
-        <v>551634</v>
+        <v>620582</v>
       </c>
       <c r="AZ63" s="15">
-        <v>620582</v>
+        <v>621977</v>
       </c>
       <c r="BA63" s="15">
-        <v>698527</v>
+        <v>617890</v>
       </c>
       <c r="BB63" s="15">
-        <v>617890</v>
+        <v>709398</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8317,8 +8317,8 @@
       <c r="Y65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="15" t="s">
-        <v>58</v>
+      <c r="Z65" s="15">
+        <v>0</v>
       </c>
       <c r="AA65" s="15">
         <v>0</v>
@@ -8533,8 +8533,8 @@
       <c r="Y67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="15" t="s">
-        <v>58</v>
+      <c r="Z67" s="15">
+        <v>0</v>
       </c>
       <c r="AA67" s="15">
         <v>0</v>
@@ -8749,92 +8749,92 @@
       <c r="Y69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Z69" s="11">
+        <v>-31997</v>
       </c>
       <c r="AA69" s="11">
-        <v>-31997</v>
+        <v>-22090</v>
       </c>
       <c r="AB69" s="11">
-        <v>-22090</v>
+        <v>-43336</v>
       </c>
       <c r="AC69" s="11">
-        <v>-43336</v>
+        <v>-33072</v>
       </c>
       <c r="AD69" s="11">
-        <v>-33072</v>
+        <v>-28567</v>
       </c>
       <c r="AE69" s="11">
-        <v>-28567</v>
+        <v>-30966</v>
       </c>
       <c r="AF69" s="11">
-        <v>-30966</v>
+        <v>-17983</v>
       </c>
       <c r="AG69" s="11">
-        <v>-17983</v>
+        <v>-19430</v>
       </c>
       <c r="AH69" s="11">
-        <v>-19430</v>
+        <v>-48332</v>
       </c>
       <c r="AI69" s="11">
-        <v>-48332</v>
+        <v>-31972</v>
       </c>
       <c r="AJ69" s="11">
-        <v>-31972</v>
+        <v>-27449</v>
       </c>
       <c r="AK69" s="11">
-        <v>-27449</v>
+        <v>-39135</v>
       </c>
       <c r="AL69" s="11">
-        <v>-39135</v>
+        <v>-39898</v>
       </c>
       <c r="AM69" s="11">
-        <v>-39898</v>
+        <v>-25582</v>
       </c>
       <c r="AN69" s="11">
-        <v>-25582</v>
+        <v>-52700</v>
       </c>
       <c r="AO69" s="11">
-        <v>-52700</v>
+        <v>-53894</v>
       </c>
       <c r="AP69" s="11">
-        <v>-53894</v>
+        <v>-90981</v>
       </c>
       <c r="AQ69" s="11">
-        <v>-90981</v>
+        <v>-134175</v>
       </c>
       <c r="AR69" s="11">
-        <v>-134175</v>
+        <v>-110041</v>
       </c>
       <c r="AS69" s="11">
-        <v>-110041</v>
+        <v>-42426</v>
       </c>
       <c r="AT69" s="11">
-        <v>-42426</v>
+        <v>-61328</v>
       </c>
       <c r="AU69" s="11">
-        <v>-61328</v>
+        <v>-8244</v>
       </c>
       <c r="AV69" s="11">
-        <v>-8244</v>
+        <v>-59767</v>
       </c>
       <c r="AW69" s="11">
-        <v>-59767</v>
+        <v>-65838</v>
       </c>
       <c r="AX69" s="11">
-        <v>-65838</v>
+        <v>-56427</v>
       </c>
       <c r="AY69" s="11">
-        <v>-56427</v>
+        <v>-68288</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-68288</v>
+        <v>-34959</v>
       </c>
       <c r="BA69" s="11">
-        <v>-34959</v>
+        <v>-49476</v>
       </c>
       <c r="BB69" s="11">
-        <v>-49476</v>
+        <v>-40530</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8907,91 +8907,91 @@
         <v>0</v>
       </c>
       <c r="Z70" s="19">
-        <v>0</v>
+        <v>432267</v>
       </c>
       <c r="AA70" s="19">
-        <v>432267</v>
+        <v>565426</v>
       </c>
       <c r="AB70" s="19">
-        <v>565426</v>
+        <v>471126</v>
       </c>
       <c r="AC70" s="19">
-        <v>471126</v>
+        <v>583718</v>
       </c>
       <c r="AD70" s="19">
-        <v>583718</v>
+        <v>570796</v>
       </c>
       <c r="AE70" s="19">
-        <v>570796</v>
+        <v>550275</v>
       </c>
       <c r="AF70" s="19">
-        <v>550275</v>
+        <v>617602</v>
       </c>
       <c r="AG70" s="19">
-        <v>617602</v>
+        <v>518781</v>
       </c>
       <c r="AH70" s="19">
-        <v>518781</v>
+        <v>657866</v>
       </c>
       <c r="AI70" s="19">
-        <v>657866</v>
+        <v>197516</v>
       </c>
       <c r="AJ70" s="19">
-        <v>197516</v>
+        <v>605975</v>
       </c>
       <c r="AK70" s="19">
-        <v>605975</v>
+        <v>629595</v>
       </c>
       <c r="AL70" s="19">
-        <v>629595</v>
+        <v>643363</v>
       </c>
       <c r="AM70" s="19">
-        <v>643363</v>
+        <v>684338</v>
       </c>
       <c r="AN70" s="19">
-        <v>684338</v>
+        <v>920425</v>
       </c>
       <c r="AO70" s="19">
-        <v>920425</v>
+        <v>710757</v>
       </c>
       <c r="AP70" s="19">
-        <v>710757</v>
+        <v>701258</v>
       </c>
       <c r="AQ70" s="19">
-        <v>701258</v>
+        <v>837627</v>
       </c>
       <c r="AR70" s="19">
-        <v>837627</v>
+        <v>743121</v>
       </c>
       <c r="AS70" s="19">
-        <v>743121</v>
+        <v>778115</v>
       </c>
       <c r="AT70" s="19">
-        <v>778115</v>
+        <v>816749</v>
       </c>
       <c r="AU70" s="19">
-        <v>816749</v>
+        <v>198796</v>
       </c>
       <c r="AV70" s="19">
-        <v>198796</v>
+        <v>1032672</v>
       </c>
       <c r="AW70" s="19">
-        <v>1032672</v>
+        <v>943422</v>
       </c>
       <c r="AX70" s="19">
-        <v>943422</v>
+        <v>877168</v>
       </c>
       <c r="AY70" s="19">
-        <v>877168</v>
+        <v>1048483</v>
       </c>
       <c r="AZ70" s="19">
-        <v>1048483</v>
+        <v>941197</v>
       </c>
       <c r="BA70" s="19">
-        <v>1042671</v>
+        <v>1010425</v>
       </c>
       <c r="BB70" s="19">
-        <v>1010425</v>
+        <v>1092965</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9499,36 +9499,36 @@
       <c r="Y77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Z77" s="11">
+        <v>583406</v>
       </c>
       <c r="AA77" s="11">
-        <v>583406</v>
+        <v>588609</v>
       </c>
       <c r="AB77" s="11">
-        <v>588609</v>
+        <v>547817</v>
       </c>
       <c r="AC77" s="11">
-        <v>547817</v>
+        <v>492886</v>
       </c>
       <c r="AD77" s="11">
-        <v>492886</v>
+        <v>673132</v>
       </c>
       <c r="AE77" s="11">
-        <v>673132</v>
+        <v>808581</v>
       </c>
       <c r="AF77" s="11">
-        <v>808581</v>
+        <v>648206</v>
       </c>
       <c r="AG77" s="11">
-        <v>648206</v>
+        <v>781853</v>
       </c>
       <c r="AH77" s="11">
-        <v>781853</v>
-      </c>
-      <c r="AI77" s="11">
         <v>695133</v>
       </c>
+      <c r="AI77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ77" s="11" t="s">
         <v>58</v>
       </c>
@@ -9562,29 +9562,29 @@
       <c r="AT77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU77" s="11" t="s">
-        <v>58</v>
+      <c r="AU77" s="11">
+        <v>1270114</v>
       </c>
       <c r="AV77" s="11">
-        <v>1270114</v>
+        <v>1403875</v>
       </c>
       <c r="AW77" s="11">
-        <v>1403875</v>
+        <v>1757990</v>
       </c>
       <c r="AX77" s="11">
-        <v>1757990</v>
+        <v>1918877</v>
       </c>
       <c r="AY77" s="11">
-        <v>1918877</v>
+        <v>1902142</v>
       </c>
       <c r="AZ77" s="11">
-        <v>1902142</v>
+        <v>1880408</v>
       </c>
       <c r="BA77" s="11">
-        <v>1875355</v>
+        <v>2105183</v>
       </c>
       <c r="BB77" s="11">
-        <v>2105177</v>
+        <v>2053467</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9658,92 +9658,92 @@
       <c r="Y78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z78" s="13" t="s">
-        <v>58</v>
+      <c r="Z78" s="13">
+        <v>581923</v>
       </c>
       <c r="AA78" s="13">
-        <v>581923</v>
+        <v>601040</v>
       </c>
       <c r="AB78" s="13">
-        <v>601040</v>
+        <v>602884</v>
       </c>
       <c r="AC78" s="13">
-        <v>602884</v>
+        <v>639288</v>
       </c>
       <c r="AD78" s="13">
-        <v>639288</v>
+        <v>687584</v>
       </c>
       <c r="AE78" s="13">
-        <v>687584</v>
+        <v>688858</v>
       </c>
       <c r="AF78" s="13">
-        <v>688858</v>
+        <v>680924</v>
       </c>
       <c r="AG78" s="13">
-        <v>680924</v>
+        <v>731712</v>
       </c>
       <c r="AH78" s="13">
-        <v>731712</v>
+        <v>672146</v>
       </c>
       <c r="AI78" s="13">
-        <v>672146</v>
+        <v>782066</v>
       </c>
       <c r="AJ78" s="13">
-        <v>782066</v>
+        <v>868286</v>
       </c>
       <c r="AK78" s="13">
-        <v>868286</v>
+        <v>766856</v>
       </c>
       <c r="AL78" s="13">
-        <v>766856</v>
+        <v>876665</v>
       </c>
       <c r="AM78" s="13">
-        <v>876665</v>
+        <v>973160</v>
       </c>
       <c r="AN78" s="13">
-        <v>973160</v>
+        <v>959443</v>
       </c>
       <c r="AO78" s="13">
-        <v>959443</v>
+        <v>943068</v>
       </c>
       <c r="AP78" s="13">
-        <v>943068</v>
+        <v>975539</v>
       </c>
       <c r="AQ78" s="13">
-        <v>975539</v>
+        <v>1041665</v>
       </c>
       <c r="AR78" s="13">
-        <v>1041665</v>
+        <v>1023931</v>
       </c>
       <c r="AS78" s="13">
-        <v>1023931</v>
+        <v>990186</v>
       </c>
       <c r="AT78" s="13">
-        <v>990186</v>
+        <v>1000646</v>
       </c>
       <c r="AU78" s="13">
-        <v>1000646</v>
+        <v>1126564</v>
       </c>
       <c r="AV78" s="13">
-        <v>1126564</v>
+        <v>1096042</v>
       </c>
       <c r="AW78" s="13">
-        <v>1096042</v>
+        <v>1168364</v>
       </c>
       <c r="AX78" s="13">
-        <v>1168364</v>
+        <v>1252132</v>
       </c>
       <c r="AY78" s="13">
-        <v>1252132</v>
+        <v>1203454</v>
       </c>
       <c r="AZ78" s="13">
-        <v>1203454</v>
+        <v>1143263</v>
       </c>
       <c r="BA78" s="13">
-        <v>1145103</v>
+        <v>1183261</v>
       </c>
       <c r="BB78" s="13">
-        <v>1183261</v>
+        <v>1158591</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9817,92 +9817,92 @@
       <c r="Y79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z79" s="11" t="s">
-        <v>58</v>
+      <c r="Z79" s="11">
+        <v>100153</v>
       </c>
       <c r="AA79" s="11">
-        <v>100153</v>
+        <v>109931</v>
       </c>
       <c r="AB79" s="11">
-        <v>109931</v>
+        <v>150782</v>
       </c>
       <c r="AC79" s="11">
-        <v>150782</v>
+        <v>155059</v>
       </c>
       <c r="AD79" s="11">
-        <v>155059</v>
+        <v>165564</v>
       </c>
       <c r="AE79" s="11">
-        <v>165564</v>
+        <v>178450</v>
       </c>
       <c r="AF79" s="11">
-        <v>178450</v>
+        <v>168589</v>
       </c>
       <c r="AG79" s="11">
-        <v>168589</v>
+        <v>169503</v>
       </c>
       <c r="AH79" s="11">
-        <v>169503</v>
+        <v>165690</v>
       </c>
       <c r="AI79" s="11">
-        <v>165690</v>
+        <v>179487</v>
       </c>
       <c r="AJ79" s="11">
-        <v>179487</v>
+        <v>185465</v>
       </c>
       <c r="AK79" s="11">
-        <v>185465</v>
+        <v>179932</v>
       </c>
       <c r="AL79" s="11">
-        <v>179932</v>
+        <v>209838</v>
       </c>
       <c r="AM79" s="11">
-        <v>209838</v>
+        <v>206977</v>
       </c>
       <c r="AN79" s="11">
-        <v>206977</v>
+        <v>204200</v>
       </c>
       <c r="AO79" s="11">
-        <v>204200</v>
+        <v>219647</v>
       </c>
       <c r="AP79" s="11">
-        <v>219647</v>
+        <v>223846</v>
       </c>
       <c r="AQ79" s="11">
-        <v>223846</v>
+        <v>222433</v>
       </c>
       <c r="AR79" s="11">
-        <v>222433</v>
+        <v>211600</v>
       </c>
       <c r="AS79" s="11">
-        <v>211600</v>
+        <v>244959</v>
       </c>
       <c r="AT79" s="11">
-        <v>244959</v>
+        <v>211450</v>
       </c>
       <c r="AU79" s="11">
-        <v>211450</v>
+        <v>285268</v>
       </c>
       <c r="AV79" s="11">
-        <v>285268</v>
+        <v>239439</v>
       </c>
       <c r="AW79" s="11">
-        <v>239439</v>
+        <v>247053</v>
       </c>
       <c r="AX79" s="11">
-        <v>247053</v>
+        <v>245651</v>
       </c>
       <c r="AY79" s="11">
-        <v>245651</v>
+        <v>238818</v>
       </c>
       <c r="AZ79" s="11">
-        <v>238818</v>
+        <v>241129</v>
       </c>
       <c r="BA79" s="11">
-        <v>253300</v>
+        <v>284991</v>
       </c>
       <c r="BB79" s="11">
-        <v>285000</v>
+        <v>278499</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10003,44 +10003,44 @@
       <c r="AH80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI80" s="13" t="s">
-        <v>58</v>
+      <c r="AI80" s="13">
+        <v>1089402</v>
       </c>
       <c r="AJ80" s="13">
-        <v>1089402</v>
+        <v>914417</v>
       </c>
       <c r="AK80" s="13">
-        <v>914417</v>
+        <v>925846</v>
       </c>
       <c r="AL80" s="13">
-        <v>925846</v>
+        <v>1036797</v>
       </c>
       <c r="AM80" s="13">
-        <v>1036797</v>
+        <v>1162988</v>
       </c>
       <c r="AN80" s="13">
-        <v>1162988</v>
+        <v>1245142</v>
       </c>
       <c r="AO80" s="13">
-        <v>1245142</v>
+        <v>1111240</v>
       </c>
       <c r="AP80" s="13">
-        <v>1111240</v>
+        <v>1394874</v>
       </c>
       <c r="AQ80" s="13">
-        <v>1394874</v>
+        <v>1325386</v>
       </c>
       <c r="AR80" s="13">
-        <v>1325386</v>
+        <v>1296066</v>
       </c>
       <c r="AS80" s="13">
-        <v>1296066</v>
+        <v>1502342</v>
       </c>
       <c r="AT80" s="13">
-        <v>1502342</v>
-      </c>
-      <c r="AU80" s="13">
         <v>1500266</v>
+      </c>
+      <c r="AU80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV80" s="13" t="s">
         <v>58</v>
@@ -10192,36 +10192,36 @@
       <c r="Y82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="11" t="s">
-        <v>58</v>
+      <c r="Z82" s="11">
+        <v>494156</v>
       </c>
       <c r="AA82" s="11">
-        <v>494156</v>
+        <v>652496</v>
       </c>
       <c r="AB82" s="11">
-        <v>652496</v>
+        <v>668656</v>
       </c>
       <c r="AC82" s="11">
-        <v>668656</v>
+        <v>933126</v>
       </c>
       <c r="AD82" s="11">
-        <v>933126</v>
+        <v>767561</v>
       </c>
       <c r="AE82" s="11">
-        <v>767561</v>
+        <v>821839</v>
       </c>
       <c r="AF82" s="11">
-        <v>821839</v>
+        <v>867207</v>
       </c>
       <c r="AG82" s="11">
-        <v>867207</v>
+        <v>729666</v>
       </c>
       <c r="AH82" s="11">
-        <v>729666</v>
-      </c>
-      <c r="AI82" s="11">
         <v>740370</v>
       </c>
+      <c r="AI82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ82" s="11" t="s">
         <v>58</v>
       </c>
@@ -10255,29 +10255,29 @@
       <c r="AT82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU82" s="11" t="s">
-        <v>58</v>
+      <c r="AU82" s="11">
+        <v>822225</v>
       </c>
       <c r="AV82" s="11">
-        <v>822225</v>
+        <v>1064411</v>
       </c>
       <c r="AW82" s="11">
-        <v>1064411</v>
+        <v>1252944</v>
       </c>
       <c r="AX82" s="11">
-        <v>1252944</v>
+        <v>1432475</v>
       </c>
       <c r="AY82" s="11">
-        <v>1432475</v>
+        <v>1360229</v>
       </c>
       <c r="AZ82" s="11">
-        <v>1360229</v>
+        <v>1354213</v>
       </c>
       <c r="BA82" s="11">
-        <v>1359292</v>
+        <v>1546060</v>
       </c>
       <c r="BB82" s="11">
-        <v>1546060</v>
+        <v>1476908</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10351,92 +10351,92 @@
       <c r="Y83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z83" s="13" t="s">
-        <v>58</v>
+      <c r="Z83" s="13">
+        <v>581751</v>
       </c>
       <c r="AA83" s="13">
-        <v>581751</v>
+        <v>642700</v>
       </c>
       <c r="AB83" s="13">
-        <v>642700</v>
+        <v>736776</v>
       </c>
       <c r="AC83" s="13">
-        <v>736776</v>
+        <v>823939</v>
       </c>
       <c r="AD83" s="13">
-        <v>823939</v>
+        <v>822594</v>
       </c>
       <c r="AE83" s="13">
-        <v>822594</v>
+        <v>779771</v>
       </c>
       <c r="AF83" s="13">
-        <v>779771</v>
+        <v>779506</v>
       </c>
       <c r="AG83" s="13">
-        <v>779506</v>
+        <v>693311</v>
       </c>
       <c r="AH83" s="13">
-        <v>693311</v>
+        <v>757292</v>
       </c>
       <c r="AI83" s="13">
-        <v>757292</v>
+        <v>724198</v>
       </c>
       <c r="AJ83" s="13">
-        <v>724198</v>
+        <v>659328</v>
       </c>
       <c r="AK83" s="13">
-        <v>659328</v>
+        <v>675548</v>
       </c>
       <c r="AL83" s="13">
-        <v>675548</v>
+        <v>723389</v>
       </c>
       <c r="AM83" s="13">
-        <v>723389</v>
+        <v>791027</v>
       </c>
       <c r="AN83" s="13">
-        <v>791027</v>
+        <v>873377</v>
       </c>
       <c r="AO83" s="13">
-        <v>873377</v>
+        <v>883347</v>
       </c>
       <c r="AP83" s="13">
-        <v>883347</v>
+        <v>869845</v>
       </c>
       <c r="AQ83" s="13">
-        <v>869845</v>
+        <v>887886</v>
       </c>
       <c r="AR83" s="13">
-        <v>887886</v>
+        <v>895947</v>
       </c>
       <c r="AS83" s="13">
-        <v>895947</v>
+        <v>811942</v>
       </c>
       <c r="AT83" s="13">
-        <v>811942</v>
+        <v>818894</v>
       </c>
       <c r="AU83" s="13">
-        <v>818894</v>
+        <v>823252</v>
       </c>
       <c r="AV83" s="13">
-        <v>823252</v>
+        <v>847215</v>
       </c>
       <c r="AW83" s="13">
-        <v>847215</v>
+        <v>929134</v>
       </c>
       <c r="AX83" s="13">
-        <v>929134</v>
+        <v>971926</v>
       </c>
       <c r="AY83" s="13">
-        <v>971926</v>
+        <v>1044017</v>
       </c>
       <c r="AZ83" s="13">
-        <v>1044017</v>
+        <v>953193</v>
       </c>
       <c r="BA83" s="13">
-        <v>1011285</v>
+        <v>1060278</v>
       </c>
       <c r="BB83" s="13">
-        <v>1060281</v>
+        <v>1136453</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10510,92 +10510,92 @@
       <c r="Y84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z84" s="11" t="s">
-        <v>58</v>
+      <c r="Z84" s="11">
+        <v>103598</v>
       </c>
       <c r="AA84" s="11">
-        <v>103598</v>
+        <v>100417</v>
       </c>
       <c r="AB84" s="11">
-        <v>100417</v>
+        <v>114335</v>
       </c>
       <c r="AC84" s="11">
-        <v>114335</v>
+        <v>141571</v>
       </c>
       <c r="AD84" s="11">
-        <v>141571</v>
+        <v>140675</v>
       </c>
       <c r="AE84" s="11">
-        <v>140675</v>
+        <v>124531</v>
       </c>
       <c r="AF84" s="11">
-        <v>124531</v>
+        <v>140972</v>
       </c>
       <c r="AG84" s="11">
-        <v>140972</v>
+        <v>131226</v>
       </c>
       <c r="AH84" s="11">
-        <v>131226</v>
+        <v>129172</v>
       </c>
       <c r="AI84" s="11">
-        <v>129172</v>
+        <v>92740</v>
       </c>
       <c r="AJ84" s="11">
-        <v>92740</v>
+        <v>114858</v>
       </c>
       <c r="AK84" s="11">
-        <v>114858</v>
+        <v>115033</v>
       </c>
       <c r="AL84" s="11">
-        <v>115033</v>
+        <v>140206</v>
       </c>
       <c r="AM84" s="11">
-        <v>140206</v>
+        <v>131677</v>
       </c>
       <c r="AN84" s="11">
-        <v>131677</v>
+        <v>163980</v>
       </c>
       <c r="AO84" s="11">
-        <v>163980</v>
+        <v>172090</v>
       </c>
       <c r="AP84" s="11">
-        <v>172090</v>
+        <v>162545</v>
       </c>
       <c r="AQ84" s="11">
-        <v>162545</v>
+        <v>164057</v>
       </c>
       <c r="AR84" s="11">
-        <v>164057</v>
+        <v>173736</v>
       </c>
       <c r="AS84" s="11">
-        <v>173736</v>
+        <v>146441</v>
       </c>
       <c r="AT84" s="11">
-        <v>146441</v>
+        <v>174165</v>
       </c>
       <c r="AU84" s="11">
-        <v>174165</v>
+        <v>128632</v>
       </c>
       <c r="AV84" s="11">
-        <v>128632</v>
+        <v>176152</v>
       </c>
       <c r="AW84" s="11">
-        <v>176152</v>
+        <v>171093</v>
       </c>
       <c r="AX84" s="11">
-        <v>171093</v>
+        <v>234998</v>
       </c>
       <c r="AY84" s="11">
-        <v>234998</v>
+        <v>224297</v>
       </c>
       <c r="AZ84" s="11">
-        <v>224297</v>
+        <v>221866</v>
       </c>
       <c r="BA84" s="11">
-        <v>200433</v>
+        <v>243655</v>
       </c>
       <c r="BB84" s="11">
-        <v>243640</v>
+        <v>259480</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -10696,44 +10696,44 @@
       <c r="AH85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI85" s="13" t="s">
-        <v>58</v>
+      <c r="AI85" s="13">
+        <v>711242</v>
       </c>
       <c r="AJ85" s="13">
-        <v>711242</v>
+        <v>685999</v>
       </c>
       <c r="AK85" s="13">
-        <v>685999</v>
+        <v>709400</v>
       </c>
       <c r="AL85" s="13">
-        <v>709400</v>
+        <v>810208</v>
       </c>
       <c r="AM85" s="13">
-        <v>810208</v>
+        <v>910165</v>
       </c>
       <c r="AN85" s="13">
-        <v>910165</v>
+        <v>986484</v>
       </c>
       <c r="AO85" s="13">
-        <v>986484</v>
+        <v>1122639</v>
       </c>
       <c r="AP85" s="13">
-        <v>1122639</v>
+        <v>1086770</v>
       </c>
       <c r="AQ85" s="13">
-        <v>1086770</v>
+        <v>1128641</v>
       </c>
       <c r="AR85" s="13">
-        <v>1128641</v>
+        <v>1090550</v>
       </c>
       <c r="AS85" s="13">
-        <v>1090550</v>
+        <v>1006807</v>
       </c>
       <c r="AT85" s="13">
-        <v>1006807</v>
-      </c>
-      <c r="AU85" s="13">
         <v>883910</v>
+      </c>
+      <c r="AU85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV85" s="13" t="s">
         <v>58</v>

--- a/database/industries/kashi/kesave/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kesave/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF12B0-040C-42E9-94CE-446B12CC5461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20297A98-D676-45AD-BB2F-A02509A35BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1504,36 +1504,36 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>193695</v>
       </c>
       <c r="Z11" s="11">
-        <v>193695</v>
+        <v>163665</v>
       </c>
       <c r="AA11" s="11">
-        <v>163665</v>
+        <v>159934</v>
       </c>
       <c r="AB11" s="11">
-        <v>159934</v>
+        <v>170994</v>
       </c>
       <c r="AC11" s="11">
-        <v>170994</v>
+        <v>143473</v>
       </c>
       <c r="AD11" s="11">
-        <v>143473</v>
+        <v>172630</v>
       </c>
       <c r="AE11" s="11">
-        <v>172630</v>
+        <v>195869</v>
       </c>
       <c r="AF11" s="11">
-        <v>195869</v>
+        <v>187957</v>
       </c>
       <c r="AG11" s="11">
-        <v>187957</v>
-      </c>
-      <c r="AH11" s="11">
         <v>187995</v>
       </c>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1567,32 +1567,32 @@
       <c r="AS11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>58</v>
+      <c r="AT11" s="11">
+        <v>121757</v>
       </c>
       <c r="AU11" s="11">
-        <v>121757</v>
+        <v>297564</v>
       </c>
       <c r="AV11" s="11">
-        <v>297564</v>
+        <v>328902</v>
       </c>
       <c r="AW11" s="11">
-        <v>328902</v>
+        <v>277167</v>
       </c>
       <c r="AX11" s="11">
-        <v>277167</v>
+        <v>311452</v>
       </c>
       <c r="AY11" s="11">
-        <v>311452</v>
+        <v>311640</v>
       </c>
       <c r="AZ11" s="11">
-        <v>311640</v>
+        <v>296173</v>
       </c>
       <c r="BA11" s="11">
-        <v>296173</v>
+        <v>300514</v>
       </c>
       <c r="BB11" s="11">
-        <v>300514</v>
+        <v>311385</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1663,95 +1663,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>513396</v>
       </c>
       <c r="Z12" s="13">
-        <v>513396</v>
+        <v>522670</v>
       </c>
       <c r="AA12" s="13">
-        <v>522670</v>
+        <v>535562</v>
       </c>
       <c r="AB12" s="13">
-        <v>535562</v>
+        <v>500111</v>
       </c>
       <c r="AC12" s="13">
-        <v>500111</v>
+        <v>583413</v>
       </c>
       <c r="AD12" s="13">
-        <v>583413</v>
+        <v>516362</v>
       </c>
       <c r="AE12" s="13">
-        <v>516362</v>
+        <v>548987</v>
       </c>
       <c r="AF12" s="13">
-        <v>548987</v>
+        <v>557937</v>
       </c>
       <c r="AG12" s="13">
-        <v>557937</v>
+        <v>349897</v>
       </c>
       <c r="AH12" s="13">
-        <v>349897</v>
+        <v>209907</v>
       </c>
       <c r="AI12" s="13">
-        <v>209907</v>
+        <v>543375</v>
       </c>
       <c r="AJ12" s="13">
-        <v>543375</v>
+        <v>531214</v>
       </c>
       <c r="AK12" s="13">
-        <v>531214</v>
+        <v>568851</v>
       </c>
       <c r="AL12" s="13">
-        <v>568851</v>
+        <v>498587</v>
       </c>
       <c r="AM12" s="13">
-        <v>498587</v>
+        <v>572639</v>
       </c>
       <c r="AN12" s="13">
-        <v>572639</v>
+        <v>545660</v>
       </c>
       <c r="AO12" s="13">
-        <v>545660</v>
+        <v>581841</v>
       </c>
       <c r="AP12" s="13">
-        <v>581841</v>
+        <v>579751</v>
       </c>
       <c r="AQ12" s="13">
-        <v>579751</v>
+        <v>579161</v>
       </c>
       <c r="AR12" s="13">
-        <v>579161</v>
+        <v>542538</v>
       </c>
       <c r="AS12" s="13">
-        <v>542538</v>
+        <v>302450</v>
       </c>
       <c r="AT12" s="13">
-        <v>302450</v>
+        <v>224233</v>
       </c>
       <c r="AU12" s="13">
-        <v>224233</v>
+        <v>586684</v>
       </c>
       <c r="AV12" s="13">
-        <v>586684</v>
+        <v>613013</v>
       </c>
       <c r="AW12" s="13">
-        <v>613013</v>
+        <v>526570</v>
       </c>
       <c r="AX12" s="13">
-        <v>526570</v>
+        <v>509602</v>
       </c>
       <c r="AY12" s="13">
-        <v>509602</v>
+        <v>538209</v>
       </c>
       <c r="AZ12" s="13">
-        <v>538209</v>
+        <v>540053</v>
       </c>
       <c r="BA12" s="13">
-        <v>540053</v>
+        <v>501747</v>
       </c>
       <c r="BB12" s="13">
-        <v>501747</v>
+        <v>547981</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1822,95 +1822,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>294177</v>
       </c>
       <c r="Z13" s="11">
-        <v>294177</v>
+        <v>265700</v>
       </c>
       <c r="AA13" s="11">
-        <v>265700</v>
+        <v>272295</v>
       </c>
       <c r="AB13" s="11">
-        <v>272295</v>
+        <v>271352</v>
       </c>
       <c r="AC13" s="11">
-        <v>271352</v>
+        <v>269581</v>
       </c>
       <c r="AD13" s="11">
-        <v>269581</v>
+        <v>259870</v>
       </c>
       <c r="AE13" s="11">
-        <v>259870</v>
+        <v>230057</v>
       </c>
       <c r="AF13" s="11">
-        <v>230057</v>
+        <v>191426</v>
       </c>
       <c r="AG13" s="11">
-        <v>191426</v>
+        <v>234199</v>
       </c>
       <c r="AH13" s="11">
-        <v>234199</v>
+        <v>95189</v>
       </c>
       <c r="AI13" s="11">
-        <v>95189</v>
+        <v>268860</v>
       </c>
       <c r="AJ13" s="11">
-        <v>268860</v>
+        <v>236453</v>
       </c>
       <c r="AK13" s="11">
-        <v>236453</v>
+        <v>248916</v>
       </c>
       <c r="AL13" s="11">
-        <v>248916</v>
+        <v>275516</v>
       </c>
       <c r="AM13" s="11">
-        <v>275516</v>
+        <v>212457</v>
       </c>
       <c r="AN13" s="11">
-        <v>212457</v>
+        <v>221344</v>
       </c>
       <c r="AO13" s="11">
-        <v>221344</v>
+        <v>235251</v>
       </c>
       <c r="AP13" s="11">
-        <v>235251</v>
+        <v>231663</v>
       </c>
       <c r="AQ13" s="11">
-        <v>231663</v>
+        <v>238828</v>
       </c>
       <c r="AR13" s="11">
-        <v>238828</v>
+        <v>250309</v>
       </c>
       <c r="AS13" s="11">
-        <v>250309</v>
+        <v>109645</v>
       </c>
       <c r="AT13" s="11">
-        <v>109645</v>
+        <v>64450</v>
       </c>
       <c r="AU13" s="11">
-        <v>64450</v>
+        <v>281297</v>
       </c>
       <c r="AV13" s="11">
-        <v>281297</v>
+        <v>303271</v>
       </c>
       <c r="AW13" s="11">
-        <v>303271</v>
+        <v>285556</v>
       </c>
       <c r="AX13" s="11">
-        <v>285556</v>
+        <v>259449</v>
       </c>
       <c r="AY13" s="11">
-        <v>259449</v>
+        <v>240069</v>
       </c>
       <c r="AZ13" s="11">
-        <v>240069</v>
+        <v>262754</v>
       </c>
       <c r="BA13" s="11">
-        <v>262754</v>
+        <v>276961</v>
       </c>
       <c r="BB13" s="11">
-        <v>276961</v>
+        <v>255279</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2008,44 +2008,44 @@
       <c r="AG14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>58</v>
+      <c r="AH14" s="13">
+        <v>167446</v>
       </c>
       <c r="AI14" s="13">
-        <v>167446</v>
+        <v>305656</v>
       </c>
       <c r="AJ14" s="13">
-        <v>305656</v>
+        <v>256718</v>
       </c>
       <c r="AK14" s="13">
-        <v>256718</v>
+        <v>296062</v>
       </c>
       <c r="AL14" s="13">
-        <v>296062</v>
+        <v>300779</v>
       </c>
       <c r="AM14" s="13">
-        <v>300779</v>
+        <v>280005</v>
       </c>
       <c r="AN14" s="13">
-        <v>280005</v>
+        <v>313062</v>
       </c>
       <c r="AO14" s="13">
-        <v>313062</v>
+        <v>232411</v>
       </c>
       <c r="AP14" s="13">
-        <v>232411</v>
+        <v>285816</v>
       </c>
       <c r="AQ14" s="13">
-        <v>285816</v>
+        <v>290008</v>
       </c>
       <c r="AR14" s="13">
-        <v>290008</v>
+        <v>288278</v>
       </c>
       <c r="AS14" s="13">
-        <v>288278</v>
-      </c>
-      <c r="AT14" s="13">
         <v>187242</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU14" s="13" t="s">
         <v>58</v>
@@ -2139,94 +2139,94 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="Z15" s="15">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="AA15" s="15">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="AB15" s="15">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="AC15" s="15">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="AD15" s="15">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AE15" s="15">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AF15" s="15">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AG15" s="15">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AH15" s="15">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AI15" s="15">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AJ15" s="15">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AK15" s="15">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AL15" s="15">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AM15" s="15">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AN15" s="15">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AO15" s="15">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AP15" s="15">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AQ15" s="15">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AR15" s="15">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AS15" s="15">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AT15" s="15">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AU15" s="15">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AV15" s="15">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AW15" s="15">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AX15" s="15">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AY15" s="15">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="AZ15" s="15">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="BA15" s="15">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
       <c r="BB15" s="15">
-        <v>1079222</v>
+        <v>1114645</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2354,8 +2354,8 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2381,8 +2381,8 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>58</v>
@@ -2417,8 +2417,8 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>0</v>
       </c>
       <c r="AU17" s="11">
         <v>0</v>
@@ -2513,8 +2513,8 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>0</v>
       </c>
       <c r="Z18" s="13">
         <v>0</v>
@@ -2543,8 +2543,8 @@
       <c r="AH18" s="13">
         <v>0</v>
       </c>
-      <c r="AI18" s="13">
-        <v>0</v>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="13" t="s">
         <v>58</v>
@@ -2573,8 +2573,8 @@
       <c r="AR18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
+      <c r="AS18" s="13">
+        <v>0</v>
       </c>
       <c r="AT18" s="13">
         <v>0</v>
@@ -2672,8 +2672,8 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
@@ -2702,8 +2702,8 @@
       <c r="AH19" s="11">
         <v>0</v>
       </c>
-      <c r="AI19" s="11">
-        <v>0</v>
+      <c r="AI19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>58</v>
@@ -2732,8 +2732,8 @@
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
+      <c r="AS19" s="11">
+        <v>0</v>
       </c>
       <c r="AT19" s="11">
         <v>0</v>
@@ -2858,11 +2858,11 @@
       <c r="AG20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>0</v>
+      <c r="AH20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="13" t="s">
         <v>58</v>
@@ -2891,11 +2891,11 @@
       <c r="AR20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>0</v>
+      <c r="AS20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>58</v>
@@ -3202,8 +3202,8 @@
       <c r="X23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>58</v>
+      <c r="Y23" s="15">
+        <v>0</v>
       </c>
       <c r="Z23" s="15">
         <v>0</v>
@@ -3360,94 +3360,94 @@
         <v>0</v>
       </c>
       <c r="Y24" s="19">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="Z24" s="19">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="AA24" s="19">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="AB24" s="19">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="AC24" s="19">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="AD24" s="19">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AE24" s="19">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AF24" s="19">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AG24" s="19">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AH24" s="19">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AI24" s="19">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AJ24" s="19">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AK24" s="19">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AL24" s="19">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AM24" s="19">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AN24" s="19">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AO24" s="19">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AP24" s="19">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AR24" s="19">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AS24" s="19">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AT24" s="19">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AU24" s="19">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AV24" s="19">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AW24" s="19">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AX24" s="19">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AY24" s="19">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="BA24" s="19">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
       <c r="BB24" s="19">
-        <v>1079222</v>
+        <v>1114645</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3952,36 +3952,36 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>157213</v>
       </c>
       <c r="Z31" s="11">
-        <v>157213</v>
+        <v>109825</v>
       </c>
       <c r="AA31" s="11">
-        <v>109825</v>
+        <v>70069</v>
       </c>
       <c r="AB31" s="11">
-        <v>70069</v>
+        <v>80329</v>
       </c>
       <c r="AC31" s="11">
-        <v>80329</v>
+        <v>107753</v>
       </c>
       <c r="AD31" s="11">
-        <v>107753</v>
+        <v>103412</v>
       </c>
       <c r="AE31" s="11">
-        <v>103412</v>
+        <v>54134</v>
       </c>
       <c r="AF31" s="11">
-        <v>54134</v>
+        <v>88101</v>
       </c>
       <c r="AG31" s="11">
-        <v>88101</v>
-      </c>
-      <c r="AH31" s="11">
         <v>152276</v>
       </c>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4015,32 +4015,32 @@
       <c r="AS31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT31" s="11" t="s">
-        <v>58</v>
+      <c r="AT31" s="11">
+        <v>36914</v>
       </c>
       <c r="AU31" s="11">
-        <v>36914</v>
+        <v>222034</v>
       </c>
       <c r="AV31" s="11">
-        <v>222034</v>
+        <v>116900</v>
       </c>
       <c r="AW31" s="11">
-        <v>116900</v>
+        <v>125871</v>
       </c>
       <c r="AX31" s="11">
-        <v>125871</v>
+        <v>175141</v>
       </c>
       <c r="AY31" s="11">
-        <v>175141</v>
+        <v>115401</v>
       </c>
       <c r="AZ31" s="11">
-        <v>115401</v>
+        <v>151098</v>
       </c>
       <c r="BA31" s="11">
-        <v>151098</v>
+        <v>140609</v>
       </c>
       <c r="BB31" s="11">
-        <v>140609</v>
+        <v>101427</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4111,95 +4111,95 @@
       <c r="X32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>58</v>
+      <c r="Y32" s="13">
+        <v>170409</v>
       </c>
       <c r="Z32" s="13">
-        <v>170409</v>
+        <v>230557</v>
       </c>
       <c r="AA32" s="13">
-        <v>230557</v>
+        <v>128844</v>
       </c>
       <c r="AB32" s="13">
-        <v>128844</v>
+        <v>145939</v>
       </c>
       <c r="AC32" s="13">
-        <v>145939</v>
+        <v>129142</v>
       </c>
       <c r="AD32" s="13">
-        <v>129142</v>
+        <v>123757</v>
       </c>
       <c r="AE32" s="13">
-        <v>123757</v>
+        <v>149886</v>
       </c>
       <c r="AF32" s="13">
-        <v>149886</v>
+        <v>135433</v>
       </c>
       <c r="AG32" s="13">
-        <v>135433</v>
+        <v>271362</v>
       </c>
       <c r="AH32" s="13">
-        <v>271362</v>
+        <v>21713</v>
       </c>
       <c r="AI32" s="13">
-        <v>21713</v>
+        <v>118560</v>
       </c>
       <c r="AJ32" s="13">
-        <v>118560</v>
+        <v>157349</v>
       </c>
       <c r="AK32" s="13">
-        <v>157349</v>
+        <v>124028</v>
       </c>
       <c r="AL32" s="13">
-        <v>124028</v>
+        <v>125520</v>
       </c>
       <c r="AM32" s="13">
-        <v>125520</v>
+        <v>176836</v>
       </c>
       <c r="AN32" s="13">
-        <v>176836</v>
+        <v>115191</v>
       </c>
       <c r="AO32" s="13">
-        <v>115191</v>
+        <v>147093</v>
       </c>
       <c r="AP32" s="13">
-        <v>147093</v>
+        <v>173023</v>
       </c>
       <c r="AQ32" s="13">
-        <v>173023</v>
+        <v>208100</v>
       </c>
       <c r="AR32" s="13">
-        <v>208100</v>
+        <v>143577</v>
       </c>
       <c r="AS32" s="13">
-        <v>143577</v>
+        <v>188874</v>
       </c>
       <c r="AT32" s="13">
-        <v>188874</v>
+        <v>25576</v>
       </c>
       <c r="AU32" s="13">
-        <v>25576</v>
+        <v>166074</v>
       </c>
       <c r="AV32" s="13">
-        <v>166074</v>
+        <v>122081</v>
       </c>
       <c r="AW32" s="13">
-        <v>122081</v>
+        <v>76234</v>
       </c>
       <c r="AX32" s="13">
-        <v>76234</v>
+        <v>106830</v>
       </c>
       <c r="AY32" s="13">
-        <v>106830</v>
+        <v>87196</v>
       </c>
       <c r="AZ32" s="13">
-        <v>87196</v>
+        <v>78702</v>
       </c>
       <c r="BA32" s="13">
-        <v>78702</v>
+        <v>75805</v>
       </c>
       <c r="BB32" s="13">
-        <v>75805</v>
+        <v>98126</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4270,95 +4270,95 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>199515</v>
       </c>
       <c r="Z33" s="11">
-        <v>199515</v>
+        <v>225060</v>
       </c>
       <c r="AA33" s="11">
-        <v>225060</v>
+        <v>157943</v>
       </c>
       <c r="AB33" s="11">
-        <v>157943</v>
+        <v>162744</v>
       </c>
       <c r="AC33" s="11">
-        <v>162744</v>
+        <v>186441</v>
       </c>
       <c r="AD33" s="11">
-        <v>186441</v>
+        <v>145570</v>
       </c>
       <c r="AE33" s="11">
-        <v>145570</v>
+        <v>125809</v>
       </c>
       <c r="AF33" s="11">
-        <v>125809</v>
+        <v>102883</v>
       </c>
       <c r="AG33" s="11">
-        <v>102883</v>
+        <v>165659</v>
       </c>
       <c r="AH33" s="11">
-        <v>165659</v>
+        <v>54355</v>
       </c>
       <c r="AI33" s="11">
-        <v>54355</v>
+        <v>142938</v>
       </c>
       <c r="AJ33" s="11">
-        <v>142938</v>
+        <v>159160</v>
       </c>
       <c r="AK33" s="11">
-        <v>159160</v>
+        <v>99353</v>
       </c>
       <c r="AL33" s="11">
-        <v>99353</v>
+        <v>109819</v>
       </c>
       <c r="AM33" s="11">
-        <v>109819</v>
+        <v>143423</v>
       </c>
       <c r="AN33" s="11">
-        <v>143423</v>
+        <v>62828</v>
       </c>
       <c r="AO33" s="11">
-        <v>62828</v>
+        <v>86890</v>
       </c>
       <c r="AP33" s="11">
-        <v>86890</v>
+        <v>89937</v>
       </c>
       <c r="AQ33" s="11">
-        <v>89937</v>
+        <v>122708</v>
       </c>
       <c r="AR33" s="11">
-        <v>122708</v>
+        <v>93783</v>
       </c>
       <c r="AS33" s="11">
-        <v>93783</v>
+        <v>135318</v>
       </c>
       <c r="AT33" s="11">
-        <v>135318</v>
+        <v>28510</v>
       </c>
       <c r="AU33" s="11">
-        <v>28510</v>
+        <v>138958</v>
       </c>
       <c r="AV33" s="11">
-        <v>138958</v>
+        <v>171951</v>
       </c>
       <c r="AW33" s="11">
-        <v>171951</v>
+        <v>183085</v>
       </c>
       <c r="AX33" s="11">
-        <v>183085</v>
+        <v>144382</v>
       </c>
       <c r="AY33" s="11">
-        <v>144382</v>
+        <v>155477</v>
       </c>
       <c r="AZ33" s="11">
-        <v>155477</v>
+        <v>108063</v>
       </c>
       <c r="BA33" s="11">
-        <v>108063</v>
+        <v>170679</v>
       </c>
       <c r="BB33" s="11">
-        <v>170679</v>
+        <v>148460</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4456,44 +4456,44 @@
       <c r="AG34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH34" s="13" t="s">
-        <v>58</v>
+      <c r="AH34" s="13">
+        <v>78410</v>
       </c>
       <c r="AI34" s="13">
-        <v>78410</v>
+        <v>179697</v>
       </c>
       <c r="AJ34" s="13">
-        <v>179697</v>
+        <v>196147</v>
       </c>
       <c r="AK34" s="13">
-        <v>196147</v>
+        <v>128734</v>
       </c>
       <c r="AL34" s="13">
-        <v>128734</v>
+        <v>133728</v>
       </c>
       <c r="AM34" s="13">
-        <v>133728</v>
+        <v>216519</v>
       </c>
       <c r="AN34" s="13">
-        <v>216519</v>
+        <v>129333</v>
       </c>
       <c r="AO34" s="13">
-        <v>129333</v>
+        <v>139062</v>
       </c>
       <c r="AP34" s="13">
-        <v>139062</v>
+        <v>181203</v>
       </c>
       <c r="AQ34" s="13">
-        <v>181203</v>
+        <v>229327</v>
       </c>
       <c r="AR34" s="13">
-        <v>229327</v>
+        <v>114416</v>
       </c>
       <c r="AS34" s="13">
-        <v>114416</v>
-      </c>
-      <c r="AT34" s="13">
         <v>161834</v>
+      </c>
+      <c r="AT34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU34" s="13" t="s">
         <v>58</v>
@@ -4587,94 +4587,94 @@
         <v>0</v>
       </c>
       <c r="Y35" s="15">
-        <v>0</v>
+        <v>527137</v>
       </c>
       <c r="Z35" s="15">
-        <v>527137</v>
+        <v>565442</v>
       </c>
       <c r="AA35" s="15">
-        <v>565442</v>
+        <v>356856</v>
       </c>
       <c r="AB35" s="15">
-        <v>356856</v>
+        <v>389012</v>
       </c>
       <c r="AC35" s="15">
-        <v>389012</v>
+        <v>423336</v>
       </c>
       <c r="AD35" s="15">
-        <v>423336</v>
+        <v>372739</v>
       </c>
       <c r="AE35" s="15">
-        <v>372739</v>
+        <v>329829</v>
       </c>
       <c r="AF35" s="15">
-        <v>329829</v>
+        <v>326417</v>
       </c>
       <c r="AG35" s="15">
-        <v>326417</v>
+        <v>589297</v>
       </c>
       <c r="AH35" s="15">
-        <v>589297</v>
+        <v>154478</v>
       </c>
       <c r="AI35" s="15">
-        <v>154478</v>
+        <v>441195</v>
       </c>
       <c r="AJ35" s="15">
-        <v>441195</v>
+        <v>512656</v>
       </c>
       <c r="AK35" s="15">
-        <v>512656</v>
+        <v>352115</v>
       </c>
       <c r="AL35" s="15">
-        <v>352115</v>
+        <v>369067</v>
       </c>
       <c r="AM35" s="15">
-        <v>369067</v>
+        <v>536778</v>
       </c>
       <c r="AN35" s="15">
-        <v>536778</v>
+        <v>307352</v>
       </c>
       <c r="AO35" s="15">
-        <v>307352</v>
+        <v>373045</v>
       </c>
       <c r="AP35" s="15">
-        <v>373045</v>
+        <v>444163</v>
       </c>
       <c r="AQ35" s="15">
-        <v>444163</v>
+        <v>560135</v>
       </c>
       <c r="AR35" s="15">
-        <v>560135</v>
+        <v>351776</v>
       </c>
       <c r="AS35" s="15">
-        <v>351776</v>
+        <v>486026</v>
       </c>
       <c r="AT35" s="15">
-        <v>486026</v>
+        <v>91000</v>
       </c>
       <c r="AU35" s="15">
-        <v>91000</v>
+        <v>527066</v>
       </c>
       <c r="AV35" s="15">
-        <v>527066</v>
+        <v>410932</v>
       </c>
       <c r="AW35" s="15">
-        <v>410932</v>
+        <v>385190</v>
       </c>
       <c r="AX35" s="15">
-        <v>385190</v>
+        <v>426353</v>
       </c>
       <c r="AY35" s="15">
-        <v>426353</v>
+        <v>358074</v>
       </c>
       <c r="AZ35" s="15">
-        <v>358074</v>
+        <v>337863</v>
       </c>
       <c r="BA35" s="15">
-        <v>337863</v>
+        <v>387093</v>
       </c>
       <c r="BB35" s="15">
-        <v>387093</v>
+        <v>348013</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4802,36 +4802,36 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>40471</v>
       </c>
       <c r="Z37" s="11">
-        <v>40471</v>
+        <v>124436</v>
       </c>
       <c r="AA37" s="11">
-        <v>124436</v>
+        <v>69197</v>
       </c>
       <c r="AB37" s="11">
-        <v>69197</v>
+        <v>130619</v>
       </c>
       <c r="AC37" s="11">
-        <v>130619</v>
+        <v>38922</v>
       </c>
       <c r="AD37" s="11">
-        <v>38922</v>
+        <v>48400</v>
       </c>
       <c r="AE37" s="11">
-        <v>48400</v>
+        <v>152485</v>
       </c>
       <c r="AF37" s="11">
-        <v>152485</v>
+        <v>92234</v>
       </c>
       <c r="AG37" s="11">
-        <v>92234</v>
-      </c>
-      <c r="AH37" s="11">
         <v>124843</v>
       </c>
+      <c r="AH37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI37" s="11" t="s">
         <v>58</v>
       </c>
@@ -4865,32 +4865,32 @@
       <c r="AS37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT37" s="11" t="s">
-        <v>58</v>
+      <c r="AT37" s="11">
+        <v>35275</v>
       </c>
       <c r="AU37" s="11">
-        <v>35275</v>
+        <v>142817</v>
       </c>
       <c r="AV37" s="11">
-        <v>142817</v>
+        <v>177901</v>
       </c>
       <c r="AW37" s="11">
-        <v>177901</v>
+        <v>118060</v>
       </c>
       <c r="AX37" s="11">
-        <v>118060</v>
+        <v>120579</v>
       </c>
       <c r="AY37" s="11">
-        <v>120579</v>
+        <v>137694</v>
       </c>
       <c r="AZ37" s="11">
-        <v>137694</v>
+        <v>101628</v>
       </c>
       <c r="BA37" s="11">
-        <v>101628</v>
+        <v>158886</v>
       </c>
       <c r="BB37" s="11">
-        <v>158886</v>
+        <v>248978</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4961,95 +4961,95 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>383465</v>
       </c>
       <c r="Z38" s="13">
-        <v>383465</v>
+        <v>413359</v>
       </c>
       <c r="AA38" s="13">
-        <v>413359</v>
+        <v>425914</v>
       </c>
       <c r="AB38" s="13">
-        <v>425914</v>
+        <v>398169</v>
       </c>
       <c r="AC38" s="13">
-        <v>398169</v>
+        <v>431265</v>
       </c>
       <c r="AD38" s="13">
-        <v>431265</v>
+        <v>435143</v>
       </c>
       <c r="AE38" s="13">
-        <v>435143</v>
+        <v>422211</v>
       </c>
       <c r="AF38" s="13">
-        <v>422211</v>
+        <v>397161</v>
       </c>
       <c r="AG38" s="13">
-        <v>397161</v>
+        <v>368607</v>
       </c>
       <c r="AH38" s="13">
-        <v>368607</v>
+        <v>134825</v>
       </c>
       <c r="AI38" s="13">
-        <v>134825</v>
+        <v>419239</v>
       </c>
       <c r="AJ38" s="13">
-        <v>419239</v>
+        <v>361838</v>
       </c>
       <c r="AK38" s="13">
-        <v>361838</v>
+        <v>424216</v>
       </c>
       <c r="AL38" s="13">
-        <v>424216</v>
+        <v>332369</v>
       </c>
       <c r="AM38" s="13">
-        <v>332369</v>
+        <v>467662</v>
       </c>
       <c r="AN38" s="13">
-        <v>467662</v>
+        <v>366344</v>
       </c>
       <c r="AO38" s="13">
-        <v>366344</v>
+        <v>385263</v>
       </c>
       <c r="AP38" s="13">
-        <v>385263</v>
+        <v>408853</v>
       </c>
       <c r="AQ38" s="13">
-        <v>408853</v>
+        <v>241790</v>
       </c>
       <c r="AR38" s="13">
-        <v>241790</v>
+        <v>405401</v>
       </c>
       <c r="AS38" s="13">
-        <v>405401</v>
+        <v>370364</v>
       </c>
       <c r="AT38" s="13">
-        <v>370364</v>
+        <v>111198</v>
       </c>
       <c r="AU38" s="13">
-        <v>111198</v>
+        <v>459752</v>
       </c>
       <c r="AV38" s="13">
-        <v>459752</v>
+        <v>406699</v>
       </c>
       <c r="AW38" s="13">
-        <v>406699</v>
+        <v>380998</v>
       </c>
       <c r="AX38" s="13">
-        <v>380998</v>
+        <v>417198</v>
       </c>
       <c r="AY38" s="13">
-        <v>417198</v>
+        <v>440103</v>
       </c>
       <c r="AZ38" s="13">
-        <v>440103</v>
+        <v>418791</v>
       </c>
       <c r="BA38" s="13">
-        <v>418791</v>
+        <v>401516</v>
       </c>
       <c r="BB38" s="13">
-        <v>401516</v>
+        <v>480214</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5120,95 +5120,95 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>99597</v>
       </c>
       <c r="Z39" s="11">
-        <v>99597</v>
+        <v>126443</v>
       </c>
       <c r="AA39" s="11">
-        <v>126443</v>
+        <v>126925</v>
       </c>
       <c r="AB39" s="11">
-        <v>126925</v>
+        <v>61552</v>
       </c>
       <c r="AC39" s="11">
-        <v>61552</v>
+        <v>160199</v>
       </c>
       <c r="AD39" s="11">
-        <v>160199</v>
+        <v>58676</v>
       </c>
       <c r="AE39" s="11">
-        <v>58676</v>
+        <v>112590</v>
       </c>
       <c r="AF39" s="11">
-        <v>112590</v>
+        <v>77241</v>
       </c>
       <c r="AG39" s="11">
-        <v>77241</v>
+        <v>146549</v>
       </c>
       <c r="AH39" s="11">
-        <v>146549</v>
+        <v>26569</v>
       </c>
       <c r="AI39" s="11">
-        <v>26569</v>
+        <v>79411</v>
       </c>
       <c r="AJ39" s="11">
-        <v>79411</v>
+        <v>140194</v>
       </c>
       <c r="AK39" s="11">
-        <v>140194</v>
+        <v>100281</v>
       </c>
       <c r="AL39" s="11">
-        <v>100281</v>
+        <v>83401</v>
       </c>
       <c r="AM39" s="11">
-        <v>83401</v>
+        <v>45914</v>
       </c>
       <c r="AN39" s="11">
-        <v>45914</v>
+        <v>100331</v>
       </c>
       <c r="AO39" s="11">
-        <v>100331</v>
+        <v>96570</v>
       </c>
       <c r="AP39" s="11">
-        <v>96570</v>
+        <v>156769</v>
       </c>
       <c r="AQ39" s="11">
-        <v>156769</v>
+        <v>52200</v>
       </c>
       <c r="AR39" s="11">
-        <v>52200</v>
+        <v>91395</v>
       </c>
       <c r="AS39" s="11">
-        <v>91395</v>
+        <v>98929</v>
       </c>
       <c r="AT39" s="11">
-        <v>98929</v>
+        <v>20687</v>
       </c>
       <c r="AU39" s="11">
-        <v>20687</v>
+        <v>135735</v>
       </c>
       <c r="AV39" s="11">
-        <v>135735</v>
+        <v>104370</v>
       </c>
       <c r="AW39" s="11">
-        <v>104370</v>
+        <v>51975</v>
       </c>
       <c r="AX39" s="11">
-        <v>51975</v>
+        <v>93648</v>
       </c>
       <c r="AY39" s="11">
-        <v>93648</v>
+        <v>72147</v>
       </c>
       <c r="AZ39" s="11">
-        <v>72147</v>
+        <v>68671</v>
       </c>
       <c r="BA39" s="11">
-        <v>68671</v>
+        <v>71042</v>
       </c>
       <c r="BB39" s="11">
-        <v>71042</v>
+        <v>38825</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5306,44 +5306,44 @@
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13" t="s">
-        <v>58</v>
+      <c r="AH40" s="13">
+        <v>24221</v>
       </c>
       <c r="AI40" s="13">
-        <v>24221</v>
+        <v>78885</v>
       </c>
       <c r="AJ40" s="13">
-        <v>78885</v>
+        <v>108909</v>
       </c>
       <c r="AK40" s="13">
-        <v>108909</v>
+        <v>122534</v>
       </c>
       <c r="AL40" s="13">
-        <v>122534</v>
+        <v>149006</v>
       </c>
       <c r="AM40" s="13">
-        <v>149006</v>
+        <v>89817</v>
       </c>
       <c r="AN40" s="13">
-        <v>89817</v>
+        <v>140404</v>
       </c>
       <c r="AO40" s="13">
-        <v>140404</v>
+        <v>77757</v>
       </c>
       <c r="AP40" s="13">
-        <v>77757</v>
+        <v>126406</v>
       </c>
       <c r="AQ40" s="13">
-        <v>126406</v>
+        <v>83622</v>
       </c>
       <c r="AR40" s="13">
-        <v>83622</v>
+        <v>140009</v>
       </c>
       <c r="AS40" s="13">
-        <v>140009</v>
-      </c>
-      <c r="AT40" s="13">
         <v>109915</v>
+      </c>
+      <c r="AT40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU40" s="13" t="s">
         <v>58</v>
@@ -5437,94 +5437,94 @@
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <v>0</v>
+        <v>523533</v>
       </c>
       <c r="Z41" s="15">
-        <v>523533</v>
+        <v>664238</v>
       </c>
       <c r="AA41" s="15">
-        <v>664238</v>
+        <v>622036</v>
       </c>
       <c r="AB41" s="15">
-        <v>622036</v>
+        <v>590340</v>
       </c>
       <c r="AC41" s="15">
-        <v>590340</v>
+        <v>630386</v>
       </c>
       <c r="AD41" s="15">
-        <v>630386</v>
+        <v>542219</v>
       </c>
       <c r="AE41" s="15">
-        <v>542219</v>
+        <v>687286</v>
       </c>
       <c r="AF41" s="15">
-        <v>687286</v>
+        <v>566636</v>
       </c>
       <c r="AG41" s="15">
-        <v>566636</v>
+        <v>639999</v>
       </c>
       <c r="AH41" s="15">
-        <v>639999</v>
+        <v>185615</v>
       </c>
       <c r="AI41" s="15">
-        <v>185615</v>
+        <v>577535</v>
       </c>
       <c r="AJ41" s="15">
-        <v>577535</v>
+        <v>610941</v>
       </c>
       <c r="AK41" s="15">
-        <v>610941</v>
+        <v>647031</v>
       </c>
       <c r="AL41" s="15">
-        <v>647031</v>
+        <v>564776</v>
       </c>
       <c r="AM41" s="15">
-        <v>564776</v>
+        <v>603393</v>
       </c>
       <c r="AN41" s="15">
-        <v>603393</v>
+        <v>607079</v>
       </c>
       <c r="AO41" s="15">
-        <v>607079</v>
+        <v>559590</v>
       </c>
       <c r="AP41" s="15">
-        <v>559590</v>
+        <v>692028</v>
       </c>
       <c r="AQ41" s="15">
-        <v>692028</v>
+        <v>377612</v>
       </c>
       <c r="AR41" s="15">
-        <v>377612</v>
+        <v>636805</v>
       </c>
       <c r="AS41" s="15">
-        <v>636805</v>
+        <v>579208</v>
       </c>
       <c r="AT41" s="15">
-        <v>579208</v>
+        <v>167160</v>
       </c>
       <c r="AU41" s="15">
-        <v>167160</v>
+        <v>738304</v>
       </c>
       <c r="AV41" s="15">
-        <v>738304</v>
+        <v>688970</v>
       </c>
       <c r="AW41" s="15">
-        <v>688970</v>
+        <v>551033</v>
       </c>
       <c r="AX41" s="15">
-        <v>551033</v>
+        <v>631425</v>
       </c>
       <c r="AY41" s="15">
-        <v>631425</v>
+        <v>649944</v>
       </c>
       <c r="AZ41" s="15">
-        <v>649944</v>
+        <v>589090</v>
       </c>
       <c r="BA41" s="15">
-        <v>589090</v>
+        <v>631444</v>
       </c>
       <c r="BB41" s="15">
-        <v>631444</v>
+        <v>768017</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5650,8 +5650,8 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
       </c>
       <c r="Z43" s="15">
         <v>0</v>
@@ -5864,8 +5864,8 @@
       <c r="X45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="15" t="s">
-        <v>58</v>
+      <c r="Y45" s="15">
+        <v>0</v>
       </c>
       <c r="Z45" s="15">
         <v>0</v>
@@ -6022,94 +6022,94 @@
         <v>0</v>
       </c>
       <c r="Y46" s="19">
-        <v>0</v>
+        <v>1050670</v>
       </c>
       <c r="Z46" s="19">
-        <v>1050670</v>
+        <v>1229680</v>
       </c>
       <c r="AA46" s="19">
-        <v>1229680</v>
+        <v>978892</v>
       </c>
       <c r="AB46" s="19">
-        <v>978892</v>
+        <v>979352</v>
       </c>
       <c r="AC46" s="19">
-        <v>979352</v>
+        <v>1053722</v>
       </c>
       <c r="AD46" s="19">
-        <v>1053722</v>
+        <v>914958</v>
       </c>
       <c r="AE46" s="19">
-        <v>914958</v>
+        <v>1017115</v>
       </c>
       <c r="AF46" s="19">
-        <v>1017115</v>
+        <v>893053</v>
       </c>
       <c r="AG46" s="19">
-        <v>893053</v>
+        <v>1229296</v>
       </c>
       <c r="AH46" s="19">
-        <v>1229296</v>
+        <v>340093</v>
       </c>
       <c r="AI46" s="19">
-        <v>340093</v>
+        <v>1018730</v>
       </c>
       <c r="AJ46" s="19">
-        <v>1018730</v>
+        <v>1123597</v>
       </c>
       <c r="AK46" s="19">
-        <v>1123597</v>
+        <v>999146</v>
       </c>
       <c r="AL46" s="19">
-        <v>999146</v>
+        <v>933843</v>
       </c>
       <c r="AM46" s="19">
-        <v>933843</v>
+        <v>1140171</v>
       </c>
       <c r="AN46" s="19">
-        <v>1140171</v>
+        <v>914431</v>
       </c>
       <c r="AO46" s="19">
-        <v>914431</v>
+        <v>932635</v>
       </c>
       <c r="AP46" s="19">
-        <v>932635</v>
+        <v>1136191</v>
       </c>
       <c r="AQ46" s="19">
-        <v>1136191</v>
+        <v>937747</v>
       </c>
       <c r="AR46" s="19">
-        <v>937747</v>
+        <v>988581</v>
       </c>
       <c r="AS46" s="19">
-        <v>988581</v>
+        <v>1065234</v>
       </c>
       <c r="AT46" s="19">
-        <v>1065234</v>
+        <v>258160</v>
       </c>
       <c r="AU46" s="19">
-        <v>258160</v>
+        <v>1265370</v>
       </c>
       <c r="AV46" s="19">
-        <v>1265370</v>
+        <v>1099902</v>
       </c>
       <c r="AW46" s="19">
-        <v>1099902</v>
+        <v>936223</v>
       </c>
       <c r="AX46" s="19">
-        <v>936223</v>
+        <v>1057778</v>
       </c>
       <c r="AY46" s="19">
-        <v>1057778</v>
+        <v>1008018</v>
       </c>
       <c r="AZ46" s="19">
-        <v>1008018</v>
+        <v>926953</v>
       </c>
       <c r="BA46" s="19">
-        <v>926953</v>
+        <v>1018537</v>
       </c>
       <c r="BB46" s="19">
-        <v>1018537</v>
+        <v>1116030</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6614,36 +6614,36 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>91719</v>
       </c>
       <c r="Z53" s="11">
-        <v>91719</v>
+        <v>64644</v>
       </c>
       <c r="AA53" s="11">
-        <v>64644</v>
+        <v>38385</v>
       </c>
       <c r="AB53" s="11">
-        <v>38385</v>
+        <v>39593</v>
       </c>
       <c r="AC53" s="11">
-        <v>39593</v>
+        <v>72532</v>
       </c>
       <c r="AD53" s="11">
-        <v>72532</v>
+        <v>83617</v>
       </c>
       <c r="AE53" s="11">
-        <v>83617</v>
+        <v>35090</v>
       </c>
       <c r="AF53" s="11">
-        <v>35090</v>
+        <v>68882</v>
       </c>
       <c r="AG53" s="11">
-        <v>68882</v>
-      </c>
-      <c r="AH53" s="11">
         <v>105852</v>
       </c>
+      <c r="AH53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI53" s="11" t="s">
         <v>58</v>
       </c>
@@ -6677,32 +6677,32 @@
       <c r="AS53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT53" s="11" t="s">
-        <v>58</v>
+      <c r="AT53" s="11">
+        <v>46885</v>
       </c>
       <c r="AU53" s="11">
-        <v>46885</v>
+        <v>311708</v>
       </c>
       <c r="AV53" s="11">
-        <v>311708</v>
+        <v>205509</v>
       </c>
       <c r="AW53" s="11">
-        <v>205509</v>
+        <v>241531</v>
       </c>
       <c r="AX53" s="11">
-        <v>241531</v>
+        <v>333143</v>
       </c>
       <c r="AY53" s="11">
-        <v>333143</v>
+        <v>217001</v>
       </c>
       <c r="AZ53" s="11">
-        <v>217001</v>
+        <v>318089</v>
       </c>
       <c r="BA53" s="11">
-        <v>318089</v>
+        <v>288736</v>
       </c>
       <c r="BB53" s="11">
-        <v>288736</v>
+        <v>186872</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6773,95 +6773,95 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>99165</v>
       </c>
       <c r="Z54" s="13">
-        <v>99165</v>
+        <v>138574</v>
       </c>
       <c r="AA54" s="13">
-        <v>138574</v>
+        <v>77678</v>
       </c>
       <c r="AB54" s="13">
-        <v>77678</v>
+        <v>93297</v>
       </c>
       <c r="AC54" s="13">
-        <v>93297</v>
+        <v>88796</v>
       </c>
       <c r="AD54" s="13">
-        <v>88796</v>
+        <v>85251</v>
       </c>
       <c r="AE54" s="13">
-        <v>85251</v>
+        <v>102061</v>
       </c>
       <c r="AF54" s="13">
-        <v>102061</v>
+        <v>99098</v>
       </c>
       <c r="AG54" s="13">
-        <v>99098</v>
+        <v>182395</v>
       </c>
       <c r="AH54" s="13">
-        <v>182395</v>
+        <v>16981</v>
       </c>
       <c r="AI54" s="13">
-        <v>16981</v>
+        <v>102944</v>
       </c>
       <c r="AJ54" s="13">
-        <v>102944</v>
+        <v>120664</v>
       </c>
       <c r="AK54" s="13">
-        <v>120664</v>
+        <v>108731</v>
       </c>
       <c r="AL54" s="13">
-        <v>108731</v>
+        <v>122151</v>
       </c>
       <c r="AM54" s="13">
-        <v>122151</v>
+        <v>169664</v>
       </c>
       <c r="AN54" s="13">
-        <v>169664</v>
+        <v>108633</v>
       </c>
       <c r="AO54" s="13">
-        <v>108633</v>
+        <v>143495</v>
       </c>
       <c r="AP54" s="13">
-        <v>143495</v>
+        <v>180232</v>
       </c>
       <c r="AQ54" s="13">
-        <v>180232</v>
+        <v>213080</v>
       </c>
       <c r="AR54" s="13">
-        <v>213080</v>
+        <v>142168</v>
       </c>
       <c r="AS54" s="13">
-        <v>142168</v>
+        <v>188996</v>
       </c>
       <c r="AT54" s="13">
-        <v>188996</v>
+        <v>28813</v>
       </c>
       <c r="AU54" s="13">
-        <v>28813</v>
+        <v>182024</v>
       </c>
       <c r="AV54" s="13">
-        <v>182024</v>
+        <v>142635</v>
       </c>
       <c r="AW54" s="13">
-        <v>142635</v>
+        <v>95455</v>
       </c>
       <c r="AX54" s="13">
-        <v>95455</v>
+        <v>128565</v>
       </c>
       <c r="AY54" s="13">
-        <v>128565</v>
+        <v>99688</v>
       </c>
       <c r="AZ54" s="13">
-        <v>99688</v>
+        <v>93125</v>
       </c>
       <c r="BA54" s="13">
-        <v>93125</v>
+        <v>87827</v>
       </c>
       <c r="BB54" s="13">
-        <v>87827</v>
+        <v>116095</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6932,95 +6932,95 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>19982</v>
       </c>
       <c r="Z55" s="11">
-        <v>19982</v>
+        <v>24741</v>
       </c>
       <c r="AA55" s="11">
-        <v>24741</v>
+        <v>23815</v>
       </c>
       <c r="AB55" s="11">
-        <v>23815</v>
+        <v>25235</v>
       </c>
       <c r="AC55" s="11">
-        <v>25235</v>
+        <v>30868</v>
       </c>
       <c r="AD55" s="11">
-        <v>30868</v>
+        <v>25977</v>
       </c>
       <c r="AE55" s="11">
-        <v>25977</v>
+        <v>21210</v>
       </c>
       <c r="AF55" s="11">
-        <v>21210</v>
+        <v>17439</v>
       </c>
       <c r="AG55" s="11">
-        <v>17439</v>
+        <v>27448</v>
       </c>
       <c r="AH55" s="11">
-        <v>27448</v>
+        <v>9756</v>
       </c>
       <c r="AI55" s="11">
-        <v>9756</v>
+        <v>26510</v>
       </c>
       <c r="AJ55" s="11">
-        <v>26510</v>
+        <v>28638</v>
       </c>
       <c r="AK55" s="11">
-        <v>28638</v>
+        <v>20848</v>
       </c>
       <c r="AL55" s="11">
-        <v>20848</v>
+        <v>22730</v>
       </c>
       <c r="AM55" s="11">
-        <v>22730</v>
+        <v>29287</v>
       </c>
       <c r="AN55" s="11">
-        <v>29287</v>
+        <v>13800</v>
       </c>
       <c r="AO55" s="11">
-        <v>13800</v>
+        <v>19450</v>
       </c>
       <c r="AP55" s="11">
-        <v>19450</v>
+        <v>20005</v>
       </c>
       <c r="AQ55" s="11">
-        <v>20005</v>
+        <v>25965</v>
       </c>
       <c r="AR55" s="11">
-        <v>25965</v>
+        <v>22973</v>
       </c>
       <c r="AS55" s="11">
-        <v>22973</v>
+        <v>28613</v>
       </c>
       <c r="AT55" s="11">
-        <v>28613</v>
+        <v>8133</v>
       </c>
       <c r="AU55" s="11">
-        <v>8133</v>
+        <v>33272</v>
       </c>
       <c r="AV55" s="11">
-        <v>33272</v>
+        <v>42481</v>
       </c>
       <c r="AW55" s="11">
-        <v>42481</v>
+        <v>44975</v>
       </c>
       <c r="AX55" s="11">
-        <v>44975</v>
+        <v>34481</v>
       </c>
       <c r="AY55" s="11">
-        <v>34481</v>
+        <v>37490</v>
       </c>
       <c r="AZ55" s="11">
-        <v>37490</v>
+        <v>30797</v>
       </c>
       <c r="BA55" s="11">
-        <v>30797</v>
+        <v>47534</v>
       </c>
       <c r="BB55" s="11">
-        <v>47534</v>
+        <v>42350</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7118,44 +7118,44 @@
       <c r="AG56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH56" s="13" t="s">
-        <v>58</v>
+      <c r="AH56" s="13">
+        <v>85420</v>
       </c>
       <c r="AI56" s="13">
-        <v>85420</v>
+        <v>164318</v>
       </c>
       <c r="AJ56" s="13">
-        <v>164318</v>
+        <v>181602</v>
       </c>
       <c r="AK56" s="13">
-        <v>181602</v>
+        <v>133471</v>
       </c>
       <c r="AL56" s="13">
-        <v>133471</v>
+        <v>155524</v>
       </c>
       <c r="AM56" s="13">
-        <v>155524</v>
+        <v>269597</v>
       </c>
       <c r="AN56" s="13">
-        <v>269597</v>
+        <v>143720</v>
       </c>
       <c r="AO56" s="13">
-        <v>143720</v>
+        <v>193974</v>
       </c>
       <c r="AP56" s="13">
-        <v>193974</v>
+        <v>240164</v>
       </c>
       <c r="AQ56" s="13">
-        <v>240164</v>
+        <v>297223</v>
       </c>
       <c r="AR56" s="13">
-        <v>297223</v>
+        <v>171892</v>
       </c>
       <c r="AS56" s="13">
-        <v>171892</v>
-      </c>
-      <c r="AT56" s="13">
         <v>242794</v>
+      </c>
+      <c r="AT56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU56" s="13" t="s">
         <v>58</v>
@@ -7249,94 +7249,94 @@
         <v>0</v>
       </c>
       <c r="Y57" s="15">
-        <v>0</v>
+        <v>210866</v>
       </c>
       <c r="Z57" s="15">
-        <v>210866</v>
+        <v>227959</v>
       </c>
       <c r="AA57" s="15">
-        <v>227959</v>
+        <v>139878</v>
       </c>
       <c r="AB57" s="15">
-        <v>139878</v>
+        <v>158125</v>
       </c>
       <c r="AC57" s="15">
-        <v>158125</v>
+        <v>192196</v>
       </c>
       <c r="AD57" s="15">
-        <v>192196</v>
+        <v>194845</v>
       </c>
       <c r="AE57" s="15">
-        <v>194845</v>
+        <v>158361</v>
       </c>
       <c r="AF57" s="15">
-        <v>158361</v>
+        <v>185419</v>
       </c>
       <c r="AG57" s="15">
-        <v>185419</v>
+        <v>315695</v>
       </c>
       <c r="AH57" s="15">
-        <v>315695</v>
+        <v>112157</v>
       </c>
       <c r="AI57" s="15">
-        <v>112157</v>
+        <v>293772</v>
       </c>
       <c r="AJ57" s="15">
-        <v>293772</v>
+        <v>330904</v>
       </c>
       <c r="AK57" s="15">
-        <v>330904</v>
+        <v>263050</v>
       </c>
       <c r="AL57" s="15">
-        <v>263050</v>
+        <v>300405</v>
       </c>
       <c r="AM57" s="15">
-        <v>300405</v>
+        <v>468548</v>
       </c>
       <c r="AN57" s="15">
-        <v>468548</v>
+        <v>266153</v>
       </c>
       <c r="AO57" s="15">
-        <v>266153</v>
+        <v>356919</v>
       </c>
       <c r="AP57" s="15">
-        <v>356919</v>
+        <v>440401</v>
       </c>
       <c r="AQ57" s="15">
-        <v>440401</v>
+        <v>536268</v>
       </c>
       <c r="AR57" s="15">
-        <v>536268</v>
+        <v>337033</v>
       </c>
       <c r="AS57" s="15">
-        <v>337033</v>
+        <v>460403</v>
       </c>
       <c r="AT57" s="15">
-        <v>460403</v>
+        <v>83831</v>
       </c>
       <c r="AU57" s="15">
-        <v>83831</v>
+        <v>527004</v>
       </c>
       <c r="AV57" s="15">
-        <v>527004</v>
+        <v>390625</v>
       </c>
       <c r="AW57" s="15">
-        <v>390625</v>
+        <v>381961</v>
       </c>
       <c r="AX57" s="15">
-        <v>381961</v>
+        <v>496189</v>
       </c>
       <c r="AY57" s="15">
-        <v>496189</v>
+        <v>354179</v>
       </c>
       <c r="AZ57" s="15">
-        <v>354179</v>
+        <v>442011</v>
       </c>
       <c r="BA57" s="15">
-        <v>442011</v>
+        <v>424097</v>
       </c>
       <c r="BB57" s="15">
-        <v>424097</v>
+        <v>345317</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7464,36 +7464,36 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>19999</v>
       </c>
       <c r="Z59" s="11">
-        <v>19999</v>
+        <v>81194</v>
       </c>
       <c r="AA59" s="11">
-        <v>81194</v>
+        <v>46269</v>
       </c>
       <c r="AB59" s="11">
-        <v>46269</v>
+        <v>121884</v>
       </c>
       <c r="AC59" s="11">
-        <v>121884</v>
+        <v>29875</v>
       </c>
       <c r="AD59" s="11">
-        <v>29875</v>
+        <v>39777</v>
       </c>
       <c r="AE59" s="11">
-        <v>39777</v>
+        <v>132236</v>
       </c>
       <c r="AF59" s="11">
-        <v>132236</v>
+        <v>67300</v>
       </c>
       <c r="AG59" s="11">
-        <v>67300</v>
-      </c>
-      <c r="AH59" s="11">
         <v>92430</v>
       </c>
+      <c r="AH59" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI59" s="11" t="s">
         <v>58</v>
       </c>
@@ -7527,32 +7527,32 @@
       <c r="AS59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT59" s="11" t="s">
-        <v>58</v>
+      <c r="AT59" s="11">
+        <v>29004</v>
       </c>
       <c r="AU59" s="11">
-        <v>29004</v>
+        <v>152016</v>
       </c>
       <c r="AV59" s="11">
-        <v>152016</v>
+        <v>222900</v>
       </c>
       <c r="AW59" s="11">
-        <v>222900</v>
+        <v>169118</v>
       </c>
       <c r="AX59" s="11">
-        <v>169118</v>
+        <v>164015</v>
       </c>
       <c r="AY59" s="11">
-        <v>164015</v>
+        <v>186467</v>
       </c>
       <c r="AZ59" s="11">
-        <v>186467</v>
+        <v>157123</v>
       </c>
       <c r="BA59" s="11">
-        <v>157123</v>
+        <v>234660</v>
       </c>
       <c r="BB59" s="11">
-        <v>234660</v>
+        <v>424749</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7623,95 +7623,95 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>223081</v>
       </c>
       <c r="Z60" s="13">
-        <v>223081</v>
+        <v>265666</v>
       </c>
       <c r="AA60" s="13">
-        <v>265666</v>
+        <v>313803</v>
       </c>
       <c r="AB60" s="13">
-        <v>313803</v>
+        <v>328067</v>
       </c>
       <c r="AC60" s="13">
-        <v>328067</v>
+        <v>354756</v>
       </c>
       <c r="AD60" s="13">
-        <v>354756</v>
+        <v>339312</v>
       </c>
       <c r="AE60" s="13">
-        <v>339312</v>
+        <v>329116</v>
       </c>
       <c r="AF60" s="13">
-        <v>329116</v>
+        <v>275356</v>
       </c>
       <c r="AG60" s="13">
-        <v>275356</v>
+        <v>279143</v>
       </c>
       <c r="AH60" s="13">
-        <v>279143</v>
+        <v>97640</v>
       </c>
       <c r="AI60" s="13">
-        <v>97640</v>
+        <v>276416</v>
       </c>
       <c r="AJ60" s="13">
-        <v>276416</v>
+        <v>244439</v>
       </c>
       <c r="AK60" s="13">
-        <v>244439</v>
+        <v>306873</v>
       </c>
       <c r="AL60" s="13">
-        <v>306873</v>
+        <v>262913</v>
       </c>
       <c r="AM60" s="13">
-        <v>262913</v>
+        <v>408445</v>
       </c>
       <c r="AN60" s="13">
-        <v>408445</v>
+        <v>323609</v>
       </c>
       <c r="AO60" s="13">
-        <v>323609</v>
+        <v>335119</v>
       </c>
       <c r="AP60" s="13">
-        <v>335119</v>
+        <v>363015</v>
       </c>
       <c r="AQ60" s="13">
-        <v>363015</v>
+        <v>216631</v>
       </c>
       <c r="AR60" s="13">
-        <v>216631</v>
+        <v>329162</v>
       </c>
       <c r="AS60" s="13">
-        <v>329162</v>
+        <v>303289</v>
       </c>
       <c r="AT60" s="13">
-        <v>303289</v>
+        <v>91544</v>
       </c>
       <c r="AU60" s="13">
-        <v>91544</v>
+        <v>389509</v>
       </c>
       <c r="AV60" s="13">
-        <v>389509</v>
+        <v>377878</v>
       </c>
       <c r="AW60" s="13">
-        <v>377878</v>
+        <v>370302</v>
       </c>
       <c r="AX60" s="13">
-        <v>370302</v>
+        <v>435562</v>
       </c>
       <c r="AY60" s="13">
-        <v>435562</v>
+        <v>419503</v>
       </c>
       <c r="AZ60" s="13">
-        <v>419503</v>
+        <v>444035</v>
       </c>
       <c r="BA60" s="13">
-        <v>444035</v>
+        <v>456304</v>
       </c>
       <c r="BB60" s="13">
-        <v>456304</v>
+        <v>592618</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7782,95 +7782,95 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>10318</v>
       </c>
       <c r="Z61" s="11">
-        <v>10318</v>
+        <v>12697</v>
       </c>
       <c r="AA61" s="11">
-        <v>12697</v>
+        <v>14512</v>
       </c>
       <c r="AB61" s="11">
-        <v>14512</v>
+        <v>8714</v>
       </c>
       <c r="AC61" s="11">
-        <v>8714</v>
+        <v>22536</v>
       </c>
       <c r="AD61" s="11">
-        <v>22536</v>
+        <v>7307</v>
       </c>
       <c r="AE61" s="11">
-        <v>7307</v>
+        <v>15872</v>
       </c>
       <c r="AF61" s="11">
-        <v>15872</v>
+        <v>10136</v>
       </c>
       <c r="AG61" s="11">
-        <v>10136</v>
+        <v>18930</v>
       </c>
       <c r="AH61" s="11">
-        <v>18930</v>
+        <v>2464</v>
       </c>
       <c r="AI61" s="11">
-        <v>2464</v>
+        <v>9121</v>
       </c>
       <c r="AJ61" s="11">
-        <v>9121</v>
+        <v>16127</v>
       </c>
       <c r="AK61" s="11">
-        <v>16127</v>
+        <v>14060</v>
       </c>
       <c r="AL61" s="11">
-        <v>14060</v>
+        <v>10982</v>
       </c>
       <c r="AM61" s="11">
-        <v>10982</v>
+        <v>7529</v>
       </c>
       <c r="AN61" s="11">
-        <v>7529</v>
+        <v>17266</v>
       </c>
       <c r="AO61" s="11">
-        <v>17266</v>
+        <v>15697</v>
       </c>
       <c r="AP61" s="11">
-        <v>15697</v>
+        <v>25719</v>
       </c>
       <c r="AQ61" s="11">
-        <v>25719</v>
+        <v>9069</v>
       </c>
       <c r="AR61" s="11">
-        <v>9069</v>
+        <v>13384</v>
       </c>
       <c r="AS61" s="11">
-        <v>13384</v>
+        <v>17230</v>
       </c>
       <c r="AT61" s="11">
-        <v>17230</v>
+        <v>2661</v>
       </c>
       <c r="AU61" s="11">
-        <v>2661</v>
+        <v>23910</v>
       </c>
       <c r="AV61" s="11">
-        <v>23910</v>
+        <v>17857</v>
       </c>
       <c r="AW61" s="11">
-        <v>17857</v>
+        <v>12214</v>
       </c>
       <c r="AX61" s="11">
-        <v>12214</v>
+        <v>21005</v>
       </c>
       <c r="AY61" s="11">
-        <v>21005</v>
+        <v>16007</v>
       </c>
       <c r="AZ61" s="11">
-        <v>16007</v>
+        <v>16732</v>
       </c>
       <c r="BA61" s="11">
-        <v>16732</v>
+        <v>18434</v>
       </c>
       <c r="BB61" s="11">
-        <v>18434</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7968,44 +7968,44 @@
       <c r="AG62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH62" s="13" t="s">
-        <v>58</v>
+      <c r="AH62" s="13">
+        <v>17227</v>
       </c>
       <c r="AI62" s="13">
-        <v>17227</v>
+        <v>54115</v>
       </c>
       <c r="AJ62" s="13">
-        <v>54115</v>
+        <v>77260</v>
       </c>
       <c r="AK62" s="13">
-        <v>77260</v>
+        <v>99278</v>
       </c>
       <c r="AL62" s="13">
-        <v>99278</v>
+        <v>135620</v>
       </c>
       <c r="AM62" s="13">
-        <v>135620</v>
+        <v>88603</v>
       </c>
       <c r="AN62" s="13">
-        <v>88603</v>
+        <v>157623</v>
       </c>
       <c r="AO62" s="13">
-        <v>157623</v>
+        <v>84504</v>
       </c>
       <c r="AP62" s="13">
-        <v>84504</v>
+        <v>142667</v>
       </c>
       <c r="AQ62" s="13">
-        <v>142667</v>
+        <v>91194</v>
       </c>
       <c r="AR62" s="13">
-        <v>91194</v>
+        <v>140962</v>
       </c>
       <c r="AS62" s="13">
-        <v>140962</v>
-      </c>
-      <c r="AT62" s="13">
         <v>97155</v>
+      </c>
+      <c r="AT62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU62" s="13" t="s">
         <v>58</v>
@@ -8099,94 +8099,94 @@
         <v>0</v>
       </c>
       <c r="Y63" s="15">
-        <v>0</v>
+        <v>253398</v>
       </c>
       <c r="Z63" s="15">
-        <v>253398</v>
+        <v>359557</v>
       </c>
       <c r="AA63" s="15">
-        <v>359557</v>
+        <v>374584</v>
       </c>
       <c r="AB63" s="15">
-        <v>374584</v>
+        <v>458665</v>
       </c>
       <c r="AC63" s="15">
-        <v>458665</v>
+        <v>407167</v>
       </c>
       <c r="AD63" s="15">
-        <v>407167</v>
+        <v>386396</v>
       </c>
       <c r="AE63" s="15">
-        <v>386396</v>
+        <v>477224</v>
       </c>
       <c r="AF63" s="15">
-        <v>477224</v>
+        <v>352792</v>
       </c>
       <c r="AG63" s="15">
-        <v>352792</v>
+        <v>390503</v>
       </c>
       <c r="AH63" s="15">
-        <v>390503</v>
+        <v>117331</v>
       </c>
       <c r="AI63" s="15">
-        <v>117331</v>
+        <v>339652</v>
       </c>
       <c r="AJ63" s="15">
-        <v>339652</v>
+        <v>337826</v>
       </c>
       <c r="AK63" s="15">
-        <v>337826</v>
+        <v>420211</v>
       </c>
       <c r="AL63" s="15">
-        <v>420211</v>
+        <v>409515</v>
       </c>
       <c r="AM63" s="15">
-        <v>409515</v>
+        <v>504577</v>
       </c>
       <c r="AN63" s="15">
-        <v>504577</v>
+        <v>498498</v>
       </c>
       <c r="AO63" s="15">
-        <v>498498</v>
+        <v>435320</v>
       </c>
       <c r="AP63" s="15">
-        <v>435320</v>
+        <v>531401</v>
       </c>
       <c r="AQ63" s="15">
-        <v>531401</v>
+        <v>316894</v>
       </c>
       <c r="AR63" s="15">
-        <v>316894</v>
+        <v>483508</v>
       </c>
       <c r="AS63" s="15">
-        <v>483508</v>
+        <v>417674</v>
       </c>
       <c r="AT63" s="15">
-        <v>417674</v>
+        <v>123209</v>
       </c>
       <c r="AU63" s="15">
-        <v>123209</v>
+        <v>565435</v>
       </c>
       <c r="AV63" s="15">
-        <v>565435</v>
+        <v>618635</v>
       </c>
       <c r="AW63" s="15">
-        <v>618635</v>
+        <v>551634</v>
       </c>
       <c r="AX63" s="15">
-        <v>551634</v>
+        <v>620582</v>
       </c>
       <c r="AY63" s="15">
-        <v>620582</v>
+        <v>621977</v>
       </c>
       <c r="AZ63" s="15">
-        <v>621977</v>
+        <v>617890</v>
       </c>
       <c r="BA63" s="15">
-        <v>617890</v>
+        <v>709398</v>
       </c>
       <c r="BB63" s="15">
-        <v>709398</v>
+        <v>1028508</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8314,8 +8314,8 @@
       <c r="X65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="15" t="s">
-        <v>58</v>
+      <c r="Y65" s="15">
+        <v>0</v>
       </c>
       <c r="Z65" s="15">
         <v>0</v>
@@ -8530,8 +8530,8 @@
       <c r="X67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="15" t="s">
-        <v>58</v>
+      <c r="Y67" s="15">
+        <v>0</v>
       </c>
       <c r="Z67" s="15">
         <v>0</v>
@@ -8746,95 +8746,95 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>-31997</v>
       </c>
       <c r="Z69" s="11">
-        <v>-31997</v>
+        <v>-22090</v>
       </c>
       <c r="AA69" s="11">
-        <v>-22090</v>
+        <v>-43336</v>
       </c>
       <c r="AB69" s="11">
-        <v>-43336</v>
+        <v>-33072</v>
       </c>
       <c r="AC69" s="11">
-        <v>-33072</v>
+        <v>-28567</v>
       </c>
       <c r="AD69" s="11">
-        <v>-28567</v>
+        <v>-30966</v>
       </c>
       <c r="AE69" s="11">
-        <v>-30966</v>
+        <v>-17983</v>
       </c>
       <c r="AF69" s="11">
-        <v>-17983</v>
+        <v>-19430</v>
       </c>
       <c r="AG69" s="11">
-        <v>-19430</v>
+        <v>-48332</v>
       </c>
       <c r="AH69" s="11">
-        <v>-48332</v>
+        <v>-31972</v>
       </c>
       <c r="AI69" s="11">
-        <v>-31972</v>
+        <v>-27449</v>
       </c>
       <c r="AJ69" s="11">
-        <v>-27449</v>
+        <v>-39135</v>
       </c>
       <c r="AK69" s="11">
-        <v>-39135</v>
+        <v>-39898</v>
       </c>
       <c r="AL69" s="11">
-        <v>-39898</v>
+        <v>-25582</v>
       </c>
       <c r="AM69" s="11">
-        <v>-25582</v>
+        <v>-52700</v>
       </c>
       <c r="AN69" s="11">
-        <v>-52700</v>
+        <v>-53894</v>
       </c>
       <c r="AO69" s="11">
-        <v>-53894</v>
+        <v>-90981</v>
       </c>
       <c r="AP69" s="11">
-        <v>-90981</v>
+        <v>-134175</v>
       </c>
       <c r="AQ69" s="11">
-        <v>-134175</v>
+        <v>-110041</v>
       </c>
       <c r="AR69" s="11">
-        <v>-110041</v>
+        <v>-42426</v>
       </c>
       <c r="AS69" s="11">
-        <v>-42426</v>
+        <v>-61328</v>
       </c>
       <c r="AT69" s="11">
-        <v>-61328</v>
+        <v>-8244</v>
       </c>
       <c r="AU69" s="11">
-        <v>-8244</v>
+        <v>-59767</v>
       </c>
       <c r="AV69" s="11">
-        <v>-59767</v>
+        <v>-65838</v>
       </c>
       <c r="AW69" s="11">
-        <v>-65838</v>
+        <v>-56427</v>
       </c>
       <c r="AX69" s="11">
-        <v>-56427</v>
+        <v>-68288</v>
       </c>
       <c r="AY69" s="11">
-        <v>-68288</v>
+        <v>-34959</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-34959</v>
+        <v>-49476</v>
       </c>
       <c r="BA69" s="11">
-        <v>-49476</v>
+        <v>-40530</v>
       </c>
       <c r="BB69" s="11">
-        <v>-40530</v>
+        <v>-25280</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8904,94 +8904,94 @@
         <v>0</v>
       </c>
       <c r="Y70" s="19">
-        <v>0</v>
+        <v>432267</v>
       </c>
       <c r="Z70" s="19">
-        <v>432267</v>
+        <v>565426</v>
       </c>
       <c r="AA70" s="19">
-        <v>565426</v>
+        <v>471126</v>
       </c>
       <c r="AB70" s="19">
-        <v>471126</v>
+        <v>583718</v>
       </c>
       <c r="AC70" s="19">
-        <v>583718</v>
+        <v>570796</v>
       </c>
       <c r="AD70" s="19">
-        <v>570796</v>
+        <v>550275</v>
       </c>
       <c r="AE70" s="19">
-        <v>550275</v>
+        <v>617602</v>
       </c>
       <c r="AF70" s="19">
-        <v>617602</v>
+        <v>518781</v>
       </c>
       <c r="AG70" s="19">
-        <v>518781</v>
+        <v>657866</v>
       </c>
       <c r="AH70" s="19">
-        <v>657866</v>
+        <v>197516</v>
       </c>
       <c r="AI70" s="19">
-        <v>197516</v>
+        <v>605975</v>
       </c>
       <c r="AJ70" s="19">
-        <v>605975</v>
+        <v>629595</v>
       </c>
       <c r="AK70" s="19">
-        <v>629595</v>
+        <v>643363</v>
       </c>
       <c r="AL70" s="19">
-        <v>643363</v>
+        <v>684338</v>
       </c>
       <c r="AM70" s="19">
-        <v>684338</v>
+        <v>920425</v>
       </c>
       <c r="AN70" s="19">
-        <v>920425</v>
+        <v>710757</v>
       </c>
       <c r="AO70" s="19">
-        <v>710757</v>
+        <v>701258</v>
       </c>
       <c r="AP70" s="19">
-        <v>701258</v>
+        <v>837627</v>
       </c>
       <c r="AQ70" s="19">
-        <v>837627</v>
+        <v>743121</v>
       </c>
       <c r="AR70" s="19">
-        <v>743121</v>
+        <v>778115</v>
       </c>
       <c r="AS70" s="19">
-        <v>778115</v>
+        <v>816749</v>
       </c>
       <c r="AT70" s="19">
-        <v>816749</v>
+        <v>198796</v>
       </c>
       <c r="AU70" s="19">
-        <v>198796</v>
+        <v>1032672</v>
       </c>
       <c r="AV70" s="19">
-        <v>1032672</v>
+        <v>943422</v>
       </c>
       <c r="AW70" s="19">
-        <v>943422</v>
+        <v>877168</v>
       </c>
       <c r="AX70" s="19">
-        <v>877168</v>
+        <v>1048483</v>
       </c>
       <c r="AY70" s="19">
-        <v>1048483</v>
+        <v>941197</v>
       </c>
       <c r="AZ70" s="19">
-        <v>941197</v>
+        <v>1010425</v>
       </c>
       <c r="BA70" s="19">
-        <v>1010425</v>
+        <v>1092965</v>
       </c>
       <c r="BB70" s="19">
-        <v>1092965</v>
+        <v>1348545</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9496,36 +9496,36 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>583406</v>
       </c>
       <c r="Z77" s="11">
-        <v>583406</v>
+        <v>588609</v>
       </c>
       <c r="AA77" s="11">
-        <v>588609</v>
+        <v>547817</v>
       </c>
       <c r="AB77" s="11">
-        <v>547817</v>
+        <v>492886</v>
       </c>
       <c r="AC77" s="11">
-        <v>492886</v>
+        <v>673132</v>
       </c>
       <c r="AD77" s="11">
-        <v>673132</v>
+        <v>808581</v>
       </c>
       <c r="AE77" s="11">
-        <v>808581</v>
+        <v>648206</v>
       </c>
       <c r="AF77" s="11">
-        <v>648206</v>
+        <v>781853</v>
       </c>
       <c r="AG77" s="11">
-        <v>781853</v>
-      </c>
-      <c r="AH77" s="11">
         <v>695133</v>
       </c>
+      <c r="AH77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI77" s="11" t="s">
         <v>58</v>
       </c>
@@ -9559,32 +9559,32 @@
       <c r="AS77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT77" s="11" t="s">
-        <v>58</v>
+      <c r="AT77" s="11">
+        <v>1270114</v>
       </c>
       <c r="AU77" s="11">
-        <v>1270114</v>
+        <v>1403875</v>
       </c>
       <c r="AV77" s="11">
-        <v>1403875</v>
+        <v>1757990</v>
       </c>
       <c r="AW77" s="11">
-        <v>1757990</v>
+        <v>1918877</v>
       </c>
       <c r="AX77" s="11">
-        <v>1918877</v>
+        <v>1902142</v>
       </c>
       <c r="AY77" s="11">
-        <v>1902142</v>
+        <v>1880408</v>
       </c>
       <c r="AZ77" s="11">
-        <v>1880408</v>
+        <v>2105183</v>
       </c>
       <c r="BA77" s="11">
-        <v>2105183</v>
+        <v>2053467</v>
       </c>
       <c r="BB77" s="11">
-        <v>2053467</v>
+        <v>1842429</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -9655,95 +9655,95 @@
       <c r="X78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="13" t="s">
-        <v>58</v>
+      <c r="Y78" s="13">
+        <v>581923</v>
       </c>
       <c r="Z78" s="13">
-        <v>581923</v>
+        <v>601040</v>
       </c>
       <c r="AA78" s="13">
-        <v>601040</v>
+        <v>602884</v>
       </c>
       <c r="AB78" s="13">
-        <v>602884</v>
+        <v>639288</v>
       </c>
       <c r="AC78" s="13">
-        <v>639288</v>
+        <v>687584</v>
       </c>
       <c r="AD78" s="13">
-        <v>687584</v>
+        <v>688858</v>
       </c>
       <c r="AE78" s="13">
-        <v>688858</v>
+        <v>680924</v>
       </c>
       <c r="AF78" s="13">
-        <v>680924</v>
+        <v>731712</v>
       </c>
       <c r="AG78" s="13">
-        <v>731712</v>
+        <v>672146</v>
       </c>
       <c r="AH78" s="13">
-        <v>672146</v>
+        <v>782066</v>
       </c>
       <c r="AI78" s="13">
-        <v>782066</v>
+        <v>868286</v>
       </c>
       <c r="AJ78" s="13">
-        <v>868286</v>
+        <v>766856</v>
       </c>
       <c r="AK78" s="13">
-        <v>766856</v>
+        <v>876665</v>
       </c>
       <c r="AL78" s="13">
-        <v>876665</v>
+        <v>973160</v>
       </c>
       <c r="AM78" s="13">
-        <v>973160</v>
+        <v>959443</v>
       </c>
       <c r="AN78" s="13">
-        <v>959443</v>
+        <v>943068</v>
       </c>
       <c r="AO78" s="13">
-        <v>943068</v>
+        <v>975539</v>
       </c>
       <c r="AP78" s="13">
-        <v>975539</v>
+        <v>1041665</v>
       </c>
       <c r="AQ78" s="13">
-        <v>1041665</v>
+        <v>1023931</v>
       </c>
       <c r="AR78" s="13">
-        <v>1023931</v>
+        <v>990186</v>
       </c>
       <c r="AS78" s="13">
-        <v>990186</v>
+        <v>1000646</v>
       </c>
       <c r="AT78" s="13">
-        <v>1000646</v>
+        <v>1126564</v>
       </c>
       <c r="AU78" s="13">
-        <v>1126564</v>
+        <v>1096042</v>
       </c>
       <c r="AV78" s="13">
-        <v>1096042</v>
+        <v>1168364</v>
       </c>
       <c r="AW78" s="13">
-        <v>1168364</v>
+        <v>1252132</v>
       </c>
       <c r="AX78" s="13">
-        <v>1252132</v>
+        <v>1203454</v>
       </c>
       <c r="AY78" s="13">
-        <v>1203454</v>
+        <v>1143263</v>
       </c>
       <c r="AZ78" s="13">
-        <v>1143263</v>
+        <v>1183261</v>
       </c>
       <c r="BA78" s="13">
-        <v>1183261</v>
+        <v>1158591</v>
       </c>
       <c r="BB78" s="13">
-        <v>1158591</v>
+        <v>1183122</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -9814,95 +9814,95 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>100153</v>
       </c>
       <c r="Z79" s="11">
-        <v>100153</v>
+        <v>109931</v>
       </c>
       <c r="AA79" s="11">
-        <v>109931</v>
+        <v>150782</v>
       </c>
       <c r="AB79" s="11">
-        <v>150782</v>
+        <v>155059</v>
       </c>
       <c r="AC79" s="11">
-        <v>155059</v>
+        <v>165564</v>
       </c>
       <c r="AD79" s="11">
-        <v>165564</v>
+        <v>178450</v>
       </c>
       <c r="AE79" s="11">
-        <v>178450</v>
+        <v>168589</v>
       </c>
       <c r="AF79" s="11">
-        <v>168589</v>
+        <v>169503</v>
       </c>
       <c r="AG79" s="11">
-        <v>169503</v>
+        <v>165690</v>
       </c>
       <c r="AH79" s="11">
-        <v>165690</v>
+        <v>179487</v>
       </c>
       <c r="AI79" s="11">
-        <v>179487</v>
+        <v>185465</v>
       </c>
       <c r="AJ79" s="11">
-        <v>185465</v>
+        <v>179932</v>
       </c>
       <c r="AK79" s="11">
-        <v>179932</v>
+        <v>209838</v>
       </c>
       <c r="AL79" s="11">
-        <v>209838</v>
+        <v>206977</v>
       </c>
       <c r="AM79" s="11">
-        <v>206977</v>
+        <v>204200</v>
       </c>
       <c r="AN79" s="11">
-        <v>204200</v>
+        <v>219647</v>
       </c>
       <c r="AO79" s="11">
-        <v>219647</v>
+        <v>223846</v>
       </c>
       <c r="AP79" s="11">
-        <v>223846</v>
+        <v>222433</v>
       </c>
       <c r="AQ79" s="11">
-        <v>222433</v>
+        <v>211600</v>
       </c>
       <c r="AR79" s="11">
-        <v>211600</v>
+        <v>244959</v>
       </c>
       <c r="AS79" s="11">
-        <v>244959</v>
+        <v>211450</v>
       </c>
       <c r="AT79" s="11">
-        <v>211450</v>
+        <v>285268</v>
       </c>
       <c r="AU79" s="11">
-        <v>285268</v>
+        <v>239439</v>
       </c>
       <c r="AV79" s="11">
-        <v>239439</v>
+        <v>247053</v>
       </c>
       <c r="AW79" s="11">
-        <v>247053</v>
+        <v>245651</v>
       </c>
       <c r="AX79" s="11">
-        <v>245651</v>
+        <v>238818</v>
       </c>
       <c r="AY79" s="11">
-        <v>238818</v>
+        <v>241129</v>
       </c>
       <c r="AZ79" s="11">
-        <v>241129</v>
+        <v>284991</v>
       </c>
       <c r="BA79" s="11">
-        <v>284991</v>
+        <v>278499</v>
       </c>
       <c r="BB79" s="11">
-        <v>278499</v>
+        <v>285262</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10000,44 +10000,44 @@
       <c r="AG80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH80" s="13" t="s">
-        <v>58</v>
+      <c r="AH80" s="13">
+        <v>1089402</v>
       </c>
       <c r="AI80" s="13">
-        <v>1089402</v>
+        <v>914417</v>
       </c>
       <c r="AJ80" s="13">
-        <v>914417</v>
+        <v>925846</v>
       </c>
       <c r="AK80" s="13">
-        <v>925846</v>
+        <v>1036797</v>
       </c>
       <c r="AL80" s="13">
-        <v>1036797</v>
+        <v>1162988</v>
       </c>
       <c r="AM80" s="13">
-        <v>1162988</v>
+        <v>1245142</v>
       </c>
       <c r="AN80" s="13">
-        <v>1245142</v>
+        <v>1111240</v>
       </c>
       <c r="AO80" s="13">
-        <v>1111240</v>
+        <v>1394874</v>
       </c>
       <c r="AP80" s="13">
-        <v>1394874</v>
+        <v>1325386</v>
       </c>
       <c r="AQ80" s="13">
-        <v>1325386</v>
+        <v>1296066</v>
       </c>
       <c r="AR80" s="13">
-        <v>1296066</v>
+        <v>1502342</v>
       </c>
       <c r="AS80" s="13">
-        <v>1502342</v>
-      </c>
-      <c r="AT80" s="13">
         <v>1500266</v>
+      </c>
+      <c r="AT80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU80" s="13" t="s">
         <v>58</v>
@@ -10189,36 +10189,36 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>494156</v>
       </c>
       <c r="Z82" s="11">
-        <v>494156</v>
+        <v>652496</v>
       </c>
       <c r="AA82" s="11">
-        <v>652496</v>
+        <v>668656</v>
       </c>
       <c r="AB82" s="11">
-        <v>668656</v>
+        <v>933126</v>
       </c>
       <c r="AC82" s="11">
-        <v>933126</v>
+        <v>767561</v>
       </c>
       <c r="AD82" s="11">
-        <v>767561</v>
+        <v>821839</v>
       </c>
       <c r="AE82" s="11">
-        <v>821839</v>
+        <v>867207</v>
       </c>
       <c r="AF82" s="11">
-        <v>867207</v>
+        <v>729666</v>
       </c>
       <c r="AG82" s="11">
-        <v>729666</v>
-      </c>
-      <c r="AH82" s="11">
         <v>740370</v>
       </c>
+      <c r="AH82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI82" s="11" t="s">
         <v>58</v>
       </c>
@@ -10252,32 +10252,32 @@
       <c r="AS82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT82" s="11" t="s">
-        <v>58</v>
+      <c r="AT82" s="11">
+        <v>822225</v>
       </c>
       <c r="AU82" s="11">
-        <v>822225</v>
+        <v>1064411</v>
       </c>
       <c r="AV82" s="11">
-        <v>1064411</v>
+        <v>1252944</v>
       </c>
       <c r="AW82" s="11">
-        <v>1252944</v>
+        <v>1432475</v>
       </c>
       <c r="AX82" s="11">
-        <v>1432475</v>
+        <v>1360229</v>
       </c>
       <c r="AY82" s="11">
-        <v>1360229</v>
+        <v>1354213</v>
       </c>
       <c r="AZ82" s="11">
-        <v>1354213</v>
+        <v>1546060</v>
       </c>
       <c r="BA82" s="11">
-        <v>1546060</v>
+        <v>1476908</v>
       </c>
       <c r="BB82" s="11">
-        <v>1476908</v>
+        <v>1705970</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10348,95 +10348,95 @@
       <c r="X83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>58</v>
+      <c r="Y83" s="13">
+        <v>581751</v>
       </c>
       <c r="Z83" s="13">
-        <v>581751</v>
+        <v>642700</v>
       </c>
       <c r="AA83" s="13">
-        <v>642700</v>
+        <v>736776</v>
       </c>
       <c r="AB83" s="13">
-        <v>736776</v>
+        <v>823939</v>
       </c>
       <c r="AC83" s="13">
-        <v>823939</v>
+        <v>822594</v>
       </c>
       <c r="AD83" s="13">
-        <v>822594</v>
+        <v>779771</v>
       </c>
       <c r="AE83" s="13">
-        <v>779771</v>
+        <v>779506</v>
       </c>
       <c r="AF83" s="13">
-        <v>779506</v>
+        <v>693311</v>
       </c>
       <c r="AG83" s="13">
-        <v>693311</v>
+        <v>757292</v>
       </c>
       <c r="AH83" s="13">
-        <v>757292</v>
+        <v>724198</v>
       </c>
       <c r="AI83" s="13">
-        <v>724198</v>
+        <v>659328</v>
       </c>
       <c r="AJ83" s="13">
-        <v>659328</v>
+        <v>675548</v>
       </c>
       <c r="AK83" s="13">
-        <v>675548</v>
+        <v>723389</v>
       </c>
       <c r="AL83" s="13">
-        <v>723389</v>
+        <v>791027</v>
       </c>
       <c r="AM83" s="13">
-        <v>791027</v>
+        <v>873377</v>
       </c>
       <c r="AN83" s="13">
-        <v>873377</v>
+        <v>883347</v>
       </c>
       <c r="AO83" s="13">
-        <v>883347</v>
+        <v>869845</v>
       </c>
       <c r="AP83" s="13">
-        <v>869845</v>
+        <v>887886</v>
       </c>
       <c r="AQ83" s="13">
-        <v>887886</v>
+        <v>895947</v>
       </c>
       <c r="AR83" s="13">
-        <v>895947</v>
+        <v>811942</v>
       </c>
       <c r="AS83" s="13">
-        <v>811942</v>
+        <v>818894</v>
       </c>
       <c r="AT83" s="13">
-        <v>818894</v>
+        <v>823252</v>
       </c>
       <c r="AU83" s="13">
-        <v>823252</v>
+        <v>847215</v>
       </c>
       <c r="AV83" s="13">
-        <v>847215</v>
+        <v>929134</v>
       </c>
       <c r="AW83" s="13">
-        <v>929134</v>
+        <v>971926</v>
       </c>
       <c r="AX83" s="13">
-        <v>971926</v>
+        <v>1044017</v>
       </c>
       <c r="AY83" s="13">
-        <v>1044017</v>
+        <v>953193</v>
       </c>
       <c r="AZ83" s="13">
-        <v>953193</v>
+        <v>1060278</v>
       </c>
       <c r="BA83" s="13">
-        <v>1060278</v>
+        <v>1136453</v>
       </c>
       <c r="BB83" s="13">
-        <v>1136453</v>
+        <v>1234071</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10507,95 +10507,95 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>103598</v>
       </c>
       <c r="Z84" s="11">
-        <v>103598</v>
+        <v>100417</v>
       </c>
       <c r="AA84" s="11">
-        <v>100417</v>
+        <v>114335</v>
       </c>
       <c r="AB84" s="11">
-        <v>114335</v>
+        <v>141571</v>
       </c>
       <c r="AC84" s="11">
-        <v>141571</v>
+        <v>140675</v>
       </c>
       <c r="AD84" s="11">
-        <v>140675</v>
+        <v>124531</v>
       </c>
       <c r="AE84" s="11">
-        <v>124531</v>
+        <v>140972</v>
       </c>
       <c r="AF84" s="11">
-        <v>140972</v>
+        <v>131226</v>
       </c>
       <c r="AG84" s="11">
-        <v>131226</v>
+        <v>129172</v>
       </c>
       <c r="AH84" s="11">
-        <v>129172</v>
+        <v>92740</v>
       </c>
       <c r="AI84" s="11">
-        <v>92740</v>
+        <v>114858</v>
       </c>
       <c r="AJ84" s="11">
-        <v>114858</v>
+        <v>115033</v>
       </c>
       <c r="AK84" s="11">
-        <v>115033</v>
+        <v>140206</v>
       </c>
       <c r="AL84" s="11">
-        <v>140206</v>
+        <v>131677</v>
       </c>
       <c r="AM84" s="11">
-        <v>131677</v>
+        <v>163980</v>
       </c>
       <c r="AN84" s="11">
-        <v>163980</v>
+        <v>172090</v>
       </c>
       <c r="AO84" s="11">
-        <v>172090</v>
+        <v>162545</v>
       </c>
       <c r="AP84" s="11">
-        <v>162545</v>
+        <v>164057</v>
       </c>
       <c r="AQ84" s="11">
-        <v>164057</v>
+        <v>173736</v>
       </c>
       <c r="AR84" s="11">
-        <v>173736</v>
+        <v>146441</v>
       </c>
       <c r="AS84" s="11">
-        <v>146441</v>
+        <v>174165</v>
       </c>
       <c r="AT84" s="11">
-        <v>174165</v>
+        <v>128632</v>
       </c>
       <c r="AU84" s="11">
-        <v>128632</v>
+        <v>176152</v>
       </c>
       <c r="AV84" s="11">
-        <v>176152</v>
+        <v>171093</v>
       </c>
       <c r="AW84" s="11">
-        <v>171093</v>
+        <v>234998</v>
       </c>
       <c r="AX84" s="11">
-        <v>234998</v>
+        <v>224297</v>
       </c>
       <c r="AY84" s="11">
-        <v>224297</v>
+        <v>221866</v>
       </c>
       <c r="AZ84" s="11">
-        <v>221866</v>
+        <v>243655</v>
       </c>
       <c r="BA84" s="11">
-        <v>243655</v>
+        <v>259480</v>
       </c>
       <c r="BB84" s="11">
-        <v>259480</v>
+        <v>286954</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -10693,44 +10693,44 @@
       <c r="AG85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH85" s="13" t="s">
-        <v>58</v>
+      <c r="AH85" s="13">
+        <v>711242</v>
       </c>
       <c r="AI85" s="13">
-        <v>711242</v>
+        <v>685999</v>
       </c>
       <c r="AJ85" s="13">
-        <v>685999</v>
+        <v>709400</v>
       </c>
       <c r="AK85" s="13">
-        <v>709400</v>
+        <v>810208</v>
       </c>
       <c r="AL85" s="13">
-        <v>810208</v>
+        <v>910165</v>
       </c>
       <c r="AM85" s="13">
-        <v>910165</v>
+        <v>986484</v>
       </c>
       <c r="AN85" s="13">
-        <v>986484</v>
+        <v>1122639</v>
       </c>
       <c r="AO85" s="13">
-        <v>1122639</v>
+        <v>1086770</v>
       </c>
       <c r="AP85" s="13">
-        <v>1086770</v>
+        <v>1128641</v>
       </c>
       <c r="AQ85" s="13">
-        <v>1128641</v>
+        <v>1090550</v>
       </c>
       <c r="AR85" s="13">
-        <v>1090550</v>
+        <v>1006807</v>
       </c>
       <c r="AS85" s="13">
-        <v>1006807</v>
-      </c>
-      <c r="AT85" s="13">
         <v>883910</v>
+      </c>
+      <c r="AT85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU85" s="13" t="s">
         <v>58</v>

--- a/database/industries/kashi/kesave/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kesave/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20297A98-D676-45AD-BB2F-A02509A35BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9B079A-BF29-4A46-A33F-B355D135BB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -769,12 +769,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -829,7 +829,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -998,7 +998,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1167,7 +1167,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1379,7 +1379,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1498,39 +1498,39 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>193695</v>
+      </c>
+      <c r="X11" s="11">
+        <v>163665</v>
       </c>
       <c r="Y11" s="11">
-        <v>193695</v>
+        <v>159934</v>
       </c>
       <c r="Z11" s="11">
-        <v>163665</v>
+        <v>170994</v>
       </c>
       <c r="AA11" s="11">
-        <v>159934</v>
+        <v>143473</v>
       </c>
       <c r="AB11" s="11">
-        <v>170994</v>
+        <v>172630</v>
       </c>
       <c r="AC11" s="11">
-        <v>143473</v>
+        <v>195869</v>
       </c>
       <c r="AD11" s="11">
-        <v>172630</v>
+        <v>187957</v>
       </c>
       <c r="AE11" s="11">
-        <v>195869</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>187957</v>
-      </c>
-      <c r="AG11" s="11">
         <v>187995</v>
       </c>
+      <c r="AF11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1561,41 +1561,41 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
+      <c r="AR11" s="11">
+        <v>121757</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>297564</v>
       </c>
       <c r="AT11" s="11">
-        <v>121757</v>
+        <v>328902</v>
       </c>
       <c r="AU11" s="11">
-        <v>297564</v>
+        <v>277167</v>
       </c>
       <c r="AV11" s="11">
-        <v>328902</v>
+        <v>311452</v>
       </c>
       <c r="AW11" s="11">
-        <v>277167</v>
+        <v>311640</v>
       </c>
       <c r="AX11" s="11">
-        <v>311452</v>
+        <v>296173</v>
       </c>
       <c r="AY11" s="11">
-        <v>311640</v>
+        <v>300514</v>
       </c>
       <c r="AZ11" s="11">
-        <v>296173</v>
+        <v>311385</v>
       </c>
       <c r="BA11" s="11">
-        <v>300514</v>
+        <v>251981</v>
       </c>
       <c r="BB11" s="11">
-        <v>311385</v>
+        <v>255525</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1657,104 +1657,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>513396</v>
+      </c>
+      <c r="X12" s="13">
+        <v>522670</v>
       </c>
       <c r="Y12" s="13">
-        <v>513396</v>
+        <v>535562</v>
       </c>
       <c r="Z12" s="13">
-        <v>522670</v>
+        <v>500111</v>
       </c>
       <c r="AA12" s="13">
-        <v>535562</v>
+        <v>583413</v>
       </c>
       <c r="AB12" s="13">
-        <v>500111</v>
+        <v>516362</v>
       </c>
       <c r="AC12" s="13">
-        <v>583413</v>
+        <v>548987</v>
       </c>
       <c r="AD12" s="13">
-        <v>516362</v>
+        <v>557937</v>
       </c>
       <c r="AE12" s="13">
-        <v>548987</v>
+        <v>349897</v>
       </c>
       <c r="AF12" s="13">
-        <v>557937</v>
+        <v>209907</v>
       </c>
       <c r="AG12" s="13">
-        <v>349897</v>
+        <v>543375</v>
       </c>
       <c r="AH12" s="13">
-        <v>209907</v>
+        <v>531214</v>
       </c>
       <c r="AI12" s="13">
-        <v>543375</v>
+        <v>568851</v>
       </c>
       <c r="AJ12" s="13">
-        <v>531214</v>
+        <v>498587</v>
       </c>
       <c r="AK12" s="13">
-        <v>568851</v>
+        <v>572639</v>
       </c>
       <c r="AL12" s="13">
-        <v>498587</v>
+        <v>545660</v>
       </c>
       <c r="AM12" s="13">
-        <v>572639</v>
+        <v>581841</v>
       </c>
       <c r="AN12" s="13">
-        <v>545660</v>
+        <v>579751</v>
       </c>
       <c r="AO12" s="13">
-        <v>581841</v>
+        <v>579161</v>
       </c>
       <c r="AP12" s="13">
-        <v>579751</v>
+        <v>542538</v>
       </c>
       <c r="AQ12" s="13">
-        <v>579161</v>
+        <v>302450</v>
       </c>
       <c r="AR12" s="13">
-        <v>542538</v>
+        <v>224233</v>
       </c>
       <c r="AS12" s="13">
-        <v>302450</v>
+        <v>586684</v>
       </c>
       <c r="AT12" s="13">
-        <v>224233</v>
+        <v>613013</v>
       </c>
       <c r="AU12" s="13">
-        <v>586684</v>
+        <v>526570</v>
       </c>
       <c r="AV12" s="13">
-        <v>613013</v>
+        <v>509602</v>
       </c>
       <c r="AW12" s="13">
-        <v>526570</v>
+        <v>538209</v>
       </c>
       <c r="AX12" s="13">
-        <v>509602</v>
+        <v>540053</v>
       </c>
       <c r="AY12" s="13">
-        <v>538209</v>
+        <v>501747</v>
       </c>
       <c r="AZ12" s="13">
-        <v>540053</v>
+        <v>547981</v>
       </c>
       <c r="BA12" s="13">
-        <v>501747</v>
+        <v>477535</v>
       </c>
       <c r="BB12" s="13">
-        <v>547981</v>
+        <v>461306</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1816,104 +1816,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>294177</v>
+      </c>
+      <c r="X13" s="11">
+        <v>265700</v>
       </c>
       <c r="Y13" s="11">
-        <v>294177</v>
+        <v>272295</v>
       </c>
       <c r="Z13" s="11">
-        <v>265700</v>
+        <v>271352</v>
       </c>
       <c r="AA13" s="11">
-        <v>272295</v>
+        <v>269581</v>
       </c>
       <c r="AB13" s="11">
-        <v>271352</v>
+        <v>259870</v>
       </c>
       <c r="AC13" s="11">
-        <v>269581</v>
+        <v>230057</v>
       </c>
       <c r="AD13" s="11">
-        <v>259870</v>
+        <v>191426</v>
       </c>
       <c r="AE13" s="11">
-        <v>230057</v>
+        <v>234199</v>
       </c>
       <c r="AF13" s="11">
-        <v>191426</v>
+        <v>95189</v>
       </c>
       <c r="AG13" s="11">
-        <v>234199</v>
+        <v>268860</v>
       </c>
       <c r="AH13" s="11">
-        <v>95189</v>
+        <v>236453</v>
       </c>
       <c r="AI13" s="11">
-        <v>268860</v>
+        <v>248916</v>
       </c>
       <c r="AJ13" s="11">
-        <v>236453</v>
+        <v>275516</v>
       </c>
       <c r="AK13" s="11">
-        <v>248916</v>
+        <v>212457</v>
       </c>
       <c r="AL13" s="11">
-        <v>275516</v>
+        <v>221344</v>
       </c>
       <c r="AM13" s="11">
-        <v>212457</v>
+        <v>235251</v>
       </c>
       <c r="AN13" s="11">
-        <v>221344</v>
+        <v>231663</v>
       </c>
       <c r="AO13" s="11">
-        <v>235251</v>
+        <v>238828</v>
       </c>
       <c r="AP13" s="11">
-        <v>231663</v>
+        <v>250309</v>
       </c>
       <c r="AQ13" s="11">
-        <v>238828</v>
+        <v>109645</v>
       </c>
       <c r="AR13" s="11">
-        <v>250309</v>
+        <v>64450</v>
       </c>
       <c r="AS13" s="11">
-        <v>109645</v>
+        <v>281297</v>
       </c>
       <c r="AT13" s="11">
-        <v>64450</v>
+        <v>303271</v>
       </c>
       <c r="AU13" s="11">
-        <v>281297</v>
+        <v>285556</v>
       </c>
       <c r="AV13" s="11">
-        <v>303271</v>
+        <v>259449</v>
       </c>
       <c r="AW13" s="11">
-        <v>285556</v>
+        <v>240069</v>
       </c>
       <c r="AX13" s="11">
-        <v>259449</v>
+        <v>262754</v>
       </c>
       <c r="AY13" s="11">
-        <v>240069</v>
+        <v>276961</v>
       </c>
       <c r="AZ13" s="11">
-        <v>262754</v>
+        <v>255279</v>
       </c>
       <c r="BA13" s="11">
-        <v>276961</v>
+        <v>263216</v>
       </c>
       <c r="BB13" s="11">
-        <v>255279</v>
+        <v>249270</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
@@ -2002,48 +2002,48 @@
       <c r="AE14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>58</v>
+      <c r="AF14" s="13">
+        <v>167446</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>305656</v>
       </c>
       <c r="AH14" s="13">
-        <v>167446</v>
+        <v>256718</v>
       </c>
       <c r="AI14" s="13">
-        <v>305656</v>
+        <v>296062</v>
       </c>
       <c r="AJ14" s="13">
-        <v>256718</v>
+        <v>300779</v>
       </c>
       <c r="AK14" s="13">
-        <v>296062</v>
+        <v>280005</v>
       </c>
       <c r="AL14" s="13">
-        <v>300779</v>
+        <v>313062</v>
       </c>
       <c r="AM14" s="13">
-        <v>280005</v>
+        <v>232411</v>
       </c>
       <c r="AN14" s="13">
-        <v>313062</v>
+        <v>285816</v>
       </c>
       <c r="AO14" s="13">
-        <v>232411</v>
+        <v>290008</v>
       </c>
       <c r="AP14" s="13">
-        <v>285816</v>
+        <v>288278</v>
       </c>
       <c r="AQ14" s="13">
-        <v>290008</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>288278</v>
-      </c>
-      <c r="AS14" s="13">
         <v>187242</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT14" s="13" t="s">
         <v>58</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>63</v>
       </c>
@@ -2133,103 +2133,103 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>952035</v>
       </c>
       <c r="Y15" s="15">
-        <v>1001268</v>
+        <v>967791</v>
       </c>
       <c r="Z15" s="15">
-        <v>952035</v>
+        <v>942457</v>
       </c>
       <c r="AA15" s="15">
-        <v>967791</v>
+        <v>996467</v>
       </c>
       <c r="AB15" s="15">
-        <v>942457</v>
+        <v>948862</v>
       </c>
       <c r="AC15" s="15">
-        <v>996467</v>
+        <v>974913</v>
       </c>
       <c r="AD15" s="15">
-        <v>948862</v>
+        <v>937320</v>
       </c>
       <c r="AE15" s="15">
-        <v>974913</v>
+        <v>772091</v>
       </c>
       <c r="AF15" s="15">
-        <v>937320</v>
+        <v>472542</v>
       </c>
       <c r="AG15" s="15">
-        <v>772091</v>
+        <v>1117891</v>
       </c>
       <c r="AH15" s="15">
-        <v>472542</v>
+        <v>1024385</v>
       </c>
       <c r="AI15" s="15">
-        <v>1117891</v>
+        <v>1113829</v>
       </c>
       <c r="AJ15" s="15">
-        <v>1024385</v>
+        <v>1074882</v>
       </c>
       <c r="AK15" s="15">
-        <v>1113829</v>
+        <v>1065101</v>
       </c>
       <c r="AL15" s="15">
-        <v>1074882</v>
+        <v>1080066</v>
       </c>
       <c r="AM15" s="15">
-        <v>1065101</v>
+        <v>1049503</v>
       </c>
       <c r="AN15" s="15">
-        <v>1080066</v>
+        <v>1097230</v>
       </c>
       <c r="AO15" s="15">
-        <v>1049503</v>
+        <v>1107997</v>
       </c>
       <c r="AP15" s="15">
-        <v>1097230</v>
+        <v>1081125</v>
       </c>
       <c r="AQ15" s="15">
-        <v>1107997</v>
+        <v>599337</v>
       </c>
       <c r="AR15" s="15">
-        <v>1081125</v>
+        <v>410440</v>
       </c>
       <c r="AS15" s="15">
-        <v>599337</v>
+        <v>1165545</v>
       </c>
       <c r="AT15" s="15">
-        <v>410440</v>
+        <v>1245186</v>
       </c>
       <c r="AU15" s="15">
-        <v>1165545</v>
+        <v>1089293</v>
       </c>
       <c r="AV15" s="15">
-        <v>1245186</v>
+        <v>1080503</v>
       </c>
       <c r="AW15" s="15">
-        <v>1089293</v>
+        <v>1089918</v>
       </c>
       <c r="AX15" s="15">
-        <v>1080503</v>
+        <v>1098980</v>
       </c>
       <c r="AY15" s="15">
-        <v>1089918</v>
+        <v>1079222</v>
       </c>
       <c r="AZ15" s="15">
-        <v>1098980</v>
+        <v>1114645</v>
       </c>
       <c r="BA15" s="15">
-        <v>1079222</v>
+        <v>992732</v>
       </c>
       <c r="BB15" s="15">
-        <v>1114645</v>
+        <v>966101</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>64</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2348,11 +2348,11 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2375,11 +2375,11 @@
       <c r="AE17" s="11">
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>58</v>
@@ -2411,11 +2411,11 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>0</v>
       </c>
       <c r="AT17" s="11">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2507,11 +2507,11 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
       </c>
       <c r="Y18" s="13">
         <v>0</v>
@@ -2537,11 +2537,11 @@
       <c r="AF18" s="13">
         <v>0</v>
       </c>
-      <c r="AG18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>0</v>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>58</v>
@@ -2567,11 +2567,11 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AQ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2666,11 +2666,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2696,11 +2696,11 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>58</v>
@@ -2726,11 +2726,11 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
+      <c r="AQ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>0</v>
       </c>
       <c r="AS19" s="11">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>62</v>
       </c>
@@ -2852,14 +2852,14 @@
       <c r="AE20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>58</v>
+      <c r="AF20" s="13">
+        <v>0</v>
       </c>
       <c r="AG20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH20" s="13">
-        <v>0</v>
+      <c r="AH20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="13" t="s">
         <v>58</v>
@@ -2885,14 +2885,14 @@
       <c r="AP20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
+      <c r="AQ20" s="13">
+        <v>0</v>
       </c>
       <c r="AR20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="13">
-        <v>0</v>
+      <c r="AS20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>58</v>
@@ -2922,7 +2922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>65</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>66</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>67</v>
       </c>
@@ -3196,11 +3196,11 @@
       <c r="V23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>58</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>68</v>
       </c>
@@ -3354,103 +3354,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="19">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="X24" s="19">
-        <v>0</v>
+        <v>952035</v>
       </c>
       <c r="Y24" s="19">
-        <v>1001268</v>
+        <v>967791</v>
       </c>
       <c r="Z24" s="19">
-        <v>952035</v>
+        <v>942457</v>
       </c>
       <c r="AA24" s="19">
-        <v>967791</v>
+        <v>996467</v>
       </c>
       <c r="AB24" s="19">
-        <v>942457</v>
+        <v>948862</v>
       </c>
       <c r="AC24" s="19">
-        <v>996467</v>
+        <v>974913</v>
       </c>
       <c r="AD24" s="19">
-        <v>948862</v>
+        <v>937320</v>
       </c>
       <c r="AE24" s="19">
-        <v>974913</v>
+        <v>772091</v>
       </c>
       <c r="AF24" s="19">
-        <v>937320</v>
+        <v>472542</v>
       </c>
       <c r="AG24" s="19">
-        <v>772091</v>
+        <v>1117891</v>
       </c>
       <c r="AH24" s="19">
-        <v>472542</v>
+        <v>1024385</v>
       </c>
       <c r="AI24" s="19">
-        <v>1117891</v>
+        <v>1113829</v>
       </c>
       <c r="AJ24" s="19">
-        <v>1024385</v>
+        <v>1074882</v>
       </c>
       <c r="AK24" s="19">
-        <v>1113829</v>
+        <v>1065101</v>
       </c>
       <c r="AL24" s="19">
-        <v>1074882</v>
+        <v>1080066</v>
       </c>
       <c r="AM24" s="19">
-        <v>1065101</v>
+        <v>1049503</v>
       </c>
       <c r="AN24" s="19">
-        <v>1080066</v>
+        <v>1097230</v>
       </c>
       <c r="AO24" s="19">
-        <v>1049503</v>
+        <v>1107997</v>
       </c>
       <c r="AP24" s="19">
-        <v>1097230</v>
+        <v>1081125</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1107997</v>
+        <v>599337</v>
       </c>
       <c r="AR24" s="19">
-        <v>1081125</v>
+        <v>410440</v>
       </c>
       <c r="AS24" s="19">
-        <v>599337</v>
+        <v>1165545</v>
       </c>
       <c r="AT24" s="19">
-        <v>410440</v>
+        <v>1245186</v>
       </c>
       <c r="AU24" s="19">
-        <v>1165545</v>
+        <v>1089293</v>
       </c>
       <c r="AV24" s="19">
-        <v>1245186</v>
+        <v>1080503</v>
       </c>
       <c r="AW24" s="19">
-        <v>1089293</v>
+        <v>1089918</v>
       </c>
       <c r="AX24" s="19">
-        <v>1080503</v>
+        <v>1098980</v>
       </c>
       <c r="AY24" s="19">
-        <v>1089918</v>
+        <v>1079222</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1098980</v>
+        <v>1114645</v>
       </c>
       <c r="BA24" s="19">
-        <v>1079222</v>
+        <v>992732</v>
       </c>
       <c r="BB24" s="19">
-        <v>1114645</v>
+        <v>966101</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3505,7 +3505,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3560,7 +3560,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3615,7 +3615,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>69</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3827,7 +3827,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>70</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3946,39 +3946,39 @@
       <c r="V31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>58</v>
+      <c r="W31" s="11">
+        <v>157213</v>
+      </c>
+      <c r="X31" s="11">
+        <v>109825</v>
       </c>
       <c r="Y31" s="11">
-        <v>157213</v>
+        <v>70069</v>
       </c>
       <c r="Z31" s="11">
-        <v>109825</v>
+        <v>80329</v>
       </c>
       <c r="AA31" s="11">
-        <v>70069</v>
+        <v>107753</v>
       </c>
       <c r="AB31" s="11">
-        <v>80329</v>
+        <v>103412</v>
       </c>
       <c r="AC31" s="11">
-        <v>107753</v>
+        <v>54134</v>
       </c>
       <c r="AD31" s="11">
-        <v>103412</v>
+        <v>88101</v>
       </c>
       <c r="AE31" s="11">
-        <v>54134</v>
-      </c>
-      <c r="AF31" s="11">
-        <v>88101</v>
-      </c>
-      <c r="AG31" s="11">
         <v>152276</v>
       </c>
+      <c r="AF31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG31" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4009,41 +4009,41 @@
       <c r="AQ31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS31" s="11" t="s">
-        <v>58</v>
+      <c r="AR31" s="11">
+        <v>36914</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>222034</v>
       </c>
       <c r="AT31" s="11">
-        <v>36914</v>
+        <v>116900</v>
       </c>
       <c r="AU31" s="11">
-        <v>222034</v>
+        <v>125871</v>
       </c>
       <c r="AV31" s="11">
-        <v>116900</v>
+        <v>175141</v>
       </c>
       <c r="AW31" s="11">
-        <v>125871</v>
+        <v>115401</v>
       </c>
       <c r="AX31" s="11">
-        <v>175141</v>
+        <v>151098</v>
       </c>
       <c r="AY31" s="11">
-        <v>115401</v>
+        <v>140609</v>
       </c>
       <c r="AZ31" s="11">
-        <v>151098</v>
+        <v>101427</v>
       </c>
       <c r="BA31" s="11">
-        <v>140609</v>
+        <v>168320</v>
       </c>
       <c r="BB31" s="11">
-        <v>101427</v>
+        <v>123811</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4105,104 +4105,104 @@
       <c r="V32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>58</v>
+      <c r="W32" s="13">
+        <v>170409</v>
+      </c>
+      <c r="X32" s="13">
+        <v>230557</v>
       </c>
       <c r="Y32" s="13">
-        <v>170409</v>
+        <v>128844</v>
       </c>
       <c r="Z32" s="13">
-        <v>230557</v>
+        <v>145939</v>
       </c>
       <c r="AA32" s="13">
-        <v>128844</v>
+        <v>129142</v>
       </c>
       <c r="AB32" s="13">
-        <v>145939</v>
+        <v>123757</v>
       </c>
       <c r="AC32" s="13">
-        <v>129142</v>
+        <v>149886</v>
       </c>
       <c r="AD32" s="13">
-        <v>123757</v>
+        <v>135433</v>
       </c>
       <c r="AE32" s="13">
-        <v>149886</v>
+        <v>271362</v>
       </c>
       <c r="AF32" s="13">
-        <v>135433</v>
+        <v>21713</v>
       </c>
       <c r="AG32" s="13">
-        <v>271362</v>
+        <v>118560</v>
       </c>
       <c r="AH32" s="13">
-        <v>21713</v>
+        <v>157349</v>
       </c>
       <c r="AI32" s="13">
-        <v>118560</v>
+        <v>124028</v>
       </c>
       <c r="AJ32" s="13">
-        <v>157349</v>
+        <v>125520</v>
       </c>
       <c r="AK32" s="13">
-        <v>124028</v>
+        <v>176836</v>
       </c>
       <c r="AL32" s="13">
-        <v>125520</v>
+        <v>115191</v>
       </c>
       <c r="AM32" s="13">
-        <v>176836</v>
+        <v>147093</v>
       </c>
       <c r="AN32" s="13">
-        <v>115191</v>
+        <v>173023</v>
       </c>
       <c r="AO32" s="13">
-        <v>147093</v>
+        <v>208100</v>
       </c>
       <c r="AP32" s="13">
-        <v>173023</v>
+        <v>143577</v>
       </c>
       <c r="AQ32" s="13">
-        <v>208100</v>
+        <v>188874</v>
       </c>
       <c r="AR32" s="13">
-        <v>143577</v>
+        <v>25576</v>
       </c>
       <c r="AS32" s="13">
-        <v>188874</v>
+        <v>166074</v>
       </c>
       <c r="AT32" s="13">
-        <v>25576</v>
+        <v>122081</v>
       </c>
       <c r="AU32" s="13">
-        <v>166074</v>
+        <v>76234</v>
       </c>
       <c r="AV32" s="13">
-        <v>122081</v>
+        <v>106830</v>
       </c>
       <c r="AW32" s="13">
-        <v>76234</v>
+        <v>87196</v>
       </c>
       <c r="AX32" s="13">
-        <v>106830</v>
+        <v>78702</v>
       </c>
       <c r="AY32" s="13">
-        <v>87196</v>
+        <v>75805</v>
       </c>
       <c r="AZ32" s="13">
-        <v>78702</v>
+        <v>98126</v>
       </c>
       <c r="BA32" s="13">
-        <v>75805</v>
+        <v>179053</v>
       </c>
       <c r="BB32" s="13">
-        <v>98126</v>
+        <v>115358</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4264,104 +4264,104 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>199515</v>
+      </c>
+      <c r="X33" s="11">
+        <v>225060</v>
       </c>
       <c r="Y33" s="11">
-        <v>199515</v>
+        <v>157943</v>
       </c>
       <c r="Z33" s="11">
-        <v>225060</v>
+        <v>162744</v>
       </c>
       <c r="AA33" s="11">
-        <v>157943</v>
+        <v>186441</v>
       </c>
       <c r="AB33" s="11">
-        <v>162744</v>
+        <v>145570</v>
       </c>
       <c r="AC33" s="11">
-        <v>186441</v>
+        <v>125809</v>
       </c>
       <c r="AD33" s="11">
-        <v>145570</v>
+        <v>102883</v>
       </c>
       <c r="AE33" s="11">
-        <v>125809</v>
+        <v>165659</v>
       </c>
       <c r="AF33" s="11">
-        <v>102883</v>
+        <v>54355</v>
       </c>
       <c r="AG33" s="11">
-        <v>165659</v>
+        <v>142938</v>
       </c>
       <c r="AH33" s="11">
-        <v>54355</v>
+        <v>159160</v>
       </c>
       <c r="AI33" s="11">
-        <v>142938</v>
+        <v>99353</v>
       </c>
       <c r="AJ33" s="11">
-        <v>159160</v>
+        <v>109819</v>
       </c>
       <c r="AK33" s="11">
-        <v>99353</v>
+        <v>143423</v>
       </c>
       <c r="AL33" s="11">
-        <v>109819</v>
+        <v>62828</v>
       </c>
       <c r="AM33" s="11">
-        <v>143423</v>
+        <v>86890</v>
       </c>
       <c r="AN33" s="11">
-        <v>62828</v>
+        <v>89937</v>
       </c>
       <c r="AO33" s="11">
-        <v>86890</v>
+        <v>122708</v>
       </c>
       <c r="AP33" s="11">
-        <v>89937</v>
+        <v>93783</v>
       </c>
       <c r="AQ33" s="11">
-        <v>122708</v>
+        <v>135318</v>
       </c>
       <c r="AR33" s="11">
-        <v>93783</v>
+        <v>28510</v>
       </c>
       <c r="AS33" s="11">
-        <v>135318</v>
+        <v>138958</v>
       </c>
       <c r="AT33" s="11">
-        <v>28510</v>
+        <v>171951</v>
       </c>
       <c r="AU33" s="11">
-        <v>138958</v>
+        <v>183085</v>
       </c>
       <c r="AV33" s="11">
-        <v>171951</v>
+        <v>144382</v>
       </c>
       <c r="AW33" s="11">
-        <v>183085</v>
+        <v>155477</v>
       </c>
       <c r="AX33" s="11">
-        <v>144382</v>
+        <v>108063</v>
       </c>
       <c r="AY33" s="11">
-        <v>155477</v>
+        <v>170679</v>
       </c>
       <c r="AZ33" s="11">
-        <v>108063</v>
+        <v>148460</v>
       </c>
       <c r="BA33" s="11">
-        <v>170679</v>
+        <v>184995</v>
       </c>
       <c r="BB33" s="11">
-        <v>148460</v>
+        <v>246621</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>62</v>
       </c>
@@ -4450,48 +4450,48 @@
       <c r="AE34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>58</v>
+      <c r="AF34" s="13">
+        <v>78410</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>179697</v>
       </c>
       <c r="AH34" s="13">
-        <v>78410</v>
+        <v>196147</v>
       </c>
       <c r="AI34" s="13">
-        <v>179697</v>
+        <v>128734</v>
       </c>
       <c r="AJ34" s="13">
-        <v>196147</v>
+        <v>133728</v>
       </c>
       <c r="AK34" s="13">
-        <v>128734</v>
+        <v>216519</v>
       </c>
       <c r="AL34" s="13">
-        <v>133728</v>
+        <v>129333</v>
       </c>
       <c r="AM34" s="13">
-        <v>216519</v>
+        <v>139062</v>
       </c>
       <c r="AN34" s="13">
-        <v>129333</v>
+        <v>181203</v>
       </c>
       <c r="AO34" s="13">
-        <v>139062</v>
+        <v>229327</v>
       </c>
       <c r="AP34" s="13">
-        <v>181203</v>
+        <v>114416</v>
       </c>
       <c r="AQ34" s="13">
-        <v>229327</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>114416</v>
-      </c>
-      <c r="AS34" s="13">
         <v>161834</v>
       </c>
+      <c r="AR34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS34" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT34" s="13" t="s">
         <v>58</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>71</v>
       </c>
@@ -4581,103 +4581,103 @@
         <v>0</v>
       </c>
       <c r="W35" s="15">
-        <v>0</v>
+        <v>527137</v>
       </c>
       <c r="X35" s="15">
-        <v>0</v>
+        <v>565442</v>
       </c>
       <c r="Y35" s="15">
-        <v>527137</v>
+        <v>356856</v>
       </c>
       <c r="Z35" s="15">
-        <v>565442</v>
+        <v>389012</v>
       </c>
       <c r="AA35" s="15">
-        <v>356856</v>
+        <v>423336</v>
       </c>
       <c r="AB35" s="15">
-        <v>389012</v>
+        <v>372739</v>
       </c>
       <c r="AC35" s="15">
-        <v>423336</v>
+        <v>329829</v>
       </c>
       <c r="AD35" s="15">
-        <v>372739</v>
+        <v>326417</v>
       </c>
       <c r="AE35" s="15">
-        <v>329829</v>
+        <v>589297</v>
       </c>
       <c r="AF35" s="15">
-        <v>326417</v>
+        <v>154478</v>
       </c>
       <c r="AG35" s="15">
-        <v>589297</v>
+        <v>441195</v>
       </c>
       <c r="AH35" s="15">
-        <v>154478</v>
+        <v>512656</v>
       </c>
       <c r="AI35" s="15">
-        <v>441195</v>
+        <v>352115</v>
       </c>
       <c r="AJ35" s="15">
-        <v>512656</v>
+        <v>369067</v>
       </c>
       <c r="AK35" s="15">
-        <v>352115</v>
+        <v>536778</v>
       </c>
       <c r="AL35" s="15">
-        <v>369067</v>
+        <v>307352</v>
       </c>
       <c r="AM35" s="15">
-        <v>536778</v>
+        <v>373045</v>
       </c>
       <c r="AN35" s="15">
-        <v>307352</v>
+        <v>444163</v>
       </c>
       <c r="AO35" s="15">
-        <v>373045</v>
+        <v>560135</v>
       </c>
       <c r="AP35" s="15">
-        <v>444163</v>
+        <v>351776</v>
       </c>
       <c r="AQ35" s="15">
-        <v>560135</v>
+        <v>486026</v>
       </c>
       <c r="AR35" s="15">
-        <v>351776</v>
+        <v>91000</v>
       </c>
       <c r="AS35" s="15">
-        <v>486026</v>
+        <v>527066</v>
       </c>
       <c r="AT35" s="15">
-        <v>91000</v>
+        <v>410932</v>
       </c>
       <c r="AU35" s="15">
-        <v>527066</v>
+        <v>385190</v>
       </c>
       <c r="AV35" s="15">
-        <v>410932</v>
+        <v>426353</v>
       </c>
       <c r="AW35" s="15">
-        <v>385190</v>
+        <v>358074</v>
       </c>
       <c r="AX35" s="15">
-        <v>426353</v>
+        <v>337863</v>
       </c>
       <c r="AY35" s="15">
-        <v>358074</v>
+        <v>387093</v>
       </c>
       <c r="AZ35" s="15">
-        <v>337863</v>
+        <v>348013</v>
       </c>
       <c r="BA35" s="15">
-        <v>387093</v>
+        <v>532368</v>
       </c>
       <c r="BB35" s="15">
-        <v>348013</v>
+        <v>485790</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>72</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4796,39 +4796,39 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>40471</v>
+      </c>
+      <c r="X37" s="11">
+        <v>124436</v>
       </c>
       <c r="Y37" s="11">
-        <v>40471</v>
+        <v>69197</v>
       </c>
       <c r="Z37" s="11">
-        <v>124436</v>
+        <v>130619</v>
       </c>
       <c r="AA37" s="11">
-        <v>69197</v>
+        <v>38922</v>
       </c>
       <c r="AB37" s="11">
-        <v>130619</v>
+        <v>48400</v>
       </c>
       <c r="AC37" s="11">
-        <v>38922</v>
+        <v>152485</v>
       </c>
       <c r="AD37" s="11">
-        <v>48400</v>
+        <v>92234</v>
       </c>
       <c r="AE37" s="11">
-        <v>152485</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>92234</v>
-      </c>
-      <c r="AG37" s="11">
         <v>124843</v>
       </c>
+      <c r="AF37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH37" s="11" t="s">
         <v>58</v>
       </c>
@@ -4859,41 +4859,41 @@
       <c r="AQ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
+      <c r="AR37" s="11">
+        <v>35275</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>142817</v>
       </c>
       <c r="AT37" s="11">
-        <v>35275</v>
+        <v>177901</v>
       </c>
       <c r="AU37" s="11">
-        <v>142817</v>
+        <v>118060</v>
       </c>
       <c r="AV37" s="11">
-        <v>177901</v>
+        <v>120579</v>
       </c>
       <c r="AW37" s="11">
-        <v>118060</v>
+        <v>137694</v>
       </c>
       <c r="AX37" s="11">
-        <v>120579</v>
+        <v>101628</v>
       </c>
       <c r="AY37" s="11">
-        <v>137694</v>
+        <v>158886</v>
       </c>
       <c r="AZ37" s="11">
-        <v>101628</v>
+        <v>248978</v>
       </c>
       <c r="BA37" s="11">
-        <v>158886</v>
+        <v>128222</v>
       </c>
       <c r="BB37" s="11">
-        <v>248978</v>
+        <v>129359</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -4955,104 +4955,104 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13">
+        <v>383465</v>
+      </c>
+      <c r="X38" s="13">
+        <v>413359</v>
       </c>
       <c r="Y38" s="13">
-        <v>383465</v>
+        <v>425914</v>
       </c>
       <c r="Z38" s="13">
-        <v>413359</v>
+        <v>398169</v>
       </c>
       <c r="AA38" s="13">
-        <v>425914</v>
+        <v>431265</v>
       </c>
       <c r="AB38" s="13">
-        <v>398169</v>
+        <v>435143</v>
       </c>
       <c r="AC38" s="13">
-        <v>431265</v>
+        <v>422211</v>
       </c>
       <c r="AD38" s="13">
-        <v>435143</v>
+        <v>397161</v>
       </c>
       <c r="AE38" s="13">
-        <v>422211</v>
+        <v>368607</v>
       </c>
       <c r="AF38" s="13">
-        <v>397161</v>
+        <v>134825</v>
       </c>
       <c r="AG38" s="13">
-        <v>368607</v>
+        <v>419239</v>
       </c>
       <c r="AH38" s="13">
-        <v>134825</v>
+        <v>361838</v>
       </c>
       <c r="AI38" s="13">
-        <v>419239</v>
+        <v>424216</v>
       </c>
       <c r="AJ38" s="13">
-        <v>361838</v>
+        <v>332369</v>
       </c>
       <c r="AK38" s="13">
-        <v>424216</v>
+        <v>467662</v>
       </c>
       <c r="AL38" s="13">
-        <v>332369</v>
+        <v>366344</v>
       </c>
       <c r="AM38" s="13">
-        <v>467662</v>
+        <v>385263</v>
       </c>
       <c r="AN38" s="13">
-        <v>366344</v>
+        <v>408853</v>
       </c>
       <c r="AO38" s="13">
-        <v>385263</v>
+        <v>241790</v>
       </c>
       <c r="AP38" s="13">
-        <v>408853</v>
+        <v>405401</v>
       </c>
       <c r="AQ38" s="13">
-        <v>241790</v>
+        <v>370364</v>
       </c>
       <c r="AR38" s="13">
-        <v>405401</v>
+        <v>111198</v>
       </c>
       <c r="AS38" s="13">
-        <v>370364</v>
+        <v>459752</v>
       </c>
       <c r="AT38" s="13">
-        <v>111198</v>
+        <v>406699</v>
       </c>
       <c r="AU38" s="13">
-        <v>459752</v>
+        <v>380998</v>
       </c>
       <c r="AV38" s="13">
-        <v>406699</v>
+        <v>417198</v>
       </c>
       <c r="AW38" s="13">
-        <v>380998</v>
+        <v>440103</v>
       </c>
       <c r="AX38" s="13">
-        <v>417198</v>
+        <v>418791</v>
       </c>
       <c r="AY38" s="13">
-        <v>440103</v>
+        <v>401516</v>
       </c>
       <c r="AZ38" s="13">
-        <v>418791</v>
+        <v>480214</v>
       </c>
       <c r="BA38" s="13">
-        <v>401516</v>
+        <v>259967</v>
       </c>
       <c r="BB38" s="13">
-        <v>480214</v>
+        <v>327645</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5114,104 +5114,104 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>99597</v>
+      </c>
+      <c r="X39" s="11">
+        <v>126443</v>
       </c>
       <c r="Y39" s="11">
-        <v>99597</v>
+        <v>126925</v>
       </c>
       <c r="Z39" s="11">
-        <v>126443</v>
+        <v>61552</v>
       </c>
       <c r="AA39" s="11">
-        <v>126925</v>
+        <v>160199</v>
       </c>
       <c r="AB39" s="11">
-        <v>61552</v>
+        <v>58676</v>
       </c>
       <c r="AC39" s="11">
-        <v>160199</v>
+        <v>112590</v>
       </c>
       <c r="AD39" s="11">
-        <v>58676</v>
+        <v>77241</v>
       </c>
       <c r="AE39" s="11">
-        <v>112590</v>
+        <v>146549</v>
       </c>
       <c r="AF39" s="11">
-        <v>77241</v>
+        <v>26569</v>
       </c>
       <c r="AG39" s="11">
-        <v>146549</v>
+        <v>79411</v>
       </c>
       <c r="AH39" s="11">
-        <v>26569</v>
+        <v>140194</v>
       </c>
       <c r="AI39" s="11">
-        <v>79411</v>
+        <v>100281</v>
       </c>
       <c r="AJ39" s="11">
-        <v>140194</v>
+        <v>83401</v>
       </c>
       <c r="AK39" s="11">
-        <v>100281</v>
+        <v>45914</v>
       </c>
       <c r="AL39" s="11">
-        <v>83401</v>
+        <v>100331</v>
       </c>
       <c r="AM39" s="11">
-        <v>45914</v>
+        <v>96570</v>
       </c>
       <c r="AN39" s="11">
-        <v>100331</v>
+        <v>156769</v>
       </c>
       <c r="AO39" s="11">
-        <v>96570</v>
+        <v>52200</v>
       </c>
       <c r="AP39" s="11">
-        <v>156769</v>
+        <v>91395</v>
       </c>
       <c r="AQ39" s="11">
-        <v>52200</v>
+        <v>98929</v>
       </c>
       <c r="AR39" s="11">
-        <v>91395</v>
+        <v>20687</v>
       </c>
       <c r="AS39" s="11">
-        <v>98929</v>
+        <v>135735</v>
       </c>
       <c r="AT39" s="11">
-        <v>20687</v>
+        <v>104370</v>
       </c>
       <c r="AU39" s="11">
-        <v>135735</v>
+        <v>51975</v>
       </c>
       <c r="AV39" s="11">
-        <v>104370</v>
+        <v>93648</v>
       </c>
       <c r="AW39" s="11">
-        <v>51975</v>
+        <v>72147</v>
       </c>
       <c r="AX39" s="11">
-        <v>93648</v>
+        <v>68671</v>
       </c>
       <c r="AY39" s="11">
-        <v>72147</v>
+        <v>71042</v>
       </c>
       <c r="AZ39" s="11">
-        <v>68671</v>
+        <v>38825</v>
       </c>
       <c r="BA39" s="11">
-        <v>71042</v>
+        <v>34997</v>
       </c>
       <c r="BB39" s="11">
-        <v>38825</v>
+        <v>26899</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5300,48 +5300,48 @@
       <c r="AE40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG40" s="13" t="s">
-        <v>58</v>
+      <c r="AF40" s="13">
+        <v>24221</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>78885</v>
       </c>
       <c r="AH40" s="13">
-        <v>24221</v>
+        <v>108909</v>
       </c>
       <c r="AI40" s="13">
-        <v>78885</v>
+        <v>122534</v>
       </c>
       <c r="AJ40" s="13">
-        <v>108909</v>
+        <v>149006</v>
       </c>
       <c r="AK40" s="13">
-        <v>122534</v>
+        <v>89817</v>
       </c>
       <c r="AL40" s="13">
-        <v>149006</v>
+        <v>140404</v>
       </c>
       <c r="AM40" s="13">
-        <v>89817</v>
+        <v>77757</v>
       </c>
       <c r="AN40" s="13">
-        <v>140404</v>
+        <v>126406</v>
       </c>
       <c r="AO40" s="13">
-        <v>77757</v>
+        <v>83622</v>
       </c>
       <c r="AP40" s="13">
-        <v>126406</v>
+        <v>140009</v>
       </c>
       <c r="AQ40" s="13">
-        <v>83622</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>140009</v>
-      </c>
-      <c r="AS40" s="13">
         <v>109915</v>
       </c>
+      <c r="AR40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS40" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT40" s="13" t="s">
         <v>58</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>73</v>
       </c>
@@ -5431,103 +5431,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>523533</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>664238</v>
       </c>
       <c r="Y41" s="15">
-        <v>523533</v>
+        <v>622036</v>
       </c>
       <c r="Z41" s="15">
-        <v>664238</v>
+        <v>590340</v>
       </c>
       <c r="AA41" s="15">
-        <v>622036</v>
+        <v>630386</v>
       </c>
       <c r="AB41" s="15">
-        <v>590340</v>
+        <v>542219</v>
       </c>
       <c r="AC41" s="15">
-        <v>630386</v>
+        <v>687286</v>
       </c>
       <c r="AD41" s="15">
-        <v>542219</v>
+        <v>566636</v>
       </c>
       <c r="AE41" s="15">
-        <v>687286</v>
+        <v>639999</v>
       </c>
       <c r="AF41" s="15">
-        <v>566636</v>
+        <v>185615</v>
       </c>
       <c r="AG41" s="15">
-        <v>639999</v>
+        <v>577535</v>
       </c>
       <c r="AH41" s="15">
-        <v>185615</v>
+        <v>610941</v>
       </c>
       <c r="AI41" s="15">
-        <v>577535</v>
+        <v>647031</v>
       </c>
       <c r="AJ41" s="15">
-        <v>610941</v>
+        <v>564776</v>
       </c>
       <c r="AK41" s="15">
-        <v>647031</v>
+        <v>603393</v>
       </c>
       <c r="AL41" s="15">
-        <v>564776</v>
+        <v>607079</v>
       </c>
       <c r="AM41" s="15">
-        <v>603393</v>
+        <v>559590</v>
       </c>
       <c r="AN41" s="15">
-        <v>607079</v>
+        <v>692028</v>
       </c>
       <c r="AO41" s="15">
-        <v>559590</v>
+        <v>377612</v>
       </c>
       <c r="AP41" s="15">
-        <v>692028</v>
+        <v>636805</v>
       </c>
       <c r="AQ41" s="15">
-        <v>377612</v>
+        <v>579208</v>
       </c>
       <c r="AR41" s="15">
-        <v>636805</v>
+        <v>167160</v>
       </c>
       <c r="AS41" s="15">
-        <v>579208</v>
+        <v>738304</v>
       </c>
       <c r="AT41" s="15">
-        <v>167160</v>
+        <v>688970</v>
       </c>
       <c r="AU41" s="15">
-        <v>738304</v>
+        <v>551033</v>
       </c>
       <c r="AV41" s="15">
-        <v>688970</v>
+        <v>631425</v>
       </c>
       <c r="AW41" s="15">
-        <v>551033</v>
+        <v>649944</v>
       </c>
       <c r="AX41" s="15">
-        <v>631425</v>
+        <v>589090</v>
       </c>
       <c r="AY41" s="15">
-        <v>649944</v>
+        <v>631444</v>
       </c>
       <c r="AZ41" s="15">
-        <v>589090</v>
+        <v>768017</v>
       </c>
       <c r="BA41" s="15">
-        <v>631444</v>
+        <v>423186</v>
       </c>
       <c r="BB41" s="15">
-        <v>768017</v>
+        <v>483903</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>66</v>
       </c>
@@ -5584,7 +5584,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>67</v>
       </c>
@@ -5644,11 +5644,11 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>74</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>75</v>
       </c>
@@ -5858,11 +5858,11 @@
       <c r="V45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>58</v>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0</v>
       </c>
       <c r="Y45" s="15">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>68</v>
       </c>
@@ -6016,103 +6016,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="19">
-        <v>0</v>
+        <v>1050670</v>
       </c>
       <c r="X46" s="19">
-        <v>0</v>
+        <v>1229680</v>
       </c>
       <c r="Y46" s="19">
-        <v>1050670</v>
+        <v>978892</v>
       </c>
       <c r="Z46" s="19">
-        <v>1229680</v>
+        <v>979352</v>
       </c>
       <c r="AA46" s="19">
-        <v>978892</v>
+        <v>1053722</v>
       </c>
       <c r="AB46" s="19">
-        <v>979352</v>
+        <v>914958</v>
       </c>
       <c r="AC46" s="19">
-        <v>1053722</v>
+        <v>1017115</v>
       </c>
       <c r="AD46" s="19">
-        <v>914958</v>
+        <v>893053</v>
       </c>
       <c r="AE46" s="19">
-        <v>1017115</v>
+        <v>1229296</v>
       </c>
       <c r="AF46" s="19">
-        <v>893053</v>
+        <v>340093</v>
       </c>
       <c r="AG46" s="19">
-        <v>1229296</v>
+        <v>1018730</v>
       </c>
       <c r="AH46" s="19">
-        <v>340093</v>
+        <v>1123597</v>
       </c>
       <c r="AI46" s="19">
-        <v>1018730</v>
+        <v>999146</v>
       </c>
       <c r="AJ46" s="19">
-        <v>1123597</v>
+        <v>933843</v>
       </c>
       <c r="AK46" s="19">
-        <v>999146</v>
+        <v>1140171</v>
       </c>
       <c r="AL46" s="19">
-        <v>933843</v>
+        <v>914431</v>
       </c>
       <c r="AM46" s="19">
-        <v>1140171</v>
+        <v>932635</v>
       </c>
       <c r="AN46" s="19">
-        <v>914431</v>
+        <v>1136191</v>
       </c>
       <c r="AO46" s="19">
-        <v>932635</v>
+        <v>937747</v>
       </c>
       <c r="AP46" s="19">
-        <v>1136191</v>
+        <v>988581</v>
       </c>
       <c r="AQ46" s="19">
-        <v>937747</v>
+        <v>1065234</v>
       </c>
       <c r="AR46" s="19">
-        <v>988581</v>
+        <v>258160</v>
       </c>
       <c r="AS46" s="19">
-        <v>1065234</v>
+        <v>1265370</v>
       </c>
       <c r="AT46" s="19">
-        <v>258160</v>
+        <v>1099902</v>
       </c>
       <c r="AU46" s="19">
-        <v>1265370</v>
+        <v>936223</v>
       </c>
       <c r="AV46" s="19">
-        <v>1099902</v>
+        <v>1057778</v>
       </c>
       <c r="AW46" s="19">
-        <v>936223</v>
+        <v>1008018</v>
       </c>
       <c r="AX46" s="19">
-        <v>1057778</v>
+        <v>926953</v>
       </c>
       <c r="AY46" s="19">
-        <v>1008018</v>
+        <v>1018537</v>
       </c>
       <c r="AZ46" s="19">
-        <v>926953</v>
+        <v>1116030</v>
       </c>
       <c r="BA46" s="19">
-        <v>1018537</v>
+        <v>955554</v>
       </c>
       <c r="BB46" s="19">
-        <v>1116030</v>
+        <v>969693</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6167,7 +6167,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6222,7 +6222,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6277,7 +6277,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>76</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6489,7 +6489,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>77</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6608,39 +6608,39 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>91719</v>
+      </c>
+      <c r="X53" s="11">
+        <v>64644</v>
       </c>
       <c r="Y53" s="11">
-        <v>91719</v>
+        <v>38385</v>
       </c>
       <c r="Z53" s="11">
-        <v>64644</v>
+        <v>39593</v>
       </c>
       <c r="AA53" s="11">
-        <v>38385</v>
+        <v>72532</v>
       </c>
       <c r="AB53" s="11">
-        <v>39593</v>
+        <v>83617</v>
       </c>
       <c r="AC53" s="11">
-        <v>72532</v>
+        <v>35090</v>
       </c>
       <c r="AD53" s="11">
-        <v>83617</v>
+        <v>68882</v>
       </c>
       <c r="AE53" s="11">
-        <v>35090</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>68882</v>
-      </c>
-      <c r="AG53" s="11">
         <v>105852</v>
       </c>
+      <c r="AF53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH53" s="11" t="s">
         <v>58</v>
       </c>
@@ -6671,41 +6671,41 @@
       <c r="AQ53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS53" s="11" t="s">
-        <v>58</v>
+      <c r="AR53" s="11">
+        <v>46885</v>
+      </c>
+      <c r="AS53" s="11">
+        <v>311708</v>
       </c>
       <c r="AT53" s="11">
-        <v>46885</v>
+        <v>205509</v>
       </c>
       <c r="AU53" s="11">
-        <v>311708</v>
+        <v>241531</v>
       </c>
       <c r="AV53" s="11">
-        <v>205509</v>
+        <v>333143</v>
       </c>
       <c r="AW53" s="11">
-        <v>241531</v>
+        <v>217001</v>
       </c>
       <c r="AX53" s="11">
-        <v>333143</v>
+        <v>318088</v>
       </c>
       <c r="AY53" s="11">
-        <v>217001</v>
+        <v>288736</v>
       </c>
       <c r="AZ53" s="11">
-        <v>318089</v>
+        <v>186872</v>
       </c>
       <c r="BA53" s="11">
-        <v>288736</v>
+        <v>324764</v>
       </c>
       <c r="BB53" s="11">
-        <v>186872</v>
+        <v>237852</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6767,104 +6767,104 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>99165</v>
+      </c>
+      <c r="X54" s="13">
+        <v>138574</v>
       </c>
       <c r="Y54" s="13">
-        <v>99165</v>
+        <v>77678</v>
       </c>
       <c r="Z54" s="13">
-        <v>138574</v>
+        <v>93297</v>
       </c>
       <c r="AA54" s="13">
-        <v>77678</v>
+        <v>88796</v>
       </c>
       <c r="AB54" s="13">
-        <v>93297</v>
+        <v>85251</v>
       </c>
       <c r="AC54" s="13">
-        <v>88796</v>
+        <v>102061</v>
       </c>
       <c r="AD54" s="13">
-        <v>85251</v>
+        <v>99098</v>
       </c>
       <c r="AE54" s="13">
-        <v>102061</v>
+        <v>182395</v>
       </c>
       <c r="AF54" s="13">
-        <v>99098</v>
+        <v>16981</v>
       </c>
       <c r="AG54" s="13">
-        <v>182395</v>
+        <v>102944</v>
       </c>
       <c r="AH54" s="13">
-        <v>16981</v>
+        <v>120664</v>
       </c>
       <c r="AI54" s="13">
-        <v>102944</v>
+        <v>108731</v>
       </c>
       <c r="AJ54" s="13">
-        <v>120664</v>
+        <v>122151</v>
       </c>
       <c r="AK54" s="13">
-        <v>108731</v>
+        <v>169664</v>
       </c>
       <c r="AL54" s="13">
-        <v>122151</v>
+        <v>108633</v>
       </c>
       <c r="AM54" s="13">
-        <v>169664</v>
+        <v>143495</v>
       </c>
       <c r="AN54" s="13">
-        <v>108633</v>
+        <v>180232</v>
       </c>
       <c r="AO54" s="13">
-        <v>143495</v>
+        <v>213080</v>
       </c>
       <c r="AP54" s="13">
-        <v>180232</v>
+        <v>142168</v>
       </c>
       <c r="AQ54" s="13">
-        <v>213080</v>
+        <v>188996</v>
       </c>
       <c r="AR54" s="13">
-        <v>142168</v>
+        <v>28813</v>
       </c>
       <c r="AS54" s="13">
-        <v>188996</v>
+        <v>182024</v>
       </c>
       <c r="AT54" s="13">
-        <v>28813</v>
+        <v>142635</v>
       </c>
       <c r="AU54" s="13">
-        <v>182024</v>
+        <v>95455</v>
       </c>
       <c r="AV54" s="13">
-        <v>142635</v>
+        <v>128565</v>
       </c>
       <c r="AW54" s="13">
-        <v>95455</v>
+        <v>99688</v>
       </c>
       <c r="AX54" s="13">
-        <v>128565</v>
+        <v>93125</v>
       </c>
       <c r="AY54" s="13">
-        <v>99688</v>
+        <v>87827</v>
       </c>
       <c r="AZ54" s="13">
-        <v>93125</v>
+        <v>116095</v>
       </c>
       <c r="BA54" s="13">
-        <v>87827</v>
+        <v>227707</v>
       </c>
       <c r="BB54" s="13">
-        <v>116095</v>
+        <v>161985</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6926,104 +6926,104 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>19982</v>
+      </c>
+      <c r="X55" s="11">
+        <v>24741</v>
       </c>
       <c r="Y55" s="11">
-        <v>19982</v>
+        <v>23815</v>
       </c>
       <c r="Z55" s="11">
-        <v>24741</v>
+        <v>25235</v>
       </c>
       <c r="AA55" s="11">
-        <v>23815</v>
+        <v>30868</v>
       </c>
       <c r="AB55" s="11">
-        <v>25235</v>
+        <v>25977</v>
       </c>
       <c r="AC55" s="11">
-        <v>30868</v>
+        <v>21210</v>
       </c>
       <c r="AD55" s="11">
-        <v>25977</v>
+        <v>17439</v>
       </c>
       <c r="AE55" s="11">
-        <v>21210</v>
+        <v>27448</v>
       </c>
       <c r="AF55" s="11">
-        <v>17439</v>
+        <v>9756</v>
       </c>
       <c r="AG55" s="11">
-        <v>27448</v>
+        <v>26510</v>
       </c>
       <c r="AH55" s="11">
-        <v>9756</v>
+        <v>28638</v>
       </c>
       <c r="AI55" s="11">
-        <v>26510</v>
+        <v>20848</v>
       </c>
       <c r="AJ55" s="11">
-        <v>28638</v>
+        <v>22730</v>
       </c>
       <c r="AK55" s="11">
-        <v>20848</v>
+        <v>29287</v>
       </c>
       <c r="AL55" s="11">
-        <v>22730</v>
+        <v>13800</v>
       </c>
       <c r="AM55" s="11">
-        <v>29287</v>
+        <v>19450</v>
       </c>
       <c r="AN55" s="11">
-        <v>13800</v>
+        <v>20005</v>
       </c>
       <c r="AO55" s="11">
-        <v>19450</v>
+        <v>25965</v>
       </c>
       <c r="AP55" s="11">
-        <v>20005</v>
+        <v>22973</v>
       </c>
       <c r="AQ55" s="11">
-        <v>25965</v>
+        <v>28613</v>
       </c>
       <c r="AR55" s="11">
-        <v>22973</v>
+        <v>8133</v>
       </c>
       <c r="AS55" s="11">
-        <v>28613</v>
+        <v>33272</v>
       </c>
       <c r="AT55" s="11">
-        <v>8133</v>
+        <v>42481</v>
       </c>
       <c r="AU55" s="11">
-        <v>33272</v>
+        <v>44975</v>
       </c>
       <c r="AV55" s="11">
-        <v>42481</v>
+        <v>34481</v>
       </c>
       <c r="AW55" s="11">
-        <v>44975</v>
+        <v>37490</v>
       </c>
       <c r="AX55" s="11">
-        <v>34481</v>
+        <v>30798</v>
       </c>
       <c r="AY55" s="11">
-        <v>37490</v>
+        <v>47534</v>
       </c>
       <c r="AZ55" s="11">
-        <v>30797</v>
+        <v>42350</v>
       </c>
       <c r="BA55" s="11">
-        <v>47534</v>
+        <v>54596</v>
       </c>
       <c r="BB55" s="11">
-        <v>42350</v>
+        <v>74057</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>62</v>
       </c>
@@ -7112,48 +7112,48 @@
       <c r="AE56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG56" s="13" t="s">
-        <v>58</v>
+      <c r="AF56" s="13">
+        <v>85420</v>
+      </c>
+      <c r="AG56" s="13">
+        <v>164318</v>
       </c>
       <c r="AH56" s="13">
-        <v>85420</v>
+        <v>181602</v>
       </c>
       <c r="AI56" s="13">
-        <v>164318</v>
+        <v>133471</v>
       </c>
       <c r="AJ56" s="13">
-        <v>181602</v>
+        <v>155524</v>
       </c>
       <c r="AK56" s="13">
-        <v>133471</v>
+        <v>269597</v>
       </c>
       <c r="AL56" s="13">
-        <v>155524</v>
+        <v>143720</v>
       </c>
       <c r="AM56" s="13">
-        <v>269597</v>
+        <v>193974</v>
       </c>
       <c r="AN56" s="13">
-        <v>143720</v>
+        <v>240164</v>
       </c>
       <c r="AO56" s="13">
-        <v>193974</v>
+        <v>297223</v>
       </c>
       <c r="AP56" s="13">
-        <v>240164</v>
+        <v>171892</v>
       </c>
       <c r="AQ56" s="13">
-        <v>297223</v>
-      </c>
-      <c r="AR56" s="13">
-        <v>171892</v>
-      </c>
-      <c r="AS56" s="13">
         <v>242794</v>
       </c>
+      <c r="AR56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS56" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT56" s="13" t="s">
         <v>58</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>71</v>
       </c>
@@ -7243,103 +7243,103 @@
         <v>0</v>
       </c>
       <c r="W57" s="15">
-        <v>0</v>
+        <v>210866</v>
       </c>
       <c r="X57" s="15">
-        <v>0</v>
+        <v>227959</v>
       </c>
       <c r="Y57" s="15">
-        <v>210866</v>
+        <v>139878</v>
       </c>
       <c r="Z57" s="15">
-        <v>227959</v>
+        <v>158125</v>
       </c>
       <c r="AA57" s="15">
-        <v>139878</v>
+        <v>192196</v>
       </c>
       <c r="AB57" s="15">
-        <v>158125</v>
+        <v>194845</v>
       </c>
       <c r="AC57" s="15">
-        <v>192196</v>
+        <v>158361</v>
       </c>
       <c r="AD57" s="15">
-        <v>194845</v>
+        <v>185419</v>
       </c>
       <c r="AE57" s="15">
-        <v>158361</v>
+        <v>315695</v>
       </c>
       <c r="AF57" s="15">
-        <v>185419</v>
+        <v>112157</v>
       </c>
       <c r="AG57" s="15">
-        <v>315695</v>
+        <v>293772</v>
       </c>
       <c r="AH57" s="15">
-        <v>112157</v>
+        <v>330904</v>
       </c>
       <c r="AI57" s="15">
-        <v>293772</v>
+        <v>263050</v>
       </c>
       <c r="AJ57" s="15">
-        <v>330904</v>
+        <v>300405</v>
       </c>
       <c r="AK57" s="15">
-        <v>263050</v>
+        <v>468548</v>
       </c>
       <c r="AL57" s="15">
-        <v>300405</v>
+        <v>266153</v>
       </c>
       <c r="AM57" s="15">
-        <v>468548</v>
+        <v>356919</v>
       </c>
       <c r="AN57" s="15">
-        <v>266153</v>
+        <v>440401</v>
       </c>
       <c r="AO57" s="15">
-        <v>356919</v>
+        <v>536268</v>
       </c>
       <c r="AP57" s="15">
-        <v>440401</v>
+        <v>337033</v>
       </c>
       <c r="AQ57" s="15">
-        <v>536268</v>
+        <v>460403</v>
       </c>
       <c r="AR57" s="15">
-        <v>337033</v>
+        <v>83831</v>
       </c>
       <c r="AS57" s="15">
-        <v>460403</v>
+        <v>527004</v>
       </c>
       <c r="AT57" s="15">
-        <v>83831</v>
+        <v>390625</v>
       </c>
       <c r="AU57" s="15">
-        <v>527004</v>
+        <v>381961</v>
       </c>
       <c r="AV57" s="15">
-        <v>390625</v>
+        <v>496189</v>
       </c>
       <c r="AW57" s="15">
-        <v>381961</v>
+        <v>354179</v>
       </c>
       <c r="AX57" s="15">
-        <v>496189</v>
+        <v>442011</v>
       </c>
       <c r="AY57" s="15">
-        <v>354179</v>
+        <v>424097</v>
       </c>
       <c r="AZ57" s="15">
-        <v>442011</v>
+        <v>345317</v>
       </c>
       <c r="BA57" s="15">
-        <v>424097</v>
+        <v>607067</v>
       </c>
       <c r="BB57" s="15">
-        <v>345317</v>
+        <v>473894</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>79</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7458,39 +7458,39 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>19999</v>
+      </c>
+      <c r="X59" s="11">
+        <v>81194</v>
       </c>
       <c r="Y59" s="11">
-        <v>19999</v>
+        <v>46269</v>
       </c>
       <c r="Z59" s="11">
-        <v>81194</v>
+        <v>121884</v>
       </c>
       <c r="AA59" s="11">
-        <v>46269</v>
+        <v>29875</v>
       </c>
       <c r="AB59" s="11">
-        <v>121884</v>
+        <v>39777</v>
       </c>
       <c r="AC59" s="11">
-        <v>29875</v>
+        <v>132236</v>
       </c>
       <c r="AD59" s="11">
-        <v>39777</v>
+        <v>67300</v>
       </c>
       <c r="AE59" s="11">
-        <v>132236</v>
-      </c>
-      <c r="AF59" s="11">
-        <v>67300</v>
-      </c>
-      <c r="AG59" s="11">
         <v>92430</v>
       </c>
+      <c r="AF59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG59" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH59" s="11" t="s">
         <v>58</v>
       </c>
@@ -7521,41 +7521,41 @@
       <c r="AQ59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS59" s="11" t="s">
-        <v>58</v>
+      <c r="AR59" s="11">
+        <v>29004</v>
+      </c>
+      <c r="AS59" s="11">
+        <v>152016</v>
       </c>
       <c r="AT59" s="11">
-        <v>29004</v>
+        <v>222900</v>
       </c>
       <c r="AU59" s="11">
-        <v>152016</v>
+        <v>169118</v>
       </c>
       <c r="AV59" s="11">
-        <v>222900</v>
+        <v>164015</v>
       </c>
       <c r="AW59" s="11">
-        <v>169118</v>
+        <v>186467</v>
       </c>
       <c r="AX59" s="11">
-        <v>164015</v>
+        <v>157123</v>
       </c>
       <c r="AY59" s="11">
-        <v>186467</v>
+        <v>234660</v>
       </c>
       <c r="AZ59" s="11">
-        <v>157123</v>
+        <v>424749</v>
       </c>
       <c r="BA59" s="11">
-        <v>234660</v>
+        <v>218795</v>
       </c>
       <c r="BB59" s="11">
-        <v>424749</v>
+        <v>218901</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7617,104 +7617,104 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>223081</v>
+      </c>
+      <c r="X60" s="13">
+        <v>265666</v>
       </c>
       <c r="Y60" s="13">
-        <v>223081</v>
+        <v>313803</v>
       </c>
       <c r="Z60" s="13">
-        <v>265666</v>
+        <v>328067</v>
       </c>
       <c r="AA60" s="13">
-        <v>313803</v>
+        <v>354756</v>
       </c>
       <c r="AB60" s="13">
-        <v>328067</v>
+        <v>339312</v>
       </c>
       <c r="AC60" s="13">
-        <v>354756</v>
+        <v>329116</v>
       </c>
       <c r="AD60" s="13">
-        <v>339312</v>
+        <v>275356</v>
       </c>
       <c r="AE60" s="13">
-        <v>329116</v>
+        <v>279143</v>
       </c>
       <c r="AF60" s="13">
-        <v>275356</v>
+        <v>97640</v>
       </c>
       <c r="AG60" s="13">
-        <v>279143</v>
+        <v>276416</v>
       </c>
       <c r="AH60" s="13">
-        <v>97640</v>
+        <v>244439</v>
       </c>
       <c r="AI60" s="13">
-        <v>276416</v>
+        <v>306873</v>
       </c>
       <c r="AJ60" s="13">
-        <v>244439</v>
+        <v>262913</v>
       </c>
       <c r="AK60" s="13">
-        <v>306873</v>
+        <v>408445</v>
       </c>
       <c r="AL60" s="13">
-        <v>262913</v>
+        <v>323609</v>
       </c>
       <c r="AM60" s="13">
-        <v>408445</v>
+        <v>335119</v>
       </c>
       <c r="AN60" s="13">
-        <v>323609</v>
+        <v>363015</v>
       </c>
       <c r="AO60" s="13">
-        <v>335119</v>
+        <v>216631</v>
       </c>
       <c r="AP60" s="13">
-        <v>363015</v>
+        <v>329162</v>
       </c>
       <c r="AQ60" s="13">
-        <v>216631</v>
+        <v>303289</v>
       </c>
       <c r="AR60" s="13">
-        <v>329162</v>
+        <v>91544</v>
       </c>
       <c r="AS60" s="13">
-        <v>303289</v>
+        <v>389509</v>
       </c>
       <c r="AT60" s="13">
-        <v>91544</v>
+        <v>377878</v>
       </c>
       <c r="AU60" s="13">
-        <v>389509</v>
+        <v>370302</v>
       </c>
       <c r="AV60" s="13">
-        <v>377878</v>
+        <v>435562</v>
       </c>
       <c r="AW60" s="13">
-        <v>370302</v>
+        <v>419503</v>
       </c>
       <c r="AX60" s="13">
-        <v>435562</v>
+        <v>444036</v>
       </c>
       <c r="AY60" s="13">
-        <v>419503</v>
+        <v>456304</v>
       </c>
       <c r="AZ60" s="13">
-        <v>444035</v>
+        <v>592618</v>
       </c>
       <c r="BA60" s="13">
-        <v>456304</v>
+        <v>329863</v>
       </c>
       <c r="BB60" s="13">
-        <v>592618</v>
+        <v>470024</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7776,104 +7776,104 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>10318</v>
+      </c>
+      <c r="X61" s="11">
+        <v>12697</v>
       </c>
       <c r="Y61" s="11">
-        <v>10318</v>
+        <v>14512</v>
       </c>
       <c r="Z61" s="11">
-        <v>12697</v>
+        <v>8714</v>
       </c>
       <c r="AA61" s="11">
-        <v>14512</v>
+        <v>22536</v>
       </c>
       <c r="AB61" s="11">
-        <v>8714</v>
+        <v>7307</v>
       </c>
       <c r="AC61" s="11">
-        <v>22536</v>
+        <v>15872</v>
       </c>
       <c r="AD61" s="11">
-        <v>7307</v>
+        <v>10136</v>
       </c>
       <c r="AE61" s="11">
-        <v>15872</v>
+        <v>18930</v>
       </c>
       <c r="AF61" s="11">
-        <v>10136</v>
+        <v>2464</v>
       </c>
       <c r="AG61" s="11">
-        <v>18930</v>
+        <v>9121</v>
       </c>
       <c r="AH61" s="11">
-        <v>2464</v>
+        <v>16127</v>
       </c>
       <c r="AI61" s="11">
-        <v>9121</v>
+        <v>14060</v>
       </c>
       <c r="AJ61" s="11">
-        <v>16127</v>
+        <v>10982</v>
       </c>
       <c r="AK61" s="11">
-        <v>14060</v>
+        <v>7529</v>
       </c>
       <c r="AL61" s="11">
-        <v>10982</v>
+        <v>17266</v>
       </c>
       <c r="AM61" s="11">
-        <v>7529</v>
+        <v>15697</v>
       </c>
       <c r="AN61" s="11">
-        <v>17266</v>
+        <v>25719</v>
       </c>
       <c r="AO61" s="11">
-        <v>15697</v>
+        <v>9069</v>
       </c>
       <c r="AP61" s="11">
-        <v>25719</v>
+        <v>13384</v>
       </c>
       <c r="AQ61" s="11">
-        <v>9069</v>
+        <v>17230</v>
       </c>
       <c r="AR61" s="11">
-        <v>13384</v>
+        <v>2661</v>
       </c>
       <c r="AS61" s="11">
-        <v>17230</v>
+        <v>23910</v>
       </c>
       <c r="AT61" s="11">
-        <v>2661</v>
+        <v>17857</v>
       </c>
       <c r="AU61" s="11">
-        <v>23910</v>
+        <v>12214</v>
       </c>
       <c r="AV61" s="11">
-        <v>17857</v>
+        <v>21005</v>
       </c>
       <c r="AW61" s="11">
-        <v>12214</v>
+        <v>16007</v>
       </c>
       <c r="AX61" s="11">
-        <v>21005</v>
+        <v>16731</v>
       </c>
       <c r="AY61" s="11">
-        <v>16007</v>
+        <v>18434</v>
       </c>
       <c r="AZ61" s="11">
-        <v>16732</v>
+        <v>11141</v>
       </c>
       <c r="BA61" s="11">
-        <v>18434</v>
+        <v>10223</v>
       </c>
       <c r="BB61" s="11">
-        <v>11141</v>
+        <v>9290</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>62</v>
       </c>
@@ -7962,48 +7962,48 @@
       <c r="AE62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG62" s="13" t="s">
-        <v>58</v>
+      <c r="AF62" s="13">
+        <v>17227</v>
+      </c>
+      <c r="AG62" s="13">
+        <v>54115</v>
       </c>
       <c r="AH62" s="13">
-        <v>17227</v>
+        <v>77260</v>
       </c>
       <c r="AI62" s="13">
-        <v>54115</v>
+        <v>99278</v>
       </c>
       <c r="AJ62" s="13">
-        <v>77260</v>
+        <v>135620</v>
       </c>
       <c r="AK62" s="13">
-        <v>99278</v>
+        <v>88603</v>
       </c>
       <c r="AL62" s="13">
-        <v>135620</v>
+        <v>157623</v>
       </c>
       <c r="AM62" s="13">
-        <v>88603</v>
+        <v>84504</v>
       </c>
       <c r="AN62" s="13">
-        <v>157623</v>
+        <v>142667</v>
       </c>
       <c r="AO62" s="13">
-        <v>84504</v>
+        <v>91194</v>
       </c>
       <c r="AP62" s="13">
-        <v>142667</v>
+        <v>140962</v>
       </c>
       <c r="AQ62" s="13">
-        <v>91194</v>
-      </c>
-      <c r="AR62" s="13">
-        <v>140962</v>
-      </c>
-      <c r="AS62" s="13">
         <v>97155</v>
       </c>
+      <c r="AR62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS62" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT62" s="13" t="s">
         <v>58</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>73</v>
       </c>
@@ -8093,103 +8093,103 @@
         <v>0</v>
       </c>
       <c r="W63" s="15">
-        <v>0</v>
+        <v>253398</v>
       </c>
       <c r="X63" s="15">
-        <v>0</v>
+        <v>359557</v>
       </c>
       <c r="Y63" s="15">
-        <v>253398</v>
+        <v>374584</v>
       </c>
       <c r="Z63" s="15">
-        <v>359557</v>
+        <v>458665</v>
       </c>
       <c r="AA63" s="15">
-        <v>374584</v>
+        <v>407167</v>
       </c>
       <c r="AB63" s="15">
-        <v>458665</v>
+        <v>386396</v>
       </c>
       <c r="AC63" s="15">
-        <v>407167</v>
+        <v>477224</v>
       </c>
       <c r="AD63" s="15">
-        <v>386396</v>
+        <v>352792</v>
       </c>
       <c r="AE63" s="15">
-        <v>477224</v>
+        <v>390503</v>
       </c>
       <c r="AF63" s="15">
-        <v>352792</v>
+        <v>117331</v>
       </c>
       <c r="AG63" s="15">
-        <v>390503</v>
+        <v>339652</v>
       </c>
       <c r="AH63" s="15">
-        <v>117331</v>
+        <v>337826</v>
       </c>
       <c r="AI63" s="15">
-        <v>339652</v>
+        <v>420211</v>
       </c>
       <c r="AJ63" s="15">
-        <v>337826</v>
+        <v>409515</v>
       </c>
       <c r="AK63" s="15">
-        <v>420211</v>
+        <v>504577</v>
       </c>
       <c r="AL63" s="15">
-        <v>409515</v>
+        <v>498498</v>
       </c>
       <c r="AM63" s="15">
-        <v>504577</v>
+        <v>435320</v>
       </c>
       <c r="AN63" s="15">
-        <v>498498</v>
+        <v>531401</v>
       </c>
       <c r="AO63" s="15">
-        <v>435320</v>
+        <v>316894</v>
       </c>
       <c r="AP63" s="15">
-        <v>531401</v>
+        <v>483508</v>
       </c>
       <c r="AQ63" s="15">
-        <v>316894</v>
+        <v>417674</v>
       </c>
       <c r="AR63" s="15">
-        <v>483508</v>
+        <v>123209</v>
       </c>
       <c r="AS63" s="15">
-        <v>417674</v>
+        <v>565435</v>
       </c>
       <c r="AT63" s="15">
-        <v>123209</v>
+        <v>618635</v>
       </c>
       <c r="AU63" s="15">
-        <v>565435</v>
+        <v>551634</v>
       </c>
       <c r="AV63" s="15">
-        <v>618635</v>
+        <v>620582</v>
       </c>
       <c r="AW63" s="15">
-        <v>551634</v>
+        <v>621977</v>
       </c>
       <c r="AX63" s="15">
-        <v>620582</v>
+        <v>617890</v>
       </c>
       <c r="AY63" s="15">
-        <v>621977</v>
+        <v>709398</v>
       </c>
       <c r="AZ63" s="15">
-        <v>617890</v>
+        <v>1028508</v>
       </c>
       <c r="BA63" s="15">
-        <v>709398</v>
+        <v>558881</v>
       </c>
       <c r="BB63" s="15">
-        <v>1028508</v>
+        <v>698215</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>80</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>67</v>
       </c>
@@ -8308,11 +8308,11 @@
       <c r="V65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>58</v>
+      <c r="W65" s="15">
+        <v>0</v>
+      </c>
+      <c r="X65" s="15">
+        <v>0</v>
       </c>
       <c r="Y65" s="15">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>81</v>
       </c>
@@ -8462,7 +8462,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>75</v>
       </c>
@@ -8524,11 +8524,11 @@
       <c r="V67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>58</v>
+      <c r="W67" s="15">
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
+        <v>0</v>
       </c>
       <c r="Y67" s="15">
         <v>0</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>82</v>
       </c>
@@ -8678,7 +8678,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>83</v>
       </c>
@@ -8740,104 +8740,104 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>-31997</v>
+      </c>
+      <c r="X69" s="11">
+        <v>-22090</v>
       </c>
       <c r="Y69" s="11">
-        <v>-31997</v>
+        <v>-43336</v>
       </c>
       <c r="Z69" s="11">
-        <v>-22090</v>
+        <v>-33072</v>
       </c>
       <c r="AA69" s="11">
-        <v>-43336</v>
+        <v>-28567</v>
       </c>
       <c r="AB69" s="11">
-        <v>-33072</v>
+        <v>-30966</v>
       </c>
       <c r="AC69" s="11">
-        <v>-28567</v>
+        <v>-17983</v>
       </c>
       <c r="AD69" s="11">
-        <v>-30966</v>
+        <v>-19430</v>
       </c>
       <c r="AE69" s="11">
-        <v>-17983</v>
+        <v>-48332</v>
       </c>
       <c r="AF69" s="11">
-        <v>-19430</v>
+        <v>-31972</v>
       </c>
       <c r="AG69" s="11">
-        <v>-48332</v>
+        <v>-27449</v>
       </c>
       <c r="AH69" s="11">
-        <v>-31972</v>
+        <v>-39135</v>
       </c>
       <c r="AI69" s="11">
-        <v>-27449</v>
+        <v>-39898</v>
       </c>
       <c r="AJ69" s="11">
-        <v>-39135</v>
+        <v>-25582</v>
       </c>
       <c r="AK69" s="11">
-        <v>-39898</v>
+        <v>-52700</v>
       </c>
       <c r="AL69" s="11">
-        <v>-25582</v>
+        <v>-53894</v>
       </c>
       <c r="AM69" s="11">
-        <v>-52700</v>
+        <v>-90981</v>
       </c>
       <c r="AN69" s="11">
-        <v>-53894</v>
+        <v>-134175</v>
       </c>
       <c r="AO69" s="11">
-        <v>-90981</v>
+        <v>-110041</v>
       </c>
       <c r="AP69" s="11">
-        <v>-134175</v>
+        <v>-42426</v>
       </c>
       <c r="AQ69" s="11">
-        <v>-110041</v>
+        <v>-61328</v>
       </c>
       <c r="AR69" s="11">
-        <v>-42426</v>
+        <v>-8244</v>
       </c>
       <c r="AS69" s="11">
-        <v>-61328</v>
+        <v>-59767</v>
       </c>
       <c r="AT69" s="11">
-        <v>-8244</v>
+        <v>-65838</v>
       </c>
       <c r="AU69" s="11">
-        <v>-59767</v>
+        <v>-56427</v>
       </c>
       <c r="AV69" s="11">
-        <v>-65838</v>
+        <v>-68288</v>
       </c>
       <c r="AW69" s="11">
-        <v>-56427</v>
+        <v>-34959</v>
       </c>
       <c r="AX69" s="11">
-        <v>-68288</v>
+        <v>-49476</v>
       </c>
       <c r="AY69" s="11">
-        <v>-34959</v>
+        <v>-40530</v>
       </c>
       <c r="AZ69" s="11">
-        <v>-49476</v>
+        <v>-25280</v>
       </c>
       <c r="BA69" s="11">
-        <v>-40530</v>
+        <v>-80344</v>
       </c>
       <c r="BB69" s="11">
-        <v>-25280</v>
+        <v>-70191</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>68</v>
       </c>
@@ -8898,103 +8898,103 @@
         <v>0</v>
       </c>
       <c r="W70" s="19">
-        <v>0</v>
+        <v>432267</v>
       </c>
       <c r="X70" s="19">
-        <v>0</v>
+        <v>565426</v>
       </c>
       <c r="Y70" s="19">
-        <v>432267</v>
+        <v>471126</v>
       </c>
       <c r="Z70" s="19">
-        <v>565426</v>
+        <v>583718</v>
       </c>
       <c r="AA70" s="19">
-        <v>471126</v>
+        <v>570796</v>
       </c>
       <c r="AB70" s="19">
-        <v>583718</v>
+        <v>550275</v>
       </c>
       <c r="AC70" s="19">
-        <v>570796</v>
+        <v>617602</v>
       </c>
       <c r="AD70" s="19">
-        <v>550275</v>
+        <v>518781</v>
       </c>
       <c r="AE70" s="19">
-        <v>617602</v>
+        <v>657866</v>
       </c>
       <c r="AF70" s="19">
-        <v>518781</v>
+        <v>197516</v>
       </c>
       <c r="AG70" s="19">
-        <v>657866</v>
+        <v>605975</v>
       </c>
       <c r="AH70" s="19">
-        <v>197516</v>
+        <v>629595</v>
       </c>
       <c r="AI70" s="19">
-        <v>605975</v>
+        <v>643363</v>
       </c>
       <c r="AJ70" s="19">
-        <v>629595</v>
+        <v>684338</v>
       </c>
       <c r="AK70" s="19">
-        <v>643363</v>
+        <v>920425</v>
       </c>
       <c r="AL70" s="19">
-        <v>684338</v>
+        <v>710757</v>
       </c>
       <c r="AM70" s="19">
-        <v>920425</v>
+        <v>701258</v>
       </c>
       <c r="AN70" s="19">
-        <v>710757</v>
+        <v>837627</v>
       </c>
       <c r="AO70" s="19">
-        <v>701258</v>
+        <v>743121</v>
       </c>
       <c r="AP70" s="19">
-        <v>837627</v>
+        <v>778115</v>
       </c>
       <c r="AQ70" s="19">
-        <v>743121</v>
+        <v>816749</v>
       </c>
       <c r="AR70" s="19">
-        <v>778115</v>
+        <v>198796</v>
       </c>
       <c r="AS70" s="19">
-        <v>816749</v>
+        <v>1032672</v>
       </c>
       <c r="AT70" s="19">
-        <v>198796</v>
+        <v>943422</v>
       </c>
       <c r="AU70" s="19">
-        <v>1032672</v>
+        <v>877168</v>
       </c>
       <c r="AV70" s="19">
-        <v>943422</v>
+        <v>1048483</v>
       </c>
       <c r="AW70" s="19">
-        <v>877168</v>
+        <v>941197</v>
       </c>
       <c r="AX70" s="19">
-        <v>1048483</v>
+        <v>1010425</v>
       </c>
       <c r="AY70" s="19">
-        <v>941197</v>
+        <v>1092965</v>
       </c>
       <c r="AZ70" s="19">
-        <v>1010425</v>
+        <v>1348545</v>
       </c>
       <c r="BA70" s="19">
-        <v>1092965</v>
+        <v>1085604</v>
       </c>
       <c r="BB70" s="19">
-        <v>1348545</v>
+        <v>1101918</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9049,7 +9049,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9104,7 +9104,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9159,7 +9159,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>84</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9371,7 +9371,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>85</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9490,39 +9490,39 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>583406</v>
+      </c>
+      <c r="X77" s="11">
+        <v>588609</v>
       </c>
       <c r="Y77" s="11">
-        <v>583406</v>
+        <v>547817</v>
       </c>
       <c r="Z77" s="11">
-        <v>588609</v>
+        <v>492886</v>
       </c>
       <c r="AA77" s="11">
-        <v>547817</v>
+        <v>673132</v>
       </c>
       <c r="AB77" s="11">
-        <v>492886</v>
+        <v>808581</v>
       </c>
       <c r="AC77" s="11">
-        <v>673132</v>
+        <v>648206</v>
       </c>
       <c r="AD77" s="11">
-        <v>808581</v>
+        <v>781853</v>
       </c>
       <c r="AE77" s="11">
-        <v>648206</v>
-      </c>
-      <c r="AF77" s="11">
-        <v>781853</v>
-      </c>
-      <c r="AG77" s="11">
         <v>695133</v>
       </c>
+      <c r="AF77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH77" s="11" t="s">
         <v>58</v>
       </c>
@@ -9553,41 +9553,41 @@
       <c r="AQ77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS77" s="11" t="s">
-        <v>58</v>
+      <c r="AR77" s="11">
+        <v>1270114</v>
+      </c>
+      <c r="AS77" s="11">
+        <v>1403875</v>
       </c>
       <c r="AT77" s="11">
-        <v>1270114</v>
+        <v>1757990</v>
       </c>
       <c r="AU77" s="11">
-        <v>1403875</v>
+        <v>1918877</v>
       </c>
       <c r="AV77" s="11">
-        <v>1757990</v>
+        <v>1902142</v>
       </c>
       <c r="AW77" s="11">
-        <v>1918877</v>
+        <v>1880408</v>
       </c>
       <c r="AX77" s="11">
-        <v>1902142</v>
+        <v>2105177</v>
       </c>
       <c r="AY77" s="11">
-        <v>1880408</v>
+        <v>2053467</v>
       </c>
       <c r="AZ77" s="11">
-        <v>2105183</v>
+        <v>1842429</v>
       </c>
       <c r="BA77" s="11">
-        <v>2053467</v>
+        <v>1929444</v>
       </c>
       <c r="BB77" s="11">
-        <v>1842429</v>
+        <v>1921089</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9649,104 +9649,104 @@
       <c r="V78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="13" t="s">
-        <v>58</v>
+      <c r="W78" s="13">
+        <v>581923</v>
+      </c>
+      <c r="X78" s="13">
+        <v>601040</v>
       </c>
       <c r="Y78" s="13">
-        <v>581923</v>
+        <v>602884</v>
       </c>
       <c r="Z78" s="13">
-        <v>601040</v>
+        <v>639288</v>
       </c>
       <c r="AA78" s="13">
-        <v>602884</v>
+        <v>687584</v>
       </c>
       <c r="AB78" s="13">
-        <v>639288</v>
+        <v>688858</v>
       </c>
       <c r="AC78" s="13">
-        <v>687584</v>
+        <v>680924</v>
       </c>
       <c r="AD78" s="13">
-        <v>688858</v>
+        <v>731712</v>
       </c>
       <c r="AE78" s="13">
-        <v>680924</v>
+        <v>672146</v>
       </c>
       <c r="AF78" s="13">
-        <v>731712</v>
+        <v>782066</v>
       </c>
       <c r="AG78" s="13">
-        <v>672146</v>
+        <v>868286</v>
       </c>
       <c r="AH78" s="13">
-        <v>782066</v>
+        <v>766856</v>
       </c>
       <c r="AI78" s="13">
-        <v>868286</v>
+        <v>876665</v>
       </c>
       <c r="AJ78" s="13">
-        <v>766856</v>
+        <v>973160</v>
       </c>
       <c r="AK78" s="13">
-        <v>876665</v>
+        <v>959443</v>
       </c>
       <c r="AL78" s="13">
-        <v>973160</v>
+        <v>943068</v>
       </c>
       <c r="AM78" s="13">
-        <v>959443</v>
+        <v>975539</v>
       </c>
       <c r="AN78" s="13">
-        <v>943068</v>
+        <v>1041665</v>
       </c>
       <c r="AO78" s="13">
-        <v>975539</v>
+        <v>1023931</v>
       </c>
       <c r="AP78" s="13">
-        <v>1041665</v>
+        <v>990186</v>
       </c>
       <c r="AQ78" s="13">
-        <v>1023931</v>
+        <v>1000646</v>
       </c>
       <c r="AR78" s="13">
-        <v>990186</v>
+        <v>1126564</v>
       </c>
       <c r="AS78" s="13">
-        <v>1000646</v>
+        <v>1096042</v>
       </c>
       <c r="AT78" s="13">
-        <v>1126564</v>
+        <v>1168364</v>
       </c>
       <c r="AU78" s="13">
-        <v>1096042</v>
+        <v>1252132</v>
       </c>
       <c r="AV78" s="13">
-        <v>1168364</v>
+        <v>1203454</v>
       </c>
       <c r="AW78" s="13">
-        <v>1252132</v>
+        <v>1143263</v>
       </c>
       <c r="AX78" s="13">
-        <v>1203454</v>
+        <v>1183261</v>
       </c>
       <c r="AY78" s="13">
-        <v>1143263</v>
+        <v>1158591</v>
       </c>
       <c r="AZ78" s="13">
-        <v>1183261</v>
+        <v>1183122</v>
       </c>
       <c r="BA78" s="13">
-        <v>1158591</v>
+        <v>1271730</v>
       </c>
       <c r="BB78" s="13">
-        <v>1183122</v>
+        <v>1404194</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -9808,104 +9808,104 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>100153</v>
+      </c>
+      <c r="X79" s="11">
+        <v>109931</v>
       </c>
       <c r="Y79" s="11">
-        <v>100153</v>
+        <v>150782</v>
       </c>
       <c r="Z79" s="11">
-        <v>109931</v>
+        <v>155059</v>
       </c>
       <c r="AA79" s="11">
-        <v>150782</v>
+        <v>165564</v>
       </c>
       <c r="AB79" s="11">
-        <v>155059</v>
+        <v>178450</v>
       </c>
       <c r="AC79" s="11">
-        <v>165564</v>
+        <v>168589</v>
       </c>
       <c r="AD79" s="11">
-        <v>178450</v>
+        <v>169503</v>
       </c>
       <c r="AE79" s="11">
-        <v>168589</v>
+        <v>165690</v>
       </c>
       <c r="AF79" s="11">
-        <v>169503</v>
+        <v>179487</v>
       </c>
       <c r="AG79" s="11">
-        <v>165690</v>
+        <v>185465</v>
       </c>
       <c r="AH79" s="11">
-        <v>179487</v>
+        <v>179932</v>
       </c>
       <c r="AI79" s="11">
-        <v>185465</v>
+        <v>209838</v>
       </c>
       <c r="AJ79" s="11">
-        <v>179932</v>
+        <v>206977</v>
       </c>
       <c r="AK79" s="11">
-        <v>209838</v>
+        <v>204200</v>
       </c>
       <c r="AL79" s="11">
-        <v>206977</v>
+        <v>219647</v>
       </c>
       <c r="AM79" s="11">
-        <v>204200</v>
+        <v>223846</v>
       </c>
       <c r="AN79" s="11">
-        <v>219647</v>
+        <v>222433</v>
       </c>
       <c r="AO79" s="11">
-        <v>223846</v>
+        <v>211600</v>
       </c>
       <c r="AP79" s="11">
-        <v>222433</v>
+        <v>244959</v>
       </c>
       <c r="AQ79" s="11">
-        <v>211600</v>
+        <v>211450</v>
       </c>
       <c r="AR79" s="11">
-        <v>244959</v>
+        <v>285268</v>
       </c>
       <c r="AS79" s="11">
-        <v>211450</v>
+        <v>239439</v>
       </c>
       <c r="AT79" s="11">
-        <v>285268</v>
+        <v>247053</v>
       </c>
       <c r="AU79" s="11">
-        <v>239439</v>
+        <v>245651</v>
       </c>
       <c r="AV79" s="11">
-        <v>247053</v>
+        <v>238818</v>
       </c>
       <c r="AW79" s="11">
-        <v>245651</v>
+        <v>241129</v>
       </c>
       <c r="AX79" s="11">
-        <v>238818</v>
+        <v>285000</v>
       </c>
       <c r="AY79" s="11">
-        <v>241129</v>
+        <v>278499</v>
       </c>
       <c r="AZ79" s="11">
-        <v>284991</v>
+        <v>285262</v>
       </c>
       <c r="BA79" s="11">
-        <v>278499</v>
+        <v>295121</v>
       </c>
       <c r="BB79" s="11">
-        <v>285262</v>
+        <v>300287</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>62</v>
       </c>
@@ -9994,48 +9994,48 @@
       <c r="AE80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG80" s="13" t="s">
-        <v>58</v>
+      <c r="AF80" s="13">
+        <v>1089402</v>
+      </c>
+      <c r="AG80" s="13">
+        <v>914417</v>
       </c>
       <c r="AH80" s="13">
-        <v>1089402</v>
+        <v>925846</v>
       </c>
       <c r="AI80" s="13">
-        <v>914417</v>
+        <v>1036797</v>
       </c>
       <c r="AJ80" s="13">
-        <v>925846</v>
+        <v>1162988</v>
       </c>
       <c r="AK80" s="13">
-        <v>1036797</v>
+        <v>1245142</v>
       </c>
       <c r="AL80" s="13">
-        <v>1162988</v>
+        <v>1111240</v>
       </c>
       <c r="AM80" s="13">
-        <v>1245142</v>
+        <v>1394874</v>
       </c>
       <c r="AN80" s="13">
-        <v>1111240</v>
+        <v>1325386</v>
       </c>
       <c r="AO80" s="13">
-        <v>1394874</v>
+        <v>1296066</v>
       </c>
       <c r="AP80" s="13">
-        <v>1325386</v>
+        <v>1502342</v>
       </c>
       <c r="AQ80" s="13">
-        <v>1296066</v>
-      </c>
-      <c r="AR80" s="13">
-        <v>1502342</v>
-      </c>
-      <c r="AS80" s="13">
         <v>1500266</v>
       </c>
+      <c r="AR80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT80" s="13" t="s">
         <v>58</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>88</v>
       </c>
@@ -10121,7 +10121,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10183,39 +10183,39 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>494156</v>
+      </c>
+      <c r="X82" s="11">
+        <v>652496</v>
       </c>
       <c r="Y82" s="11">
-        <v>494156</v>
+        <v>668656</v>
       </c>
       <c r="Z82" s="11">
-        <v>652496</v>
+        <v>933126</v>
       </c>
       <c r="AA82" s="11">
-        <v>668656</v>
+        <v>767561</v>
       </c>
       <c r="AB82" s="11">
-        <v>933126</v>
+        <v>821839</v>
       </c>
       <c r="AC82" s="11">
-        <v>767561</v>
+        <v>867207</v>
       </c>
       <c r="AD82" s="11">
-        <v>821839</v>
+        <v>729666</v>
       </c>
       <c r="AE82" s="11">
-        <v>867207</v>
-      </c>
-      <c r="AF82" s="11">
-        <v>729666</v>
-      </c>
-      <c r="AG82" s="11">
         <v>740370</v>
       </c>
+      <c r="AF82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH82" s="11" t="s">
         <v>58</v>
       </c>
@@ -10246,41 +10246,41 @@
       <c r="AQ82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS82" s="11" t="s">
-        <v>58</v>
+      <c r="AR82" s="11">
+        <v>822225</v>
+      </c>
+      <c r="AS82" s="11">
+        <v>1064411</v>
       </c>
       <c r="AT82" s="11">
-        <v>822225</v>
+        <v>1252944</v>
       </c>
       <c r="AU82" s="11">
-        <v>1064411</v>
+        <v>1432475</v>
       </c>
       <c r="AV82" s="11">
-        <v>1252944</v>
+        <v>1360229</v>
       </c>
       <c r="AW82" s="11">
-        <v>1432475</v>
+        <v>1354213</v>
       </c>
       <c r="AX82" s="11">
-        <v>1360229</v>
+        <v>1546060</v>
       </c>
       <c r="AY82" s="11">
-        <v>1354213</v>
+        <v>1476908</v>
       </c>
       <c r="AZ82" s="11">
-        <v>1546060</v>
+        <v>1705970</v>
       </c>
       <c r="BA82" s="11">
-        <v>1476908</v>
+        <v>1706376</v>
       </c>
       <c r="BB82" s="11">
-        <v>1705970</v>
+        <v>1692198</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -10342,104 +10342,104 @@
       <c r="V83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="13" t="s">
-        <v>58</v>
+      <c r="W83" s="13">
+        <v>581751</v>
+      </c>
+      <c r="X83" s="13">
+        <v>642700</v>
       </c>
       <c r="Y83" s="13">
-        <v>581751</v>
+        <v>736776</v>
       </c>
       <c r="Z83" s="13">
-        <v>642700</v>
+        <v>823939</v>
       </c>
       <c r="AA83" s="13">
-        <v>736776</v>
+        <v>822594</v>
       </c>
       <c r="AB83" s="13">
-        <v>823939</v>
+        <v>779771</v>
       </c>
       <c r="AC83" s="13">
-        <v>822594</v>
+        <v>779506</v>
       </c>
       <c r="AD83" s="13">
-        <v>779771</v>
+        <v>693311</v>
       </c>
       <c r="AE83" s="13">
-        <v>779506</v>
+        <v>757292</v>
       </c>
       <c r="AF83" s="13">
-        <v>693311</v>
+        <v>724198</v>
       </c>
       <c r="AG83" s="13">
-        <v>757292</v>
+        <v>659328</v>
       </c>
       <c r="AH83" s="13">
-        <v>724198</v>
+        <v>675548</v>
       </c>
       <c r="AI83" s="13">
-        <v>659328</v>
+        <v>723389</v>
       </c>
       <c r="AJ83" s="13">
-        <v>675548</v>
+        <v>791027</v>
       </c>
       <c r="AK83" s="13">
-        <v>723389</v>
+        <v>873377</v>
       </c>
       <c r="AL83" s="13">
-        <v>791027</v>
+        <v>883347</v>
       </c>
       <c r="AM83" s="13">
-        <v>873377</v>
+        <v>869845</v>
       </c>
       <c r="AN83" s="13">
-        <v>883347</v>
+        <v>887886</v>
       </c>
       <c r="AO83" s="13">
-        <v>869845</v>
+        <v>895947</v>
       </c>
       <c r="AP83" s="13">
-        <v>887886</v>
+        <v>811942</v>
       </c>
       <c r="AQ83" s="13">
-        <v>895947</v>
+        <v>818894</v>
       </c>
       <c r="AR83" s="13">
-        <v>811942</v>
+        <v>823252</v>
       </c>
       <c r="AS83" s="13">
-        <v>818894</v>
+        <v>847215</v>
       </c>
       <c r="AT83" s="13">
-        <v>823252</v>
+        <v>929134</v>
       </c>
       <c r="AU83" s="13">
-        <v>847215</v>
+        <v>971926</v>
       </c>
       <c r="AV83" s="13">
-        <v>929134</v>
+        <v>1044017</v>
       </c>
       <c r="AW83" s="13">
-        <v>971926</v>
+        <v>953193</v>
       </c>
       <c r="AX83" s="13">
-        <v>1044017</v>
+        <v>1060281</v>
       </c>
       <c r="AY83" s="13">
-        <v>953193</v>
+        <v>1136453</v>
       </c>
       <c r="AZ83" s="13">
-        <v>1060278</v>
+        <v>1234071</v>
       </c>
       <c r="BA83" s="13">
-        <v>1136453</v>
+        <v>1268865</v>
       </c>
       <c r="BB83" s="13">
-        <v>1234071</v>
+        <v>1434553</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>60</v>
       </c>
@@ -10501,104 +10501,104 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>103598</v>
+      </c>
+      <c r="X84" s="11">
+        <v>100417</v>
       </c>
       <c r="Y84" s="11">
-        <v>103598</v>
+        <v>114335</v>
       </c>
       <c r="Z84" s="11">
-        <v>100417</v>
+        <v>141571</v>
       </c>
       <c r="AA84" s="11">
-        <v>114335</v>
+        <v>140675</v>
       </c>
       <c r="AB84" s="11">
-        <v>141571</v>
+        <v>124531</v>
       </c>
       <c r="AC84" s="11">
-        <v>140675</v>
+        <v>140972</v>
       </c>
       <c r="AD84" s="11">
-        <v>124531</v>
+        <v>131226</v>
       </c>
       <c r="AE84" s="11">
-        <v>140972</v>
+        <v>129172</v>
       </c>
       <c r="AF84" s="11">
-        <v>131226</v>
+        <v>92740</v>
       </c>
       <c r="AG84" s="11">
-        <v>129172</v>
+        <v>114858</v>
       </c>
       <c r="AH84" s="11">
-        <v>92740</v>
+        <v>115033</v>
       </c>
       <c r="AI84" s="11">
-        <v>114858</v>
+        <v>140206</v>
       </c>
       <c r="AJ84" s="11">
-        <v>115033</v>
+        <v>131677</v>
       </c>
       <c r="AK84" s="11">
-        <v>140206</v>
+        <v>163980</v>
       </c>
       <c r="AL84" s="11">
-        <v>131677</v>
+        <v>172090</v>
       </c>
       <c r="AM84" s="11">
-        <v>163980</v>
+        <v>162545</v>
       </c>
       <c r="AN84" s="11">
-        <v>172090</v>
+        <v>164057</v>
       </c>
       <c r="AO84" s="11">
-        <v>162545</v>
+        <v>173736</v>
       </c>
       <c r="AP84" s="11">
-        <v>164057</v>
+        <v>146441</v>
       </c>
       <c r="AQ84" s="11">
-        <v>173736</v>
+        <v>174165</v>
       </c>
       <c r="AR84" s="11">
-        <v>146441</v>
+        <v>128632</v>
       </c>
       <c r="AS84" s="11">
-        <v>174165</v>
+        <v>176152</v>
       </c>
       <c r="AT84" s="11">
-        <v>128632</v>
+        <v>171093</v>
       </c>
       <c r="AU84" s="11">
-        <v>176152</v>
+        <v>234998</v>
       </c>
       <c r="AV84" s="11">
-        <v>171093</v>
+        <v>224297</v>
       </c>
       <c r="AW84" s="11">
-        <v>234998</v>
+        <v>221866</v>
       </c>
       <c r="AX84" s="11">
-        <v>224297</v>
+        <v>243640</v>
       </c>
       <c r="AY84" s="11">
-        <v>221866</v>
+        <v>259480</v>
       </c>
       <c r="AZ84" s="11">
-        <v>243655</v>
+        <v>286954</v>
       </c>
       <c r="BA84" s="11">
-        <v>259480</v>
+        <v>292111</v>
       </c>
       <c r="BB84" s="11">
-        <v>286954</v>
+        <v>345366</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>62</v>
       </c>
@@ -10687,47 +10687,47 @@
       <c r="AE85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG85" s="13" t="s">
-        <v>58</v>
+      <c r="AF85" s="13">
+        <v>711242</v>
+      </c>
+      <c r="AG85" s="13">
+        <v>685999</v>
       </c>
       <c r="AH85" s="13">
-        <v>711242</v>
+        <v>709400</v>
       </c>
       <c r="AI85" s="13">
-        <v>685999</v>
+        <v>810208</v>
       </c>
       <c r="AJ85" s="13">
-        <v>709400</v>
+        <v>910165</v>
       </c>
       <c r="AK85" s="13">
-        <v>810208</v>
+        <v>986484</v>
       </c>
       <c r="AL85" s="13">
-        <v>910165</v>
+        <v>1122639</v>
       </c>
       <c r="AM85" s="13">
-        <v>986484</v>
+        <v>1086770</v>
       </c>
       <c r="AN85" s="13">
-        <v>1122639</v>
+        <v>1128641</v>
       </c>
       <c r="AO85" s="13">
-        <v>1086770</v>
+        <v>1090550</v>
       </c>
       <c r="AP85" s="13">
-        <v>1128641</v>
+        <v>1006807</v>
       </c>
       <c r="AQ85" s="13">
-        <v>1090550</v>
-      </c>
-      <c r="AR85" s="13">
-        <v>1006807</v>
-      </c>
-      <c r="AS85" s="13">
         <v>883910</v>
+      </c>
+      <c r="AR85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT85" s="13" t="s">
         <v>58</v>

--- a/database/industries/kashi/kesave/product/monthly_seprated.xlsx
+++ b/database/industries/kashi/kesave/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3444,11 +3444,11 @@
       <c r="AZ11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BA11" s="12" t="s">
-        <v>57</v>
+      <c r="BA11" s="12" t="n">
+        <v>3570800</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>3570800</v>
+        <v>3717000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3507,36 +3507,36 @@
       <c r="T12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="15" t="s">
-        <v>57</v>
+      <c r="U12" s="15" t="n">
+        <v>193695</v>
       </c>
       <c r="V12" s="15" t="n">
-        <v>193695</v>
+        <v>163665</v>
       </c>
       <c r="W12" s="15" t="n">
-        <v>163665</v>
+        <v>159934</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>159934</v>
+        <v>170994</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>170994</v>
+        <v>143473</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>143473</v>
+        <v>172630</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>172630</v>
+        <v>195869</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>195869</v>
+        <v>187957</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>187957</v>
-      </c>
-      <c r="AD12" s="15" t="n">
         <v>187995</v>
       </c>
+      <c r="AD12" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AE12" s="15" t="s">
         <v>57</v>
       </c>
@@ -3570,44 +3570,44 @@
       <c r="AO12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP12" s="15" t="s">
-        <v>57</v>
+      <c r="AP12" s="15" t="n">
+        <v>121757</v>
       </c>
       <c r="AQ12" s="15" t="n">
-        <v>121757</v>
+        <v>297564</v>
       </c>
       <c r="AR12" s="15" t="n">
-        <v>297564</v>
+        <v>328902</v>
       </c>
       <c r="AS12" s="15" t="n">
-        <v>328902</v>
+        <v>277167</v>
       </c>
       <c r="AT12" s="15" t="n">
-        <v>277167</v>
+        <v>311452</v>
       </c>
       <c r="AU12" s="15" t="n">
-        <v>311452</v>
+        <v>311640</v>
       </c>
       <c r="AV12" s="15" t="n">
-        <v>311640</v>
+        <v>296173</v>
       </c>
       <c r="AW12" s="15" t="n">
-        <v>296173</v>
+        <v>300514</v>
       </c>
       <c r="AX12" s="15" t="n">
-        <v>300514</v>
+        <v>311385</v>
       </c>
       <c r="AY12" s="15" t="n">
-        <v>311385</v>
+        <v>251981</v>
       </c>
       <c r="AZ12" s="15" t="n">
-        <v>251981</v>
+        <v>255525</v>
       </c>
       <c r="BA12" s="15" t="n">
-        <v>255525</v>
+        <v>247794</v>
       </c>
       <c r="BB12" s="15" t="n">
-        <v>247794</v>
+        <v>139068</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,107 +3666,107 @@
       <c r="T13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>57</v>
+      <c r="U13" s="12" t="n">
+        <v>513396</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>513396</v>
+        <v>522670</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>522670</v>
+        <v>535562</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>535562</v>
+        <v>500111</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>500111</v>
+        <v>583413</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>583413</v>
+        <v>516362</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>516362</v>
+        <v>548987</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>548987</v>
+        <v>557937</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>557937</v>
+        <v>349897</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>349897</v>
+        <v>209907</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>209907</v>
+        <v>543375</v>
       </c>
       <c r="AF13" s="12" t="n">
-        <v>543375</v>
+        <v>531214</v>
       </c>
       <c r="AG13" s="12" t="n">
-        <v>531214</v>
+        <v>568851</v>
       </c>
       <c r="AH13" s="12" t="n">
-        <v>568851</v>
+        <v>498587</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>498587</v>
+        <v>572639</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>572639</v>
+        <v>545660</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>545660</v>
+        <v>581841</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>581841</v>
+        <v>579751</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>579751</v>
+        <v>579161</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>579161</v>
+        <v>542538</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>542538</v>
+        <v>302450</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>302450</v>
+        <v>224233</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>224233</v>
+        <v>586684</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>586684</v>
+        <v>613013</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>613013</v>
+        <v>526570</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>526570</v>
+        <v>509602</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>509602</v>
+        <v>538209</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>538209</v>
+        <v>540053</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>540053</v>
+        <v>501747</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>501747</v>
+        <v>547981</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>547981</v>
+        <v>477535</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>477535</v>
+        <v>461306</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>461306</v>
+        <v>311801</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>311801</v>
+        <v>221233</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,107 +3825,107 @@
       <c r="T14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>57</v>
+      <c r="U14" s="15" t="n">
+        <v>294177</v>
       </c>
       <c r="V14" s="15" t="n">
-        <v>294177</v>
+        <v>265700</v>
       </c>
       <c r="W14" s="15" t="n">
-        <v>265700</v>
+        <v>272295</v>
       </c>
       <c r="X14" s="15" t="n">
-        <v>272295</v>
+        <v>271352</v>
       </c>
       <c r="Y14" s="15" t="n">
-        <v>271352</v>
+        <v>269581</v>
       </c>
       <c r="Z14" s="15" t="n">
-        <v>269581</v>
+        <v>259870</v>
       </c>
       <c r="AA14" s="15" t="n">
-        <v>259870</v>
+        <v>230057</v>
       </c>
       <c r="AB14" s="15" t="n">
-        <v>230057</v>
+        <v>191426</v>
       </c>
       <c r="AC14" s="15" t="n">
-        <v>191426</v>
+        <v>234199</v>
       </c>
       <c r="AD14" s="15" t="n">
-        <v>234199</v>
+        <v>95189</v>
       </c>
       <c r="AE14" s="15" t="n">
-        <v>95189</v>
+        <v>268860</v>
       </c>
       <c r="AF14" s="15" t="n">
-        <v>268860</v>
+        <v>236453</v>
       </c>
       <c r="AG14" s="15" t="n">
-        <v>236453</v>
+        <v>248916</v>
       </c>
       <c r="AH14" s="15" t="n">
-        <v>248916</v>
+        <v>275516</v>
       </c>
       <c r="AI14" s="15" t="n">
-        <v>275516</v>
+        <v>212457</v>
       </c>
       <c r="AJ14" s="15" t="n">
-        <v>212457</v>
+        <v>221344</v>
       </c>
       <c r="AK14" s="15" t="n">
-        <v>221344</v>
+        <v>235251</v>
       </c>
       <c r="AL14" s="15" t="n">
-        <v>235251</v>
+        <v>231663</v>
       </c>
       <c r="AM14" s="15" t="n">
-        <v>231663</v>
+        <v>238828</v>
       </c>
       <c r="AN14" s="15" t="n">
-        <v>238828</v>
+        <v>250309</v>
       </c>
       <c r="AO14" s="15" t="n">
-        <v>250309</v>
+        <v>109645</v>
       </c>
       <c r="AP14" s="15" t="n">
-        <v>109645</v>
+        <v>64450</v>
       </c>
       <c r="AQ14" s="15" t="n">
-        <v>64450</v>
+        <v>281297</v>
       </c>
       <c r="AR14" s="15" t="n">
-        <v>281297</v>
+        <v>303271</v>
       </c>
       <c r="AS14" s="15" t="n">
-        <v>303271</v>
+        <v>285556</v>
       </c>
       <c r="AT14" s="15" t="n">
-        <v>285556</v>
+        <v>259449</v>
       </c>
       <c r="AU14" s="15" t="n">
-        <v>259449</v>
+        <v>240069</v>
       </c>
       <c r="AV14" s="15" t="n">
-        <v>240069</v>
+        <v>262754</v>
       </c>
       <c r="AW14" s="15" t="n">
-        <v>262754</v>
+        <v>276961</v>
       </c>
       <c r="AX14" s="15" t="n">
-        <v>276961</v>
+        <v>255279</v>
       </c>
       <c r="AY14" s="15" t="n">
-        <v>255279</v>
+        <v>263216</v>
       </c>
       <c r="AZ14" s="15" t="n">
-        <v>263216</v>
+        <v>249270</v>
       </c>
       <c r="BA14" s="15" t="n">
-        <v>249270</v>
+        <v>148551</v>
       </c>
       <c r="BB14" s="15" t="n">
-        <v>148551</v>
+        <v>65916</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,44 +4011,44 @@
       <c r="AC15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="12" t="s">
-        <v>57</v>
+      <c r="AD15" s="12" t="n">
+        <v>167446</v>
       </c>
       <c r="AE15" s="12" t="n">
-        <v>167446</v>
+        <v>305656</v>
       </c>
       <c r="AF15" s="12" t="n">
-        <v>305656</v>
+        <v>256718</v>
       </c>
       <c r="AG15" s="12" t="n">
-        <v>256718</v>
+        <v>296062</v>
       </c>
       <c r="AH15" s="12" t="n">
-        <v>296062</v>
+        <v>300779</v>
       </c>
       <c r="AI15" s="12" t="n">
-        <v>300779</v>
+        <v>280005</v>
       </c>
       <c r="AJ15" s="12" t="n">
-        <v>280005</v>
+        <v>313062</v>
       </c>
       <c r="AK15" s="12" t="n">
-        <v>313062</v>
+        <v>232411</v>
       </c>
       <c r="AL15" s="12" t="n">
-        <v>232411</v>
+        <v>285816</v>
       </c>
       <c r="AM15" s="12" t="n">
-        <v>285816</v>
+        <v>290008</v>
       </c>
       <c r="AN15" s="12" t="n">
-        <v>290008</v>
+        <v>288278</v>
       </c>
       <c r="AO15" s="12" t="n">
-        <v>288278</v>
-      </c>
-      <c r="AP15" s="12" t="n">
         <v>187242</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>57</v>
@@ -4142,106 +4142,106 @@
         <v>0</v>
       </c>
       <c r="U16" s="18" t="n">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="V16" s="18" t="n">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="W16" s="18" t="n">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="X16" s="18" t="n">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="Y16" s="18" t="n">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="Z16" s="18" t="n">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AA16" s="18" t="n">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AC16" s="18" t="n">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AD16" s="18" t="n">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AE16" s="18" t="n">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AF16" s="18" t="n">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AG16" s="18" t="n">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AH16" s="18" t="n">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AJ16" s="18" t="n">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AK16" s="18" t="n">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AL16" s="18" t="n">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AM16" s="18" t="n">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AN16" s="18" t="n">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AO16" s="18" t="n">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AP16" s="18" t="n">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AQ16" s="18" t="n">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AR16" s="18" t="n">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AS16" s="18" t="n">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AT16" s="18" t="n">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="AV16" s="18" t="n">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="AW16" s="18" t="n">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
       <c r="AX16" s="18" t="n">
-        <v>1079222</v>
+        <v>1114645</v>
       </c>
       <c r="AY16" s="18" t="n">
-        <v>1114645</v>
+        <v>992732</v>
       </c>
       <c r="AZ16" s="18" t="n">
-        <v>992732</v>
+        <v>966101</v>
       </c>
       <c r="BA16" s="18" t="n">
-        <v>966101</v>
+        <v>4278946</v>
       </c>
       <c r="BB16" s="18" t="n">
-        <v>4278946</v>
+        <v>4143217</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,8 +4451,8 @@
       <c r="AZ18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BA18" s="12" t="s">
-        <v>57</v>
+      <c r="BA18" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="BB18" s="12" t="n">
         <v>0</v>
@@ -4514,8 +4514,8 @@
       <c r="T19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="15" t="s">
-        <v>57</v>
+      <c r="U19" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="15" t="n">
         <v>0</v>
@@ -4541,8 +4541,8 @@
       <c r="AC19" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="15" t="n">
-        <v>0</v>
+      <c r="AD19" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AE19" s="15" t="s">
         <v>57</v>
@@ -4577,8 +4577,8 @@
       <c r="AO19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP19" s="15" t="s">
-        <v>57</v>
+      <c r="AP19" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AQ19" s="15" t="n">
         <v>0</v>
@@ -4673,8 +4673,8 @@
       <c r="T20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U20" s="12" t="s">
-        <v>57</v>
+      <c r="U20" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="12" t="n">
         <v>0</v>
@@ -4703,8 +4703,8 @@
       <c r="AD20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="12" t="n">
-        <v>0</v>
+      <c r="AE20" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF20" s="12" t="s">
         <v>57</v>
@@ -4733,8 +4733,8 @@
       <c r="AN20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AO20" s="12" t="s">
-        <v>57</v>
+      <c r="AO20" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="AP20" s="12" t="n">
         <v>0</v>
@@ -4832,8 +4832,8 @@
       <c r="T21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U21" s="15" t="s">
-        <v>57</v>
+      <c r="U21" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="V21" s="15" t="n">
         <v>0</v>
@@ -4862,8 +4862,8 @@
       <c r="AD21" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="15" t="n">
-        <v>0</v>
+      <c r="AE21" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="AF21" s="15" t="s">
         <v>57</v>
@@ -4892,8 +4892,8 @@
       <c r="AN21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AO21" s="15" t="s">
-        <v>57</v>
+      <c r="AO21" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="AP21" s="15" t="n">
         <v>0</v>
@@ -5018,11 +5018,11 @@
       <c r="AC22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE22" s="12" t="n">
-        <v>0</v>
+      <c r="AD22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AF22" s="12" t="s">
         <v>57</v>
@@ -5051,11 +5051,11 @@
       <c r="AN22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AO22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP22" s="12" t="n">
-        <v>0</v>
+      <c r="AO22" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ22" s="12" t="s">
         <v>57</v>
@@ -5362,8 +5362,8 @@
       <c r="T25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="22" t="s">
-        <v>57</v>
+      <c r="U25" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V25" s="22" t="n">
         <v>0</v>
@@ -5520,106 +5520,106 @@
         <v>0</v>
       </c>
       <c r="U26" s="18" t="n">
-        <v>0</v>
+        <v>1001268</v>
       </c>
       <c r="V26" s="18" t="n">
-        <v>1001268</v>
+        <v>952035</v>
       </c>
       <c r="W26" s="18" t="n">
-        <v>952035</v>
+        <v>967791</v>
       </c>
       <c r="X26" s="18" t="n">
-        <v>967791</v>
+        <v>942457</v>
       </c>
       <c r="Y26" s="18" t="n">
-        <v>942457</v>
+        <v>996467</v>
       </c>
       <c r="Z26" s="18" t="n">
-        <v>996467</v>
+        <v>948862</v>
       </c>
       <c r="AA26" s="18" t="n">
-        <v>948862</v>
+        <v>974913</v>
       </c>
       <c r="AB26" s="18" t="n">
-        <v>974913</v>
+        <v>937320</v>
       </c>
       <c r="AC26" s="18" t="n">
-        <v>937320</v>
+        <v>772091</v>
       </c>
       <c r="AD26" s="18" t="n">
-        <v>772091</v>
+        <v>472542</v>
       </c>
       <c r="AE26" s="18" t="n">
-        <v>472542</v>
+        <v>1117891</v>
       </c>
       <c r="AF26" s="18" t="n">
-        <v>1117891</v>
+        <v>1024385</v>
       </c>
       <c r="AG26" s="18" t="n">
-        <v>1024385</v>
+        <v>1113829</v>
       </c>
       <c r="AH26" s="18" t="n">
-        <v>1113829</v>
+        <v>1074882</v>
       </c>
       <c r="AI26" s="18" t="n">
-        <v>1074882</v>
+        <v>1065101</v>
       </c>
       <c r="AJ26" s="18" t="n">
-        <v>1065101</v>
+        <v>1080066</v>
       </c>
       <c r="AK26" s="18" t="n">
-        <v>1080066</v>
+        <v>1049503</v>
       </c>
       <c r="AL26" s="18" t="n">
-        <v>1049503</v>
+        <v>1097230</v>
       </c>
       <c r="AM26" s="18" t="n">
-        <v>1097230</v>
+        <v>1107997</v>
       </c>
       <c r="AN26" s="18" t="n">
-        <v>1107997</v>
+        <v>1081125</v>
       </c>
       <c r="AO26" s="18" t="n">
-        <v>1081125</v>
+        <v>599337</v>
       </c>
       <c r="AP26" s="18" t="n">
-        <v>599337</v>
+        <v>410440</v>
       </c>
       <c r="AQ26" s="18" t="n">
-        <v>410440</v>
+        <v>1165545</v>
       </c>
       <c r="AR26" s="18" t="n">
-        <v>1165545</v>
+        <v>1245186</v>
       </c>
       <c r="AS26" s="18" t="n">
-        <v>1245186</v>
+        <v>1089293</v>
       </c>
       <c r="AT26" s="18" t="n">
-        <v>1089293</v>
+        <v>1080503</v>
       </c>
       <c r="AU26" s="18" t="n">
-        <v>1080503</v>
+        <v>1089918</v>
       </c>
       <c r="AV26" s="18" t="n">
-        <v>1089918</v>
+        <v>1098980</v>
       </c>
       <c r="AW26" s="18" t="n">
-        <v>1098980</v>
+        <v>1079222</v>
       </c>
       <c r="AX26" s="18" t="n">
-        <v>1079222</v>
+        <v>1114645</v>
       </c>
       <c r="AY26" s="18" t="n">
-        <v>1114645</v>
+        <v>992732</v>
       </c>
       <c r="AZ26" s="18" t="n">
-        <v>992732</v>
+        <v>966101</v>
       </c>
       <c r="BA26" s="18" t="n">
-        <v>966101</v>
+        <v>4278946</v>
       </c>
       <c r="BB26" s="18" t="n">
-        <v>4278946</v>
+        <v>4143217</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,11 +6206,11 @@
       <c r="AZ33" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BA33" s="12" t="s">
-        <v>57</v>
+      <c r="BA33" s="12" t="n">
+        <v>3361660</v>
       </c>
       <c r="BB33" s="12" t="n">
-        <v>3361660</v>
+        <v>3310490</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,36 +6269,36 @@
       <c r="T34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U34" s="15" t="s">
-        <v>57</v>
+      <c r="U34" s="15" t="n">
+        <v>157213</v>
       </c>
       <c r="V34" s="15" t="n">
-        <v>157213</v>
+        <v>109825</v>
       </c>
       <c r="W34" s="15" t="n">
-        <v>109825</v>
+        <v>70069</v>
       </c>
       <c r="X34" s="15" t="n">
-        <v>70069</v>
+        <v>80329</v>
       </c>
       <c r="Y34" s="15" t="n">
-        <v>80329</v>
+        <v>107753</v>
       </c>
       <c r="Z34" s="15" t="n">
-        <v>107753</v>
+        <v>103412</v>
       </c>
       <c r="AA34" s="15" t="n">
-        <v>103412</v>
+        <v>54134</v>
       </c>
       <c r="AB34" s="15" t="n">
-        <v>54134</v>
+        <v>88101</v>
       </c>
       <c r="AC34" s="15" t="n">
-        <v>88101</v>
-      </c>
-      <c r="AD34" s="15" t="n">
         <v>152276</v>
       </c>
+      <c r="AD34" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AE34" s="15" t="s">
         <v>57</v>
       </c>
@@ -6332,44 +6332,44 @@
       <c r="AO34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP34" s="15" t="s">
-        <v>57</v>
+      <c r="AP34" s="15" t="n">
+        <v>36914</v>
       </c>
       <c r="AQ34" s="15" t="n">
-        <v>36914</v>
+        <v>222034</v>
       </c>
       <c r="AR34" s="15" t="n">
-        <v>222034</v>
+        <v>116900</v>
       </c>
       <c r="AS34" s="15" t="n">
-        <v>116900</v>
+        <v>125871</v>
       </c>
       <c r="AT34" s="15" t="n">
-        <v>125871</v>
+        <v>175141</v>
       </c>
       <c r="AU34" s="15" t="n">
-        <v>175141</v>
+        <v>115401</v>
       </c>
       <c r="AV34" s="15" t="n">
-        <v>115401</v>
+        <v>151098</v>
       </c>
       <c r="AW34" s="15" t="n">
-        <v>151098</v>
+        <v>140609</v>
       </c>
       <c r="AX34" s="15" t="n">
-        <v>140609</v>
+        <v>101427</v>
       </c>
       <c r="AY34" s="15" t="n">
-        <v>101427</v>
+        <v>168320</v>
       </c>
       <c r="AZ34" s="15" t="n">
-        <v>168320</v>
+        <v>123811</v>
       </c>
       <c r="BA34" s="15" t="n">
-        <v>123811</v>
+        <v>201837</v>
       </c>
       <c r="BB34" s="15" t="n">
-        <v>201837</v>
+        <v>38642</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6428,107 +6428,107 @@
       <c r="T35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U35" s="12" t="s">
-        <v>57</v>
+      <c r="U35" s="12" t="n">
+        <v>170409</v>
       </c>
       <c r="V35" s="12" t="n">
-        <v>170409</v>
+        <v>230557</v>
       </c>
       <c r="W35" s="12" t="n">
-        <v>230557</v>
+        <v>128844</v>
       </c>
       <c r="X35" s="12" t="n">
-        <v>128844</v>
+        <v>145939</v>
       </c>
       <c r="Y35" s="12" t="n">
-        <v>145939</v>
+        <v>129142</v>
       </c>
       <c r="Z35" s="12" t="n">
-        <v>129142</v>
+        <v>123757</v>
       </c>
       <c r="AA35" s="12" t="n">
-        <v>123757</v>
+        <v>149886</v>
       </c>
       <c r="AB35" s="12" t="n">
-        <v>149886</v>
+        <v>135433</v>
       </c>
       <c r="AC35" s="12" t="n">
-        <v>135433</v>
+        <v>271362</v>
       </c>
       <c r="AD35" s="12" t="n">
-        <v>271362</v>
+        <v>21713</v>
       </c>
       <c r="AE35" s="12" t="n">
-        <v>21713</v>
+        <v>118560</v>
       </c>
       <c r="AF35" s="12" t="n">
-        <v>118560</v>
+        <v>157349</v>
       </c>
       <c r="AG35" s="12" t="n">
-        <v>157349</v>
+        <v>124028</v>
       </c>
       <c r="AH35" s="12" t="n">
-        <v>124028</v>
+        <v>125520</v>
       </c>
       <c r="AI35" s="12" t="n">
-        <v>125520</v>
+        <v>176836</v>
       </c>
       <c r="AJ35" s="12" t="n">
-        <v>176836</v>
+        <v>115191</v>
       </c>
       <c r="AK35" s="12" t="n">
-        <v>115191</v>
+        <v>147093</v>
       </c>
       <c r="AL35" s="12" t="n">
-        <v>147093</v>
+        <v>173023</v>
       </c>
       <c r="AM35" s="12" t="n">
-        <v>173023</v>
+        <v>208100</v>
       </c>
       <c r="AN35" s="12" t="n">
-        <v>208100</v>
+        <v>143577</v>
       </c>
       <c r="AO35" s="12" t="n">
-        <v>143577</v>
+        <v>188874</v>
       </c>
       <c r="AP35" s="12" t="n">
-        <v>188874</v>
+        <v>25576</v>
       </c>
       <c r="AQ35" s="12" t="n">
-        <v>25576</v>
+        <v>166074</v>
       </c>
       <c r="AR35" s="12" t="n">
-        <v>166074</v>
+        <v>122081</v>
       </c>
       <c r="AS35" s="12" t="n">
-        <v>122081</v>
+        <v>76234</v>
       </c>
       <c r="AT35" s="12" t="n">
-        <v>76234</v>
+        <v>106830</v>
       </c>
       <c r="AU35" s="12" t="n">
-        <v>106830</v>
+        <v>87196</v>
       </c>
       <c r="AV35" s="12" t="n">
-        <v>87196</v>
+        <v>78702</v>
       </c>
       <c r="AW35" s="12" t="n">
-        <v>78702</v>
+        <v>75805</v>
       </c>
       <c r="AX35" s="12" t="n">
-        <v>75805</v>
+        <v>98126</v>
       </c>
       <c r="AY35" s="12" t="n">
-        <v>98126</v>
+        <v>179053</v>
       </c>
       <c r="AZ35" s="12" t="n">
-        <v>179053</v>
+        <v>115358</v>
       </c>
       <c r="BA35" s="12" t="n">
-        <v>115358</v>
+        <v>149558</v>
       </c>
       <c r="BB35" s="12" t="n">
-        <v>149558</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,107 +6587,107 @@
       <c r="T36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U36" s="15" t="s">
-        <v>57</v>
+      <c r="U36" s="15" t="n">
+        <v>199515</v>
       </c>
       <c r="V36" s="15" t="n">
-        <v>199515</v>
+        <v>225060</v>
       </c>
       <c r="W36" s="15" t="n">
-        <v>225060</v>
+        <v>157943</v>
       </c>
       <c r="X36" s="15" t="n">
-        <v>157943</v>
+        <v>162744</v>
       </c>
       <c r="Y36" s="15" t="n">
-        <v>162744</v>
+        <v>186441</v>
       </c>
       <c r="Z36" s="15" t="n">
-        <v>186441</v>
+        <v>145570</v>
       </c>
       <c r="AA36" s="15" t="n">
-        <v>145570</v>
+        <v>125809</v>
       </c>
       <c r="AB36" s="15" t="n">
-        <v>125809</v>
+        <v>102883</v>
       </c>
       <c r="AC36" s="15" t="n">
-        <v>102883</v>
+        <v>165659</v>
       </c>
       <c r="AD36" s="15" t="n">
-        <v>165659</v>
+        <v>54355</v>
       </c>
       <c r="AE36" s="15" t="n">
-        <v>54355</v>
+        <v>142938</v>
       </c>
       <c r="AF36" s="15" t="n">
-        <v>142938</v>
+        <v>159160</v>
       </c>
       <c r="AG36" s="15" t="n">
-        <v>159160</v>
+        <v>99353</v>
       </c>
       <c r="AH36" s="15" t="n">
-        <v>99353</v>
+        <v>109819</v>
       </c>
       <c r="AI36" s="15" t="n">
-        <v>109819</v>
+        <v>143423</v>
       </c>
       <c r="AJ36" s="15" t="n">
-        <v>143423</v>
+        <v>62828</v>
       </c>
       <c r="AK36" s="15" t="n">
-        <v>62828</v>
+        <v>86890</v>
       </c>
       <c r="AL36" s="15" t="n">
-        <v>86890</v>
+        <v>89937</v>
       </c>
       <c r="AM36" s="15" t="n">
-        <v>89937</v>
+        <v>122708</v>
       </c>
       <c r="AN36" s="15" t="n">
-        <v>122708</v>
+        <v>93783</v>
       </c>
       <c r="AO36" s="15" t="n">
-        <v>93783</v>
+        <v>135318</v>
       </c>
       <c r="AP36" s="15" t="n">
-        <v>135318</v>
+        <v>28510</v>
       </c>
       <c r="AQ36" s="15" t="n">
-        <v>28510</v>
+        <v>138958</v>
       </c>
       <c r="AR36" s="15" t="n">
-        <v>138958</v>
+        <v>171951</v>
       </c>
       <c r="AS36" s="15" t="n">
-        <v>171951</v>
+        <v>183085</v>
       </c>
       <c r="AT36" s="15" t="n">
-        <v>183085</v>
+        <v>144382</v>
       </c>
       <c r="AU36" s="15" t="n">
-        <v>144382</v>
+        <v>155477</v>
       </c>
       <c r="AV36" s="15" t="n">
-        <v>155477</v>
+        <v>108063</v>
       </c>
       <c r="AW36" s="15" t="n">
-        <v>108063</v>
+        <v>170679</v>
       </c>
       <c r="AX36" s="15" t="n">
-        <v>170679</v>
+        <v>148460</v>
       </c>
       <c r="AY36" s="15" t="n">
-        <v>148460</v>
+        <v>184995</v>
       </c>
       <c r="AZ36" s="15" t="n">
-        <v>184995</v>
+        <v>246621</v>
       </c>
       <c r="BA36" s="15" t="n">
-        <v>246621</v>
+        <v>323030</v>
       </c>
       <c r="BB36" s="15" t="n">
-        <v>323030</v>
+        <v>69397</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,44 +6773,44 @@
       <c r="AC37" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD37" s="12" t="s">
-        <v>57</v>
+      <c r="AD37" s="12" t="n">
+        <v>78410</v>
       </c>
       <c r="AE37" s="12" t="n">
-        <v>78410</v>
+        <v>179697</v>
       </c>
       <c r="AF37" s="12" t="n">
-        <v>179697</v>
+        <v>196147</v>
       </c>
       <c r="AG37" s="12" t="n">
-        <v>196147</v>
+        <v>128734</v>
       </c>
       <c r="AH37" s="12" t="n">
-        <v>128734</v>
+        <v>133728</v>
       </c>
       <c r="AI37" s="12" t="n">
-        <v>133728</v>
+        <v>216519</v>
       </c>
       <c r="AJ37" s="12" t="n">
-        <v>216519</v>
+        <v>129333</v>
       </c>
       <c r="AK37" s="12" t="n">
-        <v>129333</v>
+        <v>139062</v>
       </c>
       <c r="AL37" s="12" t="n">
-        <v>139062</v>
+        <v>181203</v>
       </c>
       <c r="AM37" s="12" t="n">
-        <v>181203</v>
+        <v>229327</v>
       </c>
       <c r="AN37" s="12" t="n">
-        <v>229327</v>
+        <v>114416</v>
       </c>
       <c r="AO37" s="12" t="n">
-        <v>114416</v>
-      </c>
-      <c r="AP37" s="12" t="n">
         <v>161834</v>
+      </c>
+      <c r="AP37" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ37" s="12" t="s">
         <v>57</v>
@@ -6904,106 +6904,106 @@
         <v>0</v>
       </c>
       <c r="U38" s="18" t="n">
-        <v>0</v>
+        <v>527137</v>
       </c>
       <c r="V38" s="18" t="n">
-        <v>527137</v>
+        <v>565442</v>
       </c>
       <c r="W38" s="18" t="n">
-        <v>565442</v>
+        <v>356856</v>
       </c>
       <c r="X38" s="18" t="n">
-        <v>356856</v>
+        <v>389012</v>
       </c>
       <c r="Y38" s="18" t="n">
-        <v>389012</v>
+        <v>423336</v>
       </c>
       <c r="Z38" s="18" t="n">
-        <v>423336</v>
+        <v>372739</v>
       </c>
       <c r="AA38" s="18" t="n">
-        <v>372739</v>
+        <v>329829</v>
       </c>
       <c r="AB38" s="18" t="n">
-        <v>329829</v>
+        <v>326417</v>
       </c>
       <c r="AC38" s="18" t="n">
-        <v>326417</v>
+        <v>589297</v>
       </c>
       <c r="AD38" s="18" t="n">
-        <v>589297</v>
+        <v>154478</v>
       </c>
       <c r="AE38" s="18" t="n">
-        <v>154478</v>
+        <v>441195</v>
       </c>
       <c r="AF38" s="18" t="n">
-        <v>441195</v>
+        <v>512656</v>
       </c>
       <c r="AG38" s="18" t="n">
-        <v>512656</v>
+        <v>352115</v>
       </c>
       <c r="AH38" s="18" t="n">
-        <v>352115</v>
+        <v>369067</v>
       </c>
       <c r="AI38" s="18" t="n">
-        <v>369067</v>
+        <v>536778</v>
       </c>
       <c r="AJ38" s="18" t="n">
-        <v>536778</v>
+        <v>307352</v>
       </c>
       <c r="AK38" s="18" t="n">
-        <v>307352</v>
+        <v>373045</v>
       </c>
       <c r="AL38" s="18" t="n">
-        <v>373045</v>
+        <v>444163</v>
       </c>
       <c r="AM38" s="18" t="n">
-        <v>444163</v>
+        <v>560135</v>
       </c>
       <c r="AN38" s="18" t="n">
-        <v>560135</v>
+        <v>351776</v>
       </c>
       <c r="AO38" s="18" t="n">
-        <v>351776</v>
+        <v>486026</v>
       </c>
       <c r="AP38" s="18" t="n">
-        <v>486026</v>
+        <v>91000</v>
       </c>
       <c r="AQ38" s="18" t="n">
-        <v>91000</v>
+        <v>527066</v>
       </c>
       <c r="AR38" s="18" t="n">
-        <v>527066</v>
+        <v>410932</v>
       </c>
       <c r="AS38" s="18" t="n">
-        <v>410932</v>
+        <v>385190</v>
       </c>
       <c r="AT38" s="18" t="n">
-        <v>385190</v>
+        <v>426353</v>
       </c>
       <c r="AU38" s="18" t="n">
-        <v>426353</v>
+        <v>358074</v>
       </c>
       <c r="AV38" s="18" t="n">
-        <v>358074</v>
+        <v>337863</v>
       </c>
       <c r="AW38" s="18" t="n">
-        <v>337863</v>
+        <v>387093</v>
       </c>
       <c r="AX38" s="18" t="n">
-        <v>387093</v>
+        <v>348013</v>
       </c>
       <c r="AY38" s="18" t="n">
-        <v>348013</v>
+        <v>532368</v>
       </c>
       <c r="AZ38" s="18" t="n">
-        <v>532368</v>
+        <v>485790</v>
       </c>
       <c r="BA38" s="18" t="n">
-        <v>485790</v>
+        <v>4036085</v>
       </c>
       <c r="BB38" s="18" t="n">
-        <v>4036085</v>
+        <v>3429429</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7213,8 +7213,8 @@
       <c r="AZ40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BA40" s="12" t="s">
-        <v>57</v>
+      <c r="BA40" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="BB40" s="12" t="n">
         <v>0</v>
@@ -7276,36 +7276,36 @@
       <c r="T41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U41" s="15" t="s">
-        <v>57</v>
+      <c r="U41" s="15" t="n">
+        <v>40471</v>
       </c>
       <c r="V41" s="15" t="n">
-        <v>40471</v>
+        <v>124436</v>
       </c>
       <c r="W41" s="15" t="n">
-        <v>124436</v>
+        <v>69197</v>
       </c>
       <c r="X41" s="15" t="n">
-        <v>69197</v>
+        <v>130619</v>
       </c>
       <c r="Y41" s="15" t="n">
-        <v>130619</v>
+        <v>38922</v>
       </c>
       <c r="Z41" s="15" t="n">
-        <v>38922</v>
+        <v>48400</v>
       </c>
       <c r="AA41" s="15" t="n">
-        <v>48400</v>
+        <v>152485</v>
       </c>
       <c r="AB41" s="15" t="n">
-        <v>152485</v>
+        <v>92234</v>
       </c>
       <c r="AC41" s="15" t="n">
-        <v>92234</v>
-      </c>
-      <c r="AD41" s="15" t="n">
         <v>124843</v>
       </c>
+      <c r="AD41" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AE41" s="15" t="s">
         <v>57</v>
       </c>
@@ -7339,44 +7339,44 @@
       <c r="AO41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP41" s="15" t="s">
-        <v>57</v>
+      <c r="AP41" s="15" t="n">
+        <v>35275</v>
       </c>
       <c r="AQ41" s="15" t="n">
-        <v>35275</v>
+        <v>142817</v>
       </c>
       <c r="AR41" s="15" t="n">
-        <v>142817</v>
+        <v>177901</v>
       </c>
       <c r="AS41" s="15" t="n">
-        <v>177901</v>
+        <v>118060</v>
       </c>
       <c r="AT41" s="15" t="n">
-        <v>118060</v>
+        <v>120579</v>
       </c>
       <c r="AU41" s="15" t="n">
-        <v>120579</v>
+        <v>137694</v>
       </c>
       <c r="AV41" s="15" t="n">
-        <v>137694</v>
+        <v>101628</v>
       </c>
       <c r="AW41" s="15" t="n">
-        <v>101628</v>
+        <v>158886</v>
       </c>
       <c r="AX41" s="15" t="n">
-        <v>158886</v>
+        <v>248978</v>
       </c>
       <c r="AY41" s="15" t="n">
-        <v>248978</v>
+        <v>128222</v>
       </c>
       <c r="AZ41" s="15" t="n">
-        <v>128222</v>
+        <v>129359</v>
       </c>
       <c r="BA41" s="15" t="n">
-        <v>129359</v>
+        <v>127351</v>
       </c>
       <c r="BB41" s="15" t="n">
-        <v>127351</v>
+        <v>18867</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,107 +7435,107 @@
       <c r="T42" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U42" s="12" t="s">
-        <v>57</v>
+      <c r="U42" s="12" t="n">
+        <v>383465</v>
       </c>
       <c r="V42" s="12" t="n">
-        <v>383465</v>
+        <v>413359</v>
       </c>
       <c r="W42" s="12" t="n">
-        <v>413359</v>
+        <v>425914</v>
       </c>
       <c r="X42" s="12" t="n">
-        <v>425914</v>
+        <v>398169</v>
       </c>
       <c r="Y42" s="12" t="n">
-        <v>398169</v>
+        <v>431265</v>
       </c>
       <c r="Z42" s="12" t="n">
-        <v>431265</v>
+        <v>435143</v>
       </c>
       <c r="AA42" s="12" t="n">
-        <v>435143</v>
+        <v>422211</v>
       </c>
       <c r="AB42" s="12" t="n">
-        <v>422211</v>
+        <v>397161</v>
       </c>
       <c r="AC42" s="12" t="n">
-        <v>397161</v>
+        <v>368607</v>
       </c>
       <c r="AD42" s="12" t="n">
-        <v>368607</v>
+        <v>134825</v>
       </c>
       <c r="AE42" s="12" t="n">
-        <v>134825</v>
+        <v>419239</v>
       </c>
       <c r="AF42" s="12" t="n">
-        <v>419239</v>
+        <v>361838</v>
       </c>
       <c r="AG42" s="12" t="n">
-        <v>361838</v>
+        <v>424216</v>
       </c>
       <c r="AH42" s="12" t="n">
-        <v>424216</v>
+        <v>332369</v>
       </c>
       <c r="AI42" s="12" t="n">
-        <v>332369</v>
+        <v>467662</v>
       </c>
       <c r="AJ42" s="12" t="n">
-        <v>467662</v>
+        <v>366344</v>
       </c>
       <c r="AK42" s="12" t="n">
-        <v>366344</v>
+        <v>385263</v>
       </c>
       <c r="AL42" s="12" t="n">
-        <v>385263</v>
+        <v>408853</v>
       </c>
       <c r="AM42" s="12" t="n">
-        <v>408853</v>
+        <v>241790</v>
       </c>
       <c r="AN42" s="12" t="n">
-        <v>241790</v>
+        <v>405401</v>
       </c>
       <c r="AO42" s="12" t="n">
-        <v>405401</v>
+        <v>370364</v>
       </c>
       <c r="AP42" s="12" t="n">
-        <v>370364</v>
+        <v>111198</v>
       </c>
       <c r="AQ42" s="12" t="n">
-        <v>111198</v>
+        <v>459752</v>
       </c>
       <c r="AR42" s="12" t="n">
-        <v>459752</v>
+        <v>406699</v>
       </c>
       <c r="AS42" s="12" t="n">
-        <v>406699</v>
+        <v>380998</v>
       </c>
       <c r="AT42" s="12" t="n">
-        <v>380998</v>
+        <v>417198</v>
       </c>
       <c r="AU42" s="12" t="n">
-        <v>417198</v>
+        <v>440103</v>
       </c>
       <c r="AV42" s="12" t="n">
-        <v>440103</v>
+        <v>418791</v>
       </c>
       <c r="AW42" s="12" t="n">
-        <v>418791</v>
+        <v>401516</v>
       </c>
       <c r="AX42" s="12" t="n">
-        <v>401516</v>
+        <v>480214</v>
       </c>
       <c r="AY42" s="12" t="n">
-        <v>480214</v>
+        <v>259967</v>
       </c>
       <c r="AZ42" s="12" t="n">
-        <v>259967</v>
+        <v>327645</v>
       </c>
       <c r="BA42" s="12" t="n">
-        <v>327645</v>
+        <v>377017</v>
       </c>
       <c r="BB42" s="12" t="n">
-        <v>377017</v>
+        <v>130176</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7594,107 +7594,107 @@
       <c r="T43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U43" s="15" t="s">
-        <v>57</v>
+      <c r="U43" s="15" t="n">
+        <v>99597</v>
       </c>
       <c r="V43" s="15" t="n">
-        <v>99597</v>
+        <v>126443</v>
       </c>
       <c r="W43" s="15" t="n">
-        <v>126443</v>
+        <v>126925</v>
       </c>
       <c r="X43" s="15" t="n">
-        <v>126925</v>
+        <v>61552</v>
       </c>
       <c r="Y43" s="15" t="n">
-        <v>61552</v>
+        <v>160199</v>
       </c>
       <c r="Z43" s="15" t="n">
-        <v>160199</v>
+        <v>58676</v>
       </c>
       <c r="AA43" s="15" t="n">
-        <v>58676</v>
+        <v>112590</v>
       </c>
       <c r="AB43" s="15" t="n">
-        <v>112590</v>
+        <v>77241</v>
       </c>
       <c r="AC43" s="15" t="n">
-        <v>77241</v>
+        <v>146549</v>
       </c>
       <c r="AD43" s="15" t="n">
-        <v>146549</v>
+        <v>26569</v>
       </c>
       <c r="AE43" s="15" t="n">
-        <v>26569</v>
+        <v>79411</v>
       </c>
       <c r="AF43" s="15" t="n">
-        <v>79411</v>
+        <v>140194</v>
       </c>
       <c r="AG43" s="15" t="n">
-        <v>140194</v>
+        <v>100281</v>
       </c>
       <c r="AH43" s="15" t="n">
-        <v>100281</v>
+        <v>83401</v>
       </c>
       <c r="AI43" s="15" t="n">
-        <v>83401</v>
+        <v>45914</v>
       </c>
       <c r="AJ43" s="15" t="n">
-        <v>45914</v>
+        <v>100331</v>
       </c>
       <c r="AK43" s="15" t="n">
-        <v>100331</v>
+        <v>96570</v>
       </c>
       <c r="AL43" s="15" t="n">
-        <v>96570</v>
+        <v>156769</v>
       </c>
       <c r="AM43" s="15" t="n">
-        <v>156769</v>
+        <v>52200</v>
       </c>
       <c r="AN43" s="15" t="n">
-        <v>52200</v>
+        <v>91395</v>
       </c>
       <c r="AO43" s="15" t="n">
-        <v>91395</v>
+        <v>98929</v>
       </c>
       <c r="AP43" s="15" t="n">
-        <v>98929</v>
+        <v>20687</v>
       </c>
       <c r="AQ43" s="15" t="n">
-        <v>20687</v>
+        <v>135735</v>
       </c>
       <c r="AR43" s="15" t="n">
-        <v>135735</v>
+        <v>104370</v>
       </c>
       <c r="AS43" s="15" t="n">
-        <v>104370</v>
+        <v>51975</v>
       </c>
       <c r="AT43" s="15" t="n">
-        <v>51975</v>
+        <v>93648</v>
       </c>
       <c r="AU43" s="15" t="n">
-        <v>93648</v>
+        <v>72147</v>
       </c>
       <c r="AV43" s="15" t="n">
-        <v>72147</v>
+        <v>68671</v>
       </c>
       <c r="AW43" s="15" t="n">
-        <v>68671</v>
+        <v>71042</v>
       </c>
       <c r="AX43" s="15" t="n">
-        <v>71042</v>
+        <v>38825</v>
       </c>
       <c r="AY43" s="15" t="n">
-        <v>38825</v>
+        <v>34997</v>
       </c>
       <c r="AZ43" s="15" t="n">
-        <v>34997</v>
+        <v>26899</v>
       </c>
       <c r="BA43" s="15" t="n">
-        <v>26899</v>
+        <v>57908</v>
       </c>
       <c r="BB43" s="15" t="n">
-        <v>57908</v>
+        <v>26322</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7780,44 +7780,44 @@
       <c r="AC44" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="12" t="s">
-        <v>57</v>
+      <c r="AD44" s="12" t="n">
+        <v>24221</v>
       </c>
       <c r="AE44" s="12" t="n">
-        <v>24221</v>
+        <v>78885</v>
       </c>
       <c r="AF44" s="12" t="n">
-        <v>78885</v>
+        <v>108909</v>
       </c>
       <c r="AG44" s="12" t="n">
-        <v>108909</v>
+        <v>122534</v>
       </c>
       <c r="AH44" s="12" t="n">
-        <v>122534</v>
+        <v>149006</v>
       </c>
       <c r="AI44" s="12" t="n">
-        <v>149006</v>
+        <v>89817</v>
       </c>
       <c r="AJ44" s="12" t="n">
-        <v>89817</v>
+        <v>140404</v>
       </c>
       <c r="AK44" s="12" t="n">
-        <v>140404</v>
+        <v>77757</v>
       </c>
       <c r="AL44" s="12" t="n">
-        <v>77757</v>
+        <v>126406</v>
       </c>
       <c r="AM44" s="12" t="n">
-        <v>126406</v>
+        <v>83622</v>
       </c>
       <c r="AN44" s="12" t="n">
-        <v>83622</v>
+        <v>140009</v>
       </c>
       <c r="AO44" s="12" t="n">
-        <v>140009</v>
-      </c>
-      <c r="AP44" s="12" t="n">
         <v>109915</v>
+      </c>
+      <c r="AP44" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ44" s="12" t="s">
         <v>57</v>
@@ -7911,106 +7911,106 @@
         <v>0</v>
       </c>
       <c r="U45" s="18" t="n">
-        <v>0</v>
+        <v>523533</v>
       </c>
       <c r="V45" s="18" t="n">
-        <v>523533</v>
+        <v>664238</v>
       </c>
       <c r="W45" s="18" t="n">
-        <v>664238</v>
+        <v>622036</v>
       </c>
       <c r="X45" s="18" t="n">
-        <v>622036</v>
+        <v>590340</v>
       </c>
       <c r="Y45" s="18" t="n">
-        <v>590340</v>
+        <v>630386</v>
       </c>
       <c r="Z45" s="18" t="n">
-        <v>630386</v>
+        <v>542219</v>
       </c>
       <c r="AA45" s="18" t="n">
-        <v>542219</v>
+        <v>687286</v>
       </c>
       <c r="AB45" s="18" t="n">
-        <v>687286</v>
+        <v>566636</v>
       </c>
       <c r="AC45" s="18" t="n">
-        <v>566636</v>
+        <v>639999</v>
       </c>
       <c r="AD45" s="18" t="n">
-        <v>639999</v>
+        <v>185615</v>
       </c>
       <c r="AE45" s="18" t="n">
-        <v>185615</v>
+        <v>577535</v>
       </c>
       <c r="AF45" s="18" t="n">
-        <v>577535</v>
+        <v>610941</v>
       </c>
       <c r="AG45" s="18" t="n">
-        <v>610941</v>
+        <v>647031</v>
       </c>
       <c r="AH45" s="18" t="n">
-        <v>647031</v>
+        <v>564776</v>
       </c>
       <c r="AI45" s="18" t="n">
-        <v>564776</v>
+        <v>603393</v>
       </c>
       <c r="AJ45" s="18" t="n">
-        <v>603393</v>
+        <v>607079</v>
       </c>
       <c r="AK45" s="18" t="n">
-        <v>607079</v>
+        <v>559590</v>
       </c>
       <c r="AL45" s="18" t="n">
-        <v>559590</v>
+        <v>692028</v>
       </c>
       <c r="AM45" s="18" t="n">
-        <v>692028</v>
+        <v>377612</v>
       </c>
       <c r="AN45" s="18" t="n">
-        <v>377612</v>
+        <v>636805</v>
       </c>
       <c r="AO45" s="18" t="n">
-        <v>636805</v>
+        <v>579208</v>
       </c>
       <c r="AP45" s="18" t="n">
-        <v>579208</v>
+        <v>167160</v>
       </c>
       <c r="AQ45" s="18" t="n">
-        <v>167160</v>
+        <v>738304</v>
       </c>
       <c r="AR45" s="18" t="n">
-        <v>738304</v>
+        <v>688970</v>
       </c>
       <c r="AS45" s="18" t="n">
-        <v>688970</v>
+        <v>551033</v>
       </c>
       <c r="AT45" s="18" t="n">
-        <v>551033</v>
+        <v>631425</v>
       </c>
       <c r="AU45" s="18" t="n">
-        <v>631425</v>
+        <v>649944</v>
       </c>
       <c r="AV45" s="18" t="n">
-        <v>649944</v>
+        <v>589090</v>
       </c>
       <c r="AW45" s="18" t="n">
-        <v>589090</v>
+        <v>631444</v>
       </c>
       <c r="AX45" s="18" t="n">
-        <v>631444</v>
+        <v>768017</v>
       </c>
       <c r="AY45" s="18" t="n">
-        <v>768017</v>
+        <v>423186</v>
       </c>
       <c r="AZ45" s="18" t="n">
-        <v>423186</v>
+        <v>483903</v>
       </c>
       <c r="BA45" s="18" t="n">
-        <v>483903</v>
+        <v>562276</v>
       </c>
       <c r="BB45" s="18" t="n">
-        <v>562276</v>
+        <v>175365</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8124,8 +8124,8 @@
       <c r="T47" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="22" t="s">
-        <v>57</v>
+      <c r="U47" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="22" t="n">
         <v>0</v>
@@ -8338,8 +8338,8 @@
       <c r="T49" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U49" s="22" t="s">
-        <v>57</v>
+      <c r="U49" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="22" t="n">
         <v>0</v>
@@ -8496,106 +8496,106 @@
         <v>0</v>
       </c>
       <c r="U50" s="18" t="n">
-        <v>0</v>
+        <v>1050670</v>
       </c>
       <c r="V50" s="18" t="n">
-        <v>1050670</v>
+        <v>1229680</v>
       </c>
       <c r="W50" s="18" t="n">
-        <v>1229680</v>
+        <v>978892</v>
       </c>
       <c r="X50" s="18" t="n">
-        <v>978892</v>
+        <v>979352</v>
       </c>
       <c r="Y50" s="18" t="n">
-        <v>979352</v>
+        <v>1053722</v>
       </c>
       <c r="Z50" s="18" t="n">
-        <v>1053722</v>
+        <v>914958</v>
       </c>
       <c r="AA50" s="18" t="n">
-        <v>914958</v>
+        <v>1017115</v>
       </c>
       <c r="AB50" s="18" t="n">
-        <v>1017115</v>
+        <v>893053</v>
       </c>
       <c r="AC50" s="18" t="n">
-        <v>893053</v>
+        <v>1229296</v>
       </c>
       <c r="AD50" s="18" t="n">
-        <v>1229296</v>
+        <v>340093</v>
       </c>
       <c r="AE50" s="18" t="n">
-        <v>340093</v>
+        <v>1018730</v>
       </c>
       <c r="AF50" s="18" t="n">
-        <v>1018730</v>
+        <v>1123597</v>
       </c>
       <c r="AG50" s="18" t="n">
-        <v>1123597</v>
+        <v>999146</v>
       </c>
       <c r="AH50" s="18" t="n">
-        <v>999146</v>
+        <v>933843</v>
       </c>
       <c r="AI50" s="18" t="n">
-        <v>933843</v>
+        <v>1140171</v>
       </c>
       <c r="AJ50" s="18" t="n">
-        <v>1140171</v>
+        <v>914431</v>
       </c>
       <c r="AK50" s="18" t="n">
-        <v>914431</v>
+        <v>932635</v>
       </c>
       <c r="AL50" s="18" t="n">
-        <v>932635</v>
+        <v>1136191</v>
       </c>
       <c r="AM50" s="18" t="n">
-        <v>1136191</v>
+        <v>937747</v>
       </c>
       <c r="AN50" s="18" t="n">
-        <v>937747</v>
+        <v>988581</v>
       </c>
       <c r="AO50" s="18" t="n">
-        <v>988581</v>
+        <v>1065234</v>
       </c>
       <c r="AP50" s="18" t="n">
-        <v>1065234</v>
+        <v>258160</v>
       </c>
       <c r="AQ50" s="18" t="n">
-        <v>258160</v>
+        <v>1265370</v>
       </c>
       <c r="AR50" s="18" t="n">
-        <v>1265370</v>
+        <v>1099902</v>
       </c>
       <c r="AS50" s="18" t="n">
-        <v>1099902</v>
+        <v>936223</v>
       </c>
       <c r="AT50" s="18" t="n">
-        <v>936223</v>
+        <v>1057778</v>
       </c>
       <c r="AU50" s="18" t="n">
-        <v>1057778</v>
+        <v>1008018</v>
       </c>
       <c r="AV50" s="18" t="n">
-        <v>1008018</v>
+        <v>926953</v>
       </c>
       <c r="AW50" s="18" t="n">
-        <v>926953</v>
+        <v>1018537</v>
       </c>
       <c r="AX50" s="18" t="n">
-        <v>1018537</v>
+        <v>1116030</v>
       </c>
       <c r="AY50" s="18" t="n">
-        <v>1116030</v>
+        <v>955554</v>
       </c>
       <c r="AZ50" s="18" t="n">
-        <v>955554</v>
+        <v>969693</v>
       </c>
       <c r="BA50" s="18" t="n">
-        <v>969693</v>
+        <v>4598361</v>
       </c>
       <c r="BB50" s="18" t="n">
-        <v>4598361</v>
+        <v>3604794</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9184,11 +9184,11 @@
       <c r="AZ57" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BA57" s="12" t="s">
-        <v>57</v>
+      <c r="BA57" s="12" t="n">
+        <v>45396</v>
       </c>
       <c r="BB57" s="12" t="n">
-        <v>45396</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9247,36 +9247,36 @@
       <c r="T58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U58" s="15" t="s">
-        <v>57</v>
+      <c r="U58" s="15" t="n">
+        <v>91719</v>
       </c>
       <c r="V58" s="15" t="n">
-        <v>91719</v>
+        <v>64644</v>
       </c>
       <c r="W58" s="15" t="n">
-        <v>64644</v>
+        <v>38385</v>
       </c>
       <c r="X58" s="15" t="n">
-        <v>38385</v>
+        <v>39593</v>
       </c>
       <c r="Y58" s="15" t="n">
-        <v>39593</v>
+        <v>72532</v>
       </c>
       <c r="Z58" s="15" t="n">
-        <v>72532</v>
+        <v>83617</v>
       </c>
       <c r="AA58" s="15" t="n">
-        <v>83617</v>
+        <v>35090</v>
       </c>
       <c r="AB58" s="15" t="n">
-        <v>35090</v>
+        <v>68882</v>
       </c>
       <c r="AC58" s="15" t="n">
-        <v>68882</v>
-      </c>
-      <c r="AD58" s="15" t="n">
         <v>105852</v>
       </c>
+      <c r="AD58" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AE58" s="15" t="s">
         <v>57</v>
       </c>
@@ -9310,44 +9310,44 @@
       <c r="AO58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP58" s="15" t="s">
-        <v>57</v>
+      <c r="AP58" s="15" t="n">
+        <v>46885</v>
       </c>
       <c r="AQ58" s="15" t="n">
-        <v>46885</v>
+        <v>311708</v>
       </c>
       <c r="AR58" s="15" t="n">
-        <v>311708</v>
+        <v>205509</v>
       </c>
       <c r="AS58" s="15" t="n">
-        <v>205509</v>
+        <v>241531</v>
       </c>
       <c r="AT58" s="15" t="n">
-        <v>241531</v>
+        <v>333143</v>
       </c>
       <c r="AU58" s="15" t="n">
-        <v>333143</v>
+        <v>217001</v>
       </c>
       <c r="AV58" s="15" t="n">
-        <v>217001</v>
+        <v>318088</v>
       </c>
       <c r="AW58" s="15" t="n">
-        <v>318088</v>
+        <v>288736</v>
       </c>
       <c r="AX58" s="15" t="n">
-        <v>288736</v>
+        <v>186872</v>
       </c>
       <c r="AY58" s="15" t="n">
-        <v>186872</v>
+        <v>324764</v>
       </c>
       <c r="AZ58" s="15" t="n">
-        <v>324764</v>
+        <v>237852</v>
       </c>
       <c r="BA58" s="15" t="n">
-        <v>237852</v>
+        <v>458055</v>
       </c>
       <c r="BB58" s="15" t="n">
-        <v>458055</v>
+        <v>81506</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9406,107 +9406,107 @@
       <c r="T59" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U59" s="12" t="s">
-        <v>57</v>
+      <c r="U59" s="12" t="n">
+        <v>99165</v>
       </c>
       <c r="V59" s="12" t="n">
-        <v>99165</v>
+        <v>138574</v>
       </c>
       <c r="W59" s="12" t="n">
-        <v>138574</v>
+        <v>77678</v>
       </c>
       <c r="X59" s="12" t="n">
-        <v>77678</v>
+        <v>93297</v>
       </c>
       <c r="Y59" s="12" t="n">
-        <v>93297</v>
+        <v>88796</v>
       </c>
       <c r="Z59" s="12" t="n">
-        <v>88796</v>
+        <v>85251</v>
       </c>
       <c r="AA59" s="12" t="n">
-        <v>85251</v>
+        <v>102061</v>
       </c>
       <c r="AB59" s="12" t="n">
-        <v>102061</v>
+        <v>99098</v>
       </c>
       <c r="AC59" s="12" t="n">
-        <v>99098</v>
+        <v>182395</v>
       </c>
       <c r="AD59" s="12" t="n">
-        <v>182395</v>
+        <v>16981</v>
       </c>
       <c r="AE59" s="12" t="n">
-        <v>16981</v>
+        <v>102944</v>
       </c>
       <c r="AF59" s="12" t="n">
-        <v>102944</v>
+        <v>120664</v>
       </c>
       <c r="AG59" s="12" t="n">
-        <v>120664</v>
+        <v>108731</v>
       </c>
       <c r="AH59" s="12" t="n">
-        <v>108731</v>
+        <v>122151</v>
       </c>
       <c r="AI59" s="12" t="n">
-        <v>122151</v>
+        <v>169664</v>
       </c>
       <c r="AJ59" s="12" t="n">
-        <v>169664</v>
+        <v>108633</v>
       </c>
       <c r="AK59" s="12" t="n">
-        <v>108633</v>
+        <v>143495</v>
       </c>
       <c r="AL59" s="12" t="n">
-        <v>143495</v>
+        <v>180232</v>
       </c>
       <c r="AM59" s="12" t="n">
-        <v>180232</v>
+        <v>213080</v>
       </c>
       <c r="AN59" s="12" t="n">
-        <v>213080</v>
+        <v>142168</v>
       </c>
       <c r="AO59" s="12" t="n">
-        <v>142168</v>
+        <v>188996</v>
       </c>
       <c r="AP59" s="12" t="n">
-        <v>188996</v>
+        <v>28813</v>
       </c>
       <c r="AQ59" s="12" t="n">
-        <v>28813</v>
+        <v>182024</v>
       </c>
       <c r="AR59" s="12" t="n">
-        <v>182024</v>
+        <v>142635</v>
       </c>
       <c r="AS59" s="12" t="n">
-        <v>142635</v>
+        <v>95455</v>
       </c>
       <c r="AT59" s="12" t="n">
-        <v>95455</v>
+        <v>128565</v>
       </c>
       <c r="AU59" s="12" t="n">
-        <v>128565</v>
+        <v>99688</v>
       </c>
       <c r="AV59" s="12" t="n">
-        <v>99688</v>
+        <v>93125</v>
       </c>
       <c r="AW59" s="12" t="n">
-        <v>93125</v>
+        <v>87827</v>
       </c>
       <c r="AX59" s="12" t="n">
-        <v>87827</v>
+        <v>116095</v>
       </c>
       <c r="AY59" s="12" t="n">
-        <v>116095</v>
+        <v>227707</v>
       </c>
       <c r="AZ59" s="12" t="n">
-        <v>227707</v>
+        <v>161985</v>
       </c>
       <c r="BA59" s="12" t="n">
-        <v>161985</v>
+        <v>248909</v>
       </c>
       <c r="BB59" s="12" t="n">
-        <v>248909</v>
+        <v>13296</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9565,107 +9565,107 @@
       <c r="T60" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U60" s="15" t="s">
-        <v>57</v>
+      <c r="U60" s="15" t="n">
+        <v>19982</v>
       </c>
       <c r="V60" s="15" t="n">
-        <v>19982</v>
+        <v>24741</v>
       </c>
       <c r="W60" s="15" t="n">
-        <v>24741</v>
+        <v>23815</v>
       </c>
       <c r="X60" s="15" t="n">
-        <v>23815</v>
+        <v>25235</v>
       </c>
       <c r="Y60" s="15" t="n">
-        <v>25235</v>
+        <v>30868</v>
       </c>
       <c r="Z60" s="15" t="n">
-        <v>30868</v>
+        <v>25977</v>
       </c>
       <c r="AA60" s="15" t="n">
-        <v>25977</v>
+        <v>21210</v>
       </c>
       <c r="AB60" s="15" t="n">
-        <v>21210</v>
+        <v>17439</v>
       </c>
       <c r="AC60" s="15" t="n">
-        <v>17439</v>
+        <v>27448</v>
       </c>
       <c r="AD60" s="15" t="n">
-        <v>27448</v>
+        <v>9756</v>
       </c>
       <c r="AE60" s="15" t="n">
-        <v>9756</v>
+        <v>26510</v>
       </c>
       <c r="AF60" s="15" t="n">
-        <v>26510</v>
+        <v>28638</v>
       </c>
       <c r="AG60" s="15" t="n">
-        <v>28638</v>
+        <v>20848</v>
       </c>
       <c r="AH60" s="15" t="n">
-        <v>20848</v>
+        <v>22730</v>
       </c>
       <c r="AI60" s="15" t="n">
-        <v>22730</v>
+        <v>29287</v>
       </c>
       <c r="AJ60" s="15" t="n">
-        <v>29287</v>
+        <v>13800</v>
       </c>
       <c r="AK60" s="15" t="n">
-        <v>13800</v>
+        <v>19450</v>
       </c>
       <c r="AL60" s="15" t="n">
-        <v>19450</v>
+        <v>20005</v>
       </c>
       <c r="AM60" s="15" t="n">
-        <v>20005</v>
+        <v>25965</v>
       </c>
       <c r="AN60" s="15" t="n">
-        <v>25965</v>
+        <v>22973</v>
       </c>
       <c r="AO60" s="15" t="n">
-        <v>22973</v>
+        <v>28613</v>
       </c>
       <c r="AP60" s="15" t="n">
-        <v>28613</v>
+        <v>8133</v>
       </c>
       <c r="AQ60" s="15" t="n">
-        <v>8133</v>
+        <v>33272</v>
       </c>
       <c r="AR60" s="15" t="n">
-        <v>33272</v>
+        <v>42481</v>
       </c>
       <c r="AS60" s="15" t="n">
-        <v>42481</v>
+        <v>44975</v>
       </c>
       <c r="AT60" s="15" t="n">
-        <v>44975</v>
+        <v>34481</v>
       </c>
       <c r="AU60" s="15" t="n">
-        <v>34481</v>
+        <v>37490</v>
       </c>
       <c r="AV60" s="15" t="n">
-        <v>37490</v>
+        <v>30798</v>
       </c>
       <c r="AW60" s="15" t="n">
-        <v>30798</v>
+        <v>47534</v>
       </c>
       <c r="AX60" s="15" t="n">
-        <v>47534</v>
+        <v>42350</v>
       </c>
       <c r="AY60" s="15" t="n">
-        <v>42350</v>
+        <v>54596</v>
       </c>
       <c r="AZ60" s="15" t="n">
-        <v>54596</v>
+        <v>74057</v>
       </c>
       <c r="BA60" s="15" t="n">
-        <v>74057</v>
+        <v>99082</v>
       </c>
       <c r="BB60" s="15" t="n">
-        <v>99082</v>
+        <v>20947</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9751,44 +9751,44 @@
       <c r="AC61" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD61" s="12" t="s">
-        <v>57</v>
+      <c r="AD61" s="12" t="n">
+        <v>85420</v>
       </c>
       <c r="AE61" s="12" t="n">
-        <v>85420</v>
+        <v>164318</v>
       </c>
       <c r="AF61" s="12" t="n">
-        <v>164318</v>
+        <v>181602</v>
       </c>
       <c r="AG61" s="12" t="n">
-        <v>181602</v>
+        <v>133471</v>
       </c>
       <c r="AH61" s="12" t="n">
-        <v>133471</v>
+        <v>155524</v>
       </c>
       <c r="AI61" s="12" t="n">
-        <v>155524</v>
+        <v>269597</v>
       </c>
       <c r="AJ61" s="12" t="n">
-        <v>269597</v>
+        <v>143720</v>
       </c>
       <c r="AK61" s="12" t="n">
-        <v>143720</v>
+        <v>193974</v>
       </c>
       <c r="AL61" s="12" t="n">
-        <v>193974</v>
+        <v>240164</v>
       </c>
       <c r="AM61" s="12" t="n">
-        <v>240164</v>
+        <v>297223</v>
       </c>
       <c r="AN61" s="12" t="n">
-        <v>297223</v>
+        <v>171892</v>
       </c>
       <c r="AO61" s="12" t="n">
-        <v>171892</v>
-      </c>
-      <c r="AP61" s="12" t="n">
         <v>242794</v>
+      </c>
+      <c r="AP61" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ61" s="12" t="s">
         <v>57</v>
@@ -9882,106 +9882,106 @@
         <v>0</v>
       </c>
       <c r="U62" s="18" t="n">
-        <v>0</v>
+        <v>210866</v>
       </c>
       <c r="V62" s="18" t="n">
-        <v>210866</v>
+        <v>227959</v>
       </c>
       <c r="W62" s="18" t="n">
-        <v>227959</v>
+        <v>139878</v>
       </c>
       <c r="X62" s="18" t="n">
-        <v>139878</v>
+        <v>158125</v>
       </c>
       <c r="Y62" s="18" t="n">
-        <v>158125</v>
+        <v>192196</v>
       </c>
       <c r="Z62" s="18" t="n">
-        <v>192196</v>
+        <v>194845</v>
       </c>
       <c r="AA62" s="18" t="n">
-        <v>194845</v>
+        <v>158361</v>
       </c>
       <c r="AB62" s="18" t="n">
-        <v>158361</v>
+        <v>185419</v>
       </c>
       <c r="AC62" s="18" t="n">
-        <v>185419</v>
+        <v>315695</v>
       </c>
       <c r="AD62" s="18" t="n">
-        <v>315695</v>
+        <v>112157</v>
       </c>
       <c r="AE62" s="18" t="n">
-        <v>112157</v>
+        <v>293772</v>
       </c>
       <c r="AF62" s="18" t="n">
-        <v>293772</v>
+        <v>330904</v>
       </c>
       <c r="AG62" s="18" t="n">
-        <v>330904</v>
+        <v>263050</v>
       </c>
       <c r="AH62" s="18" t="n">
-        <v>263050</v>
+        <v>300405</v>
       </c>
       <c r="AI62" s="18" t="n">
-        <v>300405</v>
+        <v>468548</v>
       </c>
       <c r="AJ62" s="18" t="n">
-        <v>468548</v>
+        <v>266153</v>
       </c>
       <c r="AK62" s="18" t="n">
-        <v>266153</v>
+        <v>356919</v>
       </c>
       <c r="AL62" s="18" t="n">
-        <v>356919</v>
+        <v>440401</v>
       </c>
       <c r="AM62" s="18" t="n">
-        <v>440401</v>
+        <v>536268</v>
       </c>
       <c r="AN62" s="18" t="n">
-        <v>536268</v>
+        <v>337033</v>
       </c>
       <c r="AO62" s="18" t="n">
-        <v>337033</v>
+        <v>460403</v>
       </c>
       <c r="AP62" s="18" t="n">
-        <v>460403</v>
+        <v>83831</v>
       </c>
       <c r="AQ62" s="18" t="n">
-        <v>83831</v>
+        <v>527004</v>
       </c>
       <c r="AR62" s="18" t="n">
-        <v>527004</v>
+        <v>390625</v>
       </c>
       <c r="AS62" s="18" t="n">
-        <v>390625</v>
+        <v>381961</v>
       </c>
       <c r="AT62" s="18" t="n">
-        <v>381961</v>
+        <v>496189</v>
       </c>
       <c r="AU62" s="18" t="n">
-        <v>496189</v>
+        <v>354179</v>
       </c>
       <c r="AV62" s="18" t="n">
-        <v>354179</v>
+        <v>442011</v>
       </c>
       <c r="AW62" s="18" t="n">
-        <v>442011</v>
+        <v>424097</v>
       </c>
       <c r="AX62" s="18" t="n">
-        <v>424097</v>
+        <v>345317</v>
       </c>
       <c r="AY62" s="18" t="n">
-        <v>345317</v>
+        <v>607067</v>
       </c>
       <c r="AZ62" s="18" t="n">
-        <v>607067</v>
+        <v>473894</v>
       </c>
       <c r="BA62" s="18" t="n">
-        <v>473894</v>
+        <v>851442</v>
       </c>
       <c r="BB62" s="18" t="n">
-        <v>851442</v>
+        <v>160441</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10193,8 +10193,8 @@
       <c r="AZ64" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BA64" s="12" t="s">
-        <v>57</v>
+      <c r="BA64" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="BB64" s="12" t="n">
         <v>0</v>
@@ -10256,36 +10256,36 @@
       <c r="T65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U65" s="15" t="s">
-        <v>57</v>
+      <c r="U65" s="15" t="n">
+        <v>19999</v>
       </c>
       <c r="V65" s="15" t="n">
-        <v>19999</v>
+        <v>81194</v>
       </c>
       <c r="W65" s="15" t="n">
-        <v>81194</v>
+        <v>46269</v>
       </c>
       <c r="X65" s="15" t="n">
-        <v>46269</v>
+        <v>121884</v>
       </c>
       <c r="Y65" s="15" t="n">
-        <v>121884</v>
+        <v>29875</v>
       </c>
       <c r="Z65" s="15" t="n">
-        <v>29875</v>
+        <v>39777</v>
       </c>
       <c r="AA65" s="15" t="n">
-        <v>39777</v>
+        <v>132236</v>
       </c>
       <c r="AB65" s="15" t="n">
-        <v>132236</v>
+        <v>67300</v>
       </c>
       <c r="AC65" s="15" t="n">
-        <v>67300</v>
-      </c>
-      <c r="AD65" s="15" t="n">
         <v>92430</v>
       </c>
+      <c r="AD65" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AE65" s="15" t="s">
         <v>57</v>
       </c>
@@ -10319,44 +10319,44 @@
       <c r="AO65" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP65" s="15" t="s">
-        <v>57</v>
+      <c r="AP65" s="15" t="n">
+        <v>29004</v>
       </c>
       <c r="AQ65" s="15" t="n">
-        <v>29004</v>
+        <v>152016</v>
       </c>
       <c r="AR65" s="15" t="n">
-        <v>152016</v>
+        <v>222900</v>
       </c>
       <c r="AS65" s="15" t="n">
-        <v>222900</v>
+        <v>169118</v>
       </c>
       <c r="AT65" s="15" t="n">
-        <v>169118</v>
+        <v>164015</v>
       </c>
       <c r="AU65" s="15" t="n">
-        <v>164015</v>
+        <v>186467</v>
       </c>
       <c r="AV65" s="15" t="n">
-        <v>186467</v>
+        <v>157123</v>
       </c>
       <c r="AW65" s="15" t="n">
-        <v>157123</v>
+        <v>234660</v>
       </c>
       <c r="AX65" s="15" t="n">
-        <v>234660</v>
+        <v>424749</v>
       </c>
       <c r="AY65" s="15" t="n">
-        <v>424749</v>
+        <v>218795</v>
       </c>
       <c r="AZ65" s="15" t="n">
-        <v>218795</v>
+        <v>218901</v>
       </c>
       <c r="BA65" s="15" t="n">
-        <v>218901</v>
+        <v>222118</v>
       </c>
       <c r="BB65" s="15" t="n">
-        <v>222118</v>
+        <v>39799</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10415,107 +10415,107 @@
       <c r="T66" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="12" t="s">
-        <v>57</v>
+      <c r="U66" s="12" t="n">
+        <v>223081</v>
       </c>
       <c r="V66" s="12" t="n">
-        <v>223081</v>
+        <v>265666</v>
       </c>
       <c r="W66" s="12" t="n">
-        <v>265666</v>
+        <v>313803</v>
       </c>
       <c r="X66" s="12" t="n">
-        <v>313803</v>
+        <v>328067</v>
       </c>
       <c r="Y66" s="12" t="n">
-        <v>328067</v>
+        <v>354756</v>
       </c>
       <c r="Z66" s="12" t="n">
-        <v>354756</v>
+        <v>339312</v>
       </c>
       <c r="AA66" s="12" t="n">
-        <v>339312</v>
+        <v>329116</v>
       </c>
       <c r="AB66" s="12" t="n">
-        <v>329116</v>
+        <v>275356</v>
       </c>
       <c r="AC66" s="12" t="n">
-        <v>275356</v>
+        <v>279143</v>
       </c>
       <c r="AD66" s="12" t="n">
-        <v>279143</v>
+        <v>97640</v>
       </c>
       <c r="AE66" s="12" t="n">
-        <v>97640</v>
+        <v>276416</v>
       </c>
       <c r="AF66" s="12" t="n">
-        <v>276416</v>
+        <v>244439</v>
       </c>
       <c r="AG66" s="12" t="n">
-        <v>244439</v>
+        <v>306873</v>
       </c>
       <c r="AH66" s="12" t="n">
-        <v>306873</v>
+        <v>262913</v>
       </c>
       <c r="AI66" s="12" t="n">
-        <v>262913</v>
+        <v>408445</v>
       </c>
       <c r="AJ66" s="12" t="n">
-        <v>408445</v>
+        <v>323609</v>
       </c>
       <c r="AK66" s="12" t="n">
-        <v>323609</v>
+        <v>335119</v>
       </c>
       <c r="AL66" s="12" t="n">
-        <v>335119</v>
+        <v>363015</v>
       </c>
       <c r="AM66" s="12" t="n">
-        <v>363015</v>
+        <v>216631</v>
       </c>
       <c r="AN66" s="12" t="n">
-        <v>216631</v>
+        <v>329162</v>
       </c>
       <c r="AO66" s="12" t="n">
-        <v>329162</v>
+        <v>303289</v>
       </c>
       <c r="AP66" s="12" t="n">
-        <v>303289</v>
+        <v>91544</v>
       </c>
       <c r="AQ66" s="12" t="n">
-        <v>91544</v>
+        <v>389509</v>
       </c>
       <c r="AR66" s="12" t="n">
-        <v>389509</v>
+        <v>377878</v>
       </c>
       <c r="AS66" s="12" t="n">
-        <v>377878</v>
+        <v>370302</v>
       </c>
       <c r="AT66" s="12" t="n">
-        <v>370302</v>
+        <v>435562</v>
       </c>
       <c r="AU66" s="12" t="n">
-        <v>435562</v>
+        <v>419503</v>
       </c>
       <c r="AV66" s="12" t="n">
-        <v>419503</v>
+        <v>444036</v>
       </c>
       <c r="AW66" s="12" t="n">
-        <v>444036</v>
+        <v>456304</v>
       </c>
       <c r="AX66" s="12" t="n">
-        <v>456304</v>
+        <v>592618</v>
       </c>
       <c r="AY66" s="12" t="n">
-        <v>592618</v>
+        <v>329863</v>
       </c>
       <c r="AZ66" s="12" t="n">
-        <v>329863</v>
+        <v>470024</v>
       </c>
       <c r="BA66" s="12" t="n">
-        <v>470024</v>
+        <v>542263</v>
       </c>
       <c r="BB66" s="12" t="n">
-        <v>542263</v>
+        <v>197643</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10574,107 +10574,107 @@
       <c r="T67" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="15" t="s">
-        <v>57</v>
+      <c r="U67" s="15" t="n">
+        <v>10318</v>
       </c>
       <c r="V67" s="15" t="n">
-        <v>10318</v>
+        <v>12697</v>
       </c>
       <c r="W67" s="15" t="n">
-        <v>12697</v>
+        <v>14512</v>
       </c>
       <c r="X67" s="15" t="n">
-        <v>14512</v>
+        <v>8714</v>
       </c>
       <c r="Y67" s="15" t="n">
-        <v>8714</v>
+        <v>22536</v>
       </c>
       <c r="Z67" s="15" t="n">
-        <v>22536</v>
+        <v>7307</v>
       </c>
       <c r="AA67" s="15" t="n">
-        <v>7307</v>
+        <v>15872</v>
       </c>
       <c r="AB67" s="15" t="n">
-        <v>15872</v>
+        <v>10136</v>
       </c>
       <c r="AC67" s="15" t="n">
-        <v>10136</v>
+        <v>18930</v>
       </c>
       <c r="AD67" s="15" t="n">
-        <v>18930</v>
+        <v>2464</v>
       </c>
       <c r="AE67" s="15" t="n">
-        <v>2464</v>
+        <v>9121</v>
       </c>
       <c r="AF67" s="15" t="n">
-        <v>9121</v>
+        <v>16127</v>
       </c>
       <c r="AG67" s="15" t="n">
-        <v>16127</v>
+        <v>14060</v>
       </c>
       <c r="AH67" s="15" t="n">
-        <v>14060</v>
+        <v>10982</v>
       </c>
       <c r="AI67" s="15" t="n">
-        <v>10982</v>
+        <v>7529</v>
       </c>
       <c r="AJ67" s="15" t="n">
-        <v>7529</v>
+        <v>17266</v>
       </c>
       <c r="AK67" s="15" t="n">
-        <v>17266</v>
+        <v>15697</v>
       </c>
       <c r="AL67" s="15" t="n">
-        <v>15697</v>
+        <v>25719</v>
       </c>
       <c r="AM67" s="15" t="n">
-        <v>25719</v>
+        <v>9069</v>
       </c>
       <c r="AN67" s="15" t="n">
-        <v>9069</v>
+        <v>13384</v>
       </c>
       <c r="AO67" s="15" t="n">
-        <v>13384</v>
+        <v>17230</v>
       </c>
       <c r="AP67" s="15" t="n">
-        <v>17230</v>
+        <v>2661</v>
       </c>
       <c r="AQ67" s="15" t="n">
-        <v>2661</v>
+        <v>23910</v>
       </c>
       <c r="AR67" s="15" t="n">
-        <v>23910</v>
+        <v>17857</v>
       </c>
       <c r="AS67" s="15" t="n">
-        <v>17857</v>
+        <v>12214</v>
       </c>
       <c r="AT67" s="15" t="n">
-        <v>12214</v>
+        <v>21005</v>
       </c>
       <c r="AU67" s="15" t="n">
-        <v>21005</v>
+        <v>16007</v>
       </c>
       <c r="AV67" s="15" t="n">
-        <v>16007</v>
+        <v>16731</v>
       </c>
       <c r="AW67" s="15" t="n">
-        <v>16731</v>
+        <v>18434</v>
       </c>
       <c r="AX67" s="15" t="n">
-        <v>18434</v>
+        <v>11141</v>
       </c>
       <c r="AY67" s="15" t="n">
-        <v>11141</v>
+        <v>10223</v>
       </c>
       <c r="AZ67" s="15" t="n">
-        <v>10223</v>
+        <v>9290</v>
       </c>
       <c r="BA67" s="15" t="n">
-        <v>9290</v>
+        <v>15521</v>
       </c>
       <c r="BB67" s="15" t="n">
-        <v>15521</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10760,44 +10760,44 @@
       <c r="AC68" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD68" s="12" t="s">
-        <v>57</v>
+      <c r="AD68" s="12" t="n">
+        <v>17227</v>
       </c>
       <c r="AE68" s="12" t="n">
-        <v>17227</v>
+        <v>54115</v>
       </c>
       <c r="AF68" s="12" t="n">
-        <v>54115</v>
+        <v>77260</v>
       </c>
       <c r="AG68" s="12" t="n">
-        <v>77260</v>
+        <v>99278</v>
       </c>
       <c r="AH68" s="12" t="n">
-        <v>99278</v>
+        <v>135620</v>
       </c>
       <c r="AI68" s="12" t="n">
-        <v>135620</v>
+        <v>88603</v>
       </c>
       <c r="AJ68" s="12" t="n">
-        <v>88603</v>
+        <v>157623</v>
       </c>
       <c r="AK68" s="12" t="n">
-        <v>157623</v>
+        <v>84504</v>
       </c>
       <c r="AL68" s="12" t="n">
-        <v>84504</v>
+        <v>142667</v>
       </c>
       <c r="AM68" s="12" t="n">
-        <v>142667</v>
+        <v>91194</v>
       </c>
       <c r="AN68" s="12" t="n">
-        <v>91194</v>
+        <v>140962</v>
       </c>
       <c r="AO68" s="12" t="n">
-        <v>140962</v>
-      </c>
-      <c r="AP68" s="12" t="n">
         <v>97155</v>
+      </c>
+      <c r="AP68" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ68" s="12" t="s">
         <v>57</v>
@@ -10891,106 +10891,106 @@
         <v>0</v>
       </c>
       <c r="U69" s="18" t="n">
-        <v>0</v>
+        <v>253398</v>
       </c>
       <c r="V69" s="18" t="n">
-        <v>253398</v>
+        <v>359557</v>
       </c>
       <c r="W69" s="18" t="n">
-        <v>359557</v>
+        <v>374584</v>
       </c>
       <c r="X69" s="18" t="n">
-        <v>374584</v>
+        <v>458665</v>
       </c>
       <c r="Y69" s="18" t="n">
-        <v>458665</v>
+        <v>407167</v>
       </c>
       <c r="Z69" s="18" t="n">
-        <v>407167</v>
+        <v>386396</v>
       </c>
       <c r="AA69" s="18" t="n">
-        <v>386396</v>
+        <v>477224</v>
       </c>
       <c r="AB69" s="18" t="n">
-        <v>477224</v>
+        <v>352792</v>
       </c>
       <c r="AC69" s="18" t="n">
-        <v>352792</v>
+        <v>390503</v>
       </c>
       <c r="AD69" s="18" t="n">
-        <v>390503</v>
+        <v>117331</v>
       </c>
       <c r="AE69" s="18" t="n">
-        <v>117331</v>
+        <v>339652</v>
       </c>
       <c r="AF69" s="18" t="n">
-        <v>339652</v>
+        <v>337826</v>
       </c>
       <c r="AG69" s="18" t="n">
-        <v>337826</v>
+        <v>420211</v>
       </c>
       <c r="AH69" s="18" t="n">
-        <v>420211</v>
+        <v>409515</v>
       </c>
       <c r="AI69" s="18" t="n">
-        <v>409515</v>
+        <v>504577</v>
       </c>
       <c r="AJ69" s="18" t="n">
-        <v>504577</v>
+        <v>498498</v>
       </c>
       <c r="AK69" s="18" t="n">
-        <v>498498</v>
+        <v>435320</v>
       </c>
       <c r="AL69" s="18" t="n">
-        <v>435320</v>
+        <v>531401</v>
       </c>
       <c r="AM69" s="18" t="n">
-        <v>531401</v>
+        <v>316894</v>
       </c>
       <c r="AN69" s="18" t="n">
-        <v>316894</v>
+        <v>483508</v>
       </c>
       <c r="AO69" s="18" t="n">
-        <v>483508</v>
+        <v>417674</v>
       </c>
       <c r="AP69" s="18" t="n">
-        <v>417674</v>
+        <v>123209</v>
       </c>
       <c r="AQ69" s="18" t="n">
-        <v>123209</v>
+        <v>565435</v>
       </c>
       <c r="AR69" s="18" t="n">
-        <v>565435</v>
+        <v>618635</v>
       </c>
       <c r="AS69" s="18" t="n">
-        <v>618635</v>
+        <v>551634</v>
       </c>
       <c r="AT69" s="18" t="n">
-        <v>551634</v>
+        <v>620582</v>
       </c>
       <c r="AU69" s="18" t="n">
-        <v>620582</v>
+        <v>621977</v>
       </c>
       <c r="AV69" s="18" t="n">
-        <v>621977</v>
+        <v>617890</v>
       </c>
       <c r="AW69" s="18" t="n">
-        <v>617890</v>
+        <v>709398</v>
       </c>
       <c r="AX69" s="18" t="n">
-        <v>709398</v>
+        <v>1028508</v>
       </c>
       <c r="AY69" s="18" t="n">
-        <v>1028508</v>
+        <v>558881</v>
       </c>
       <c r="AZ69" s="18" t="n">
-        <v>558881</v>
+        <v>698215</v>
       </c>
       <c r="BA69" s="18" t="n">
-        <v>698215</v>
+        <v>779902</v>
       </c>
       <c r="BB69" s="18" t="n">
-        <v>779902</v>
+        <v>243778</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11106,8 +11106,8 @@
       <c r="T71" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U71" s="22" t="s">
-        <v>57</v>
+      <c r="U71" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V71" s="23" t="n">
         <v>0</v>
@@ -11322,8 +11322,8 @@
       <c r="T73" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U73" s="22" t="s">
-        <v>57</v>
+      <c r="U73" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V73" s="23" t="n">
         <v>0</v>
@@ -11538,107 +11538,107 @@
       <c r="T75" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U75" s="12" t="s">
-        <v>57</v>
+      <c r="U75" s="12" t="n">
+        <v>-31997</v>
       </c>
       <c r="V75" s="12" t="n">
-        <v>-31997</v>
+        <v>-22090</v>
       </c>
       <c r="W75" s="12" t="n">
-        <v>-22090</v>
+        <v>-43336</v>
       </c>
       <c r="X75" s="12" t="n">
-        <v>-43336</v>
+        <v>-33072</v>
       </c>
       <c r="Y75" s="12" t="n">
-        <v>-33072</v>
+        <v>-28567</v>
       </c>
       <c r="Z75" s="12" t="n">
-        <v>-28567</v>
+        <v>-30966</v>
       </c>
       <c r="AA75" s="12" t="n">
-        <v>-30966</v>
+        <v>-17983</v>
       </c>
       <c r="AB75" s="12" t="n">
-        <v>-17983</v>
+        <v>-19430</v>
       </c>
       <c r="AC75" s="12" t="n">
-        <v>-19430</v>
+        <v>-48332</v>
       </c>
       <c r="AD75" s="12" t="n">
-        <v>-48332</v>
+        <v>-31972</v>
       </c>
       <c r="AE75" s="12" t="n">
-        <v>-31972</v>
+        <v>-27449</v>
       </c>
       <c r="AF75" s="12" t="n">
-        <v>-27449</v>
+        <v>-39135</v>
       </c>
       <c r="AG75" s="12" t="n">
-        <v>-39135</v>
+        <v>-39898</v>
       </c>
       <c r="AH75" s="12" t="n">
-        <v>-39898</v>
+        <v>-25582</v>
       </c>
       <c r="AI75" s="12" t="n">
-        <v>-25582</v>
+        <v>-52700</v>
       </c>
       <c r="AJ75" s="12" t="n">
-        <v>-52700</v>
+        <v>-53894</v>
       </c>
       <c r="AK75" s="12" t="n">
-        <v>-53894</v>
+        <v>-90981</v>
       </c>
       <c r="AL75" s="12" t="n">
-        <v>-90981</v>
+        <v>-134175</v>
       </c>
       <c r="AM75" s="12" t="n">
-        <v>-134175</v>
+        <v>-110041</v>
       </c>
       <c r="AN75" s="12" t="n">
-        <v>-110041</v>
+        <v>-42426</v>
       </c>
       <c r="AO75" s="12" t="n">
-        <v>-42426</v>
+        <v>-61328</v>
       </c>
       <c r="AP75" s="12" t="n">
-        <v>-61328</v>
+        <v>-8244</v>
       </c>
       <c r="AQ75" s="12" t="n">
-        <v>-8244</v>
+        <v>-59767</v>
       </c>
       <c r="AR75" s="12" t="n">
-        <v>-59767</v>
+        <v>-65838</v>
       </c>
       <c r="AS75" s="12" t="n">
-        <v>-65838</v>
+        <v>-56427</v>
       </c>
       <c r="AT75" s="12" t="n">
-        <v>-56427</v>
+        <v>-68288</v>
       </c>
       <c r="AU75" s="12" t="n">
-        <v>-68288</v>
+        <v>-34959</v>
       </c>
       <c r="AV75" s="12" t="n">
-        <v>-34959</v>
+        <v>-49476</v>
       </c>
       <c r="AW75" s="12" t="n">
-        <v>-49476</v>
+        <v>-40530</v>
       </c>
       <c r="AX75" s="12" t="n">
-        <v>-40530</v>
+        <v>-25280</v>
       </c>
       <c r="AY75" s="12" t="n">
-        <v>-25280</v>
+        <v>-80344</v>
       </c>
       <c r="AZ75" s="12" t="n">
-        <v>-80344</v>
+        <v>-70191</v>
       </c>
       <c r="BA75" s="12" t="n">
-        <v>-70191</v>
+        <v>-155728</v>
       </c>
       <c r="BB75" s="12" t="n">
-        <v>-155728</v>
+        <v>-14307</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11696,106 +11696,106 @@
         <v>0</v>
       </c>
       <c r="U76" s="18" t="n">
-        <v>0</v>
+        <v>432267</v>
       </c>
       <c r="V76" s="18" t="n">
-        <v>432267</v>
+        <v>565426</v>
       </c>
       <c r="W76" s="18" t="n">
-        <v>565426</v>
+        <v>471126</v>
       </c>
       <c r="X76" s="18" t="n">
-        <v>471126</v>
+        <v>583718</v>
       </c>
       <c r="Y76" s="18" t="n">
-        <v>583718</v>
+        <v>570796</v>
       </c>
       <c r="Z76" s="18" t="n">
-        <v>570796</v>
+        <v>550275</v>
       </c>
       <c r="AA76" s="18" t="n">
-        <v>550275</v>
+        <v>617602</v>
       </c>
       <c r="AB76" s="18" t="n">
-        <v>617602</v>
+        <v>518781</v>
       </c>
       <c r="AC76" s="18" t="n">
-        <v>518781</v>
+        <v>657866</v>
       </c>
       <c r="AD76" s="18" t="n">
-        <v>657866</v>
+        <v>197516</v>
       </c>
       <c r="AE76" s="18" t="n">
-        <v>197516</v>
+        <v>605975</v>
       </c>
       <c r="AF76" s="18" t="n">
-        <v>605975</v>
+        <v>629595</v>
       </c>
       <c r="AG76" s="18" t="n">
-        <v>629595</v>
+        <v>643363</v>
       </c>
       <c r="AH76" s="18" t="n">
-        <v>643363</v>
+        <v>684338</v>
       </c>
       <c r="AI76" s="18" t="n">
-        <v>684338</v>
+        <v>920425</v>
       </c>
       <c r="AJ76" s="18" t="n">
-        <v>920425</v>
+        <v>710757</v>
       </c>
       <c r="AK76" s="18" t="n">
-        <v>710757</v>
+        <v>701258</v>
       </c>
       <c r="AL76" s="18" t="n">
-        <v>701258</v>
+        <v>837627</v>
       </c>
       <c r="AM76" s="18" t="n">
-        <v>837627</v>
+        <v>743121</v>
       </c>
       <c r="AN76" s="18" t="n">
-        <v>743121</v>
+        <v>778115</v>
       </c>
       <c r="AO76" s="18" t="n">
-        <v>778115</v>
+        <v>816749</v>
       </c>
       <c r="AP76" s="18" t="n">
-        <v>816749</v>
+        <v>198796</v>
       </c>
       <c r="AQ76" s="18" t="n">
-        <v>198796</v>
+        <v>1032672</v>
       </c>
       <c r="AR76" s="18" t="n">
-        <v>1032672</v>
+        <v>943422</v>
       </c>
       <c r="AS76" s="18" t="n">
-        <v>943422</v>
+        <v>877168</v>
       </c>
       <c r="AT76" s="18" t="n">
-        <v>877168</v>
+        <v>1048483</v>
       </c>
       <c r="AU76" s="18" t="n">
-        <v>1048483</v>
+        <v>941197</v>
       </c>
       <c r="AV76" s="18" t="n">
-        <v>941197</v>
+        <v>1010425</v>
       </c>
       <c r="AW76" s="18" t="n">
-        <v>1010425</v>
+        <v>1092965</v>
       </c>
       <c r="AX76" s="18" t="n">
-        <v>1092965</v>
+        <v>1348545</v>
       </c>
       <c r="AY76" s="18" t="n">
-        <v>1348545</v>
+        <v>1085604</v>
       </c>
       <c r="AZ76" s="18" t="n">
-        <v>1085604</v>
+        <v>1101918</v>
       </c>
       <c r="BA76" s="18" t="n">
-        <v>1101918</v>
+        <v>1475616</v>
       </c>
       <c r="BB76" s="18" t="n">
-        <v>1475616</v>
+        <v>389912</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12384,11 +12384,11 @@
       <c r="AZ83" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BA83" s="12" t="s">
-        <v>57</v>
+      <c r="BA83" s="12" t="n">
+        <v>13504</v>
       </c>
       <c r="BB83" s="12" t="n">
-        <v>13504</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12447,36 +12447,36 @@
       <c r="T84" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U84" s="15" t="s">
-        <v>57</v>
+      <c r="U84" s="15" t="n">
+        <v>583406</v>
       </c>
       <c r="V84" s="15" t="n">
-        <v>583406</v>
+        <v>588609</v>
       </c>
       <c r="W84" s="15" t="n">
-        <v>588609</v>
+        <v>547817</v>
       </c>
       <c r="X84" s="15" t="n">
-        <v>547817</v>
+        <v>492886</v>
       </c>
       <c r="Y84" s="15" t="n">
-        <v>492886</v>
+        <v>673132</v>
       </c>
       <c r="Z84" s="15" t="n">
-        <v>673132</v>
+        <v>808581</v>
       </c>
       <c r="AA84" s="15" t="n">
-        <v>808581</v>
+        <v>648206</v>
       </c>
       <c r="AB84" s="15" t="n">
-        <v>648206</v>
+        <v>781853</v>
       </c>
       <c r="AC84" s="15" t="n">
-        <v>781853</v>
-      </c>
-      <c r="AD84" s="15" t="n">
         <v>695133</v>
       </c>
+      <c r="AD84" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AE84" s="15" t="s">
         <v>57</v>
       </c>
@@ -12510,44 +12510,44 @@
       <c r="AO84" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP84" s="15" t="s">
-        <v>57</v>
+      <c r="AP84" s="15" t="n">
+        <v>1270114</v>
       </c>
       <c r="AQ84" s="15" t="n">
-        <v>1270114</v>
+        <v>1403875</v>
       </c>
       <c r="AR84" s="15" t="n">
-        <v>1403875</v>
+        <v>1757990</v>
       </c>
       <c r="AS84" s="15" t="n">
-        <v>1757990</v>
+        <v>1918877</v>
       </c>
       <c r="AT84" s="15" t="n">
-        <v>1918877</v>
+        <v>1902142</v>
       </c>
       <c r="AU84" s="15" t="n">
-        <v>1902142</v>
+        <v>1880408</v>
       </c>
       <c r="AV84" s="15" t="n">
-        <v>1880408</v>
+        <v>2105177</v>
       </c>
       <c r="AW84" s="15" t="n">
-        <v>2105177</v>
+        <v>2053467</v>
       </c>
       <c r="AX84" s="15" t="n">
-        <v>2053467</v>
+        <v>1842429</v>
       </c>
       <c r="AY84" s="15" t="n">
-        <v>1842429</v>
+        <v>1929444</v>
       </c>
       <c r="AZ84" s="15" t="n">
-        <v>1929444</v>
+        <v>1921089</v>
       </c>
       <c r="BA84" s="15" t="n">
-        <v>1921089</v>
+        <v>2269430</v>
       </c>
       <c r="BB84" s="15" t="n">
-        <v>2269430</v>
+        <v>2109259</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12606,107 +12606,107 @@
       <c r="T85" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U85" s="12" t="s">
-        <v>57</v>
+      <c r="U85" s="12" t="n">
+        <v>581923</v>
       </c>
       <c r="V85" s="12" t="n">
-        <v>581923</v>
+        <v>601040</v>
       </c>
       <c r="W85" s="12" t="n">
-        <v>601040</v>
+        <v>602884</v>
       </c>
       <c r="X85" s="12" t="n">
-        <v>602884</v>
+        <v>639288</v>
       </c>
       <c r="Y85" s="12" t="n">
-        <v>639288</v>
+        <v>687584</v>
       </c>
       <c r="Z85" s="12" t="n">
-        <v>687584</v>
+        <v>688858</v>
       </c>
       <c r="AA85" s="12" t="n">
-        <v>688858</v>
+        <v>680924</v>
       </c>
       <c r="AB85" s="12" t="n">
-        <v>680924</v>
+        <v>731712</v>
       </c>
       <c r="AC85" s="12" t="n">
-        <v>731712</v>
+        <v>672146</v>
       </c>
       <c r="AD85" s="12" t="n">
-        <v>672146</v>
+        <v>782066</v>
       </c>
       <c r="AE85" s="12" t="n">
-        <v>782066</v>
+        <v>868286</v>
       </c>
       <c r="AF85" s="12" t="n">
-        <v>868286</v>
+        <v>766856</v>
       </c>
       <c r="AG85" s="12" t="n">
-        <v>766856</v>
+        <v>876665</v>
       </c>
       <c r="AH85" s="12" t="n">
-        <v>876665</v>
+        <v>973160</v>
       </c>
       <c r="AI85" s="12" t="n">
-        <v>973160</v>
+        <v>959443</v>
       </c>
       <c r="AJ85" s="12" t="n">
-        <v>959443</v>
+        <v>943068</v>
       </c>
       <c r="AK85" s="12" t="n">
-        <v>943068</v>
+        <v>975539</v>
       </c>
       <c r="AL85" s="12" t="n">
-        <v>975539</v>
+        <v>1041665</v>
       </c>
       <c r="AM85" s="12" t="n">
-        <v>1041665</v>
+        <v>1023931</v>
       </c>
       <c r="AN85" s="12" t="n">
-        <v>1023931</v>
+        <v>990186</v>
       </c>
       <c r="AO85" s="12" t="n">
-        <v>990186</v>
+        <v>1000646</v>
       </c>
       <c r="AP85" s="12" t="n">
-        <v>1000646</v>
+        <v>1126564</v>
       </c>
       <c r="AQ85" s="12" t="n">
-        <v>1126564</v>
+        <v>1096042</v>
       </c>
       <c r="AR85" s="12" t="n">
-        <v>1096042</v>
+        <v>1168364</v>
       </c>
       <c r="AS85" s="12" t="n">
-        <v>1168364</v>
+        <v>1252132</v>
       </c>
       <c r="AT85" s="12" t="n">
-        <v>1252132</v>
+        <v>1203454</v>
       </c>
       <c r="AU85" s="12" t="n">
-        <v>1203454</v>
+        <v>1143263</v>
       </c>
       <c r="AV85" s="12" t="n">
-        <v>1143263</v>
+        <v>1183261</v>
       </c>
       <c r="AW85" s="12" t="n">
-        <v>1183261</v>
+        <v>1158591</v>
       </c>
       <c r="AX85" s="12" t="n">
-        <v>1158591</v>
+        <v>1183122</v>
       </c>
       <c r="AY85" s="12" t="n">
-        <v>1183122</v>
+        <v>1271730</v>
       </c>
       <c r="AZ85" s="12" t="n">
-        <v>1271730</v>
+        <v>1404194</v>
       </c>
       <c r="BA85" s="12" t="n">
-        <v>1404194</v>
+        <v>1664297</v>
       </c>
       <c r="BB85" s="12" t="n">
-        <v>1664297</v>
+        <v>1219817</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12765,107 +12765,107 @@
       <c r="T86" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U86" s="15" t="s">
-        <v>57</v>
+      <c r="U86" s="15" t="n">
+        <v>100153</v>
       </c>
       <c r="V86" s="15" t="n">
-        <v>100153</v>
+        <v>109931</v>
       </c>
       <c r="W86" s="15" t="n">
-        <v>109931</v>
+        <v>150782</v>
       </c>
       <c r="X86" s="15" t="n">
-        <v>150782</v>
+        <v>155059</v>
       </c>
       <c r="Y86" s="15" t="n">
-        <v>155059</v>
+        <v>165564</v>
       </c>
       <c r="Z86" s="15" t="n">
-        <v>165564</v>
+        <v>178450</v>
       </c>
       <c r="AA86" s="15" t="n">
-        <v>178450</v>
+        <v>168589</v>
       </c>
       <c r="AB86" s="15" t="n">
-        <v>168589</v>
+        <v>169503</v>
       </c>
       <c r="AC86" s="15" t="n">
-        <v>169503</v>
+        <v>165690</v>
       </c>
       <c r="AD86" s="15" t="n">
-        <v>165690</v>
+        <v>179487</v>
       </c>
       <c r="AE86" s="15" t="n">
-        <v>179487</v>
+        <v>185465</v>
       </c>
       <c r="AF86" s="15" t="n">
-        <v>185465</v>
+        <v>179932</v>
       </c>
       <c r="AG86" s="15" t="n">
-        <v>179932</v>
+        <v>209838</v>
       </c>
       <c r="AH86" s="15" t="n">
-        <v>209838</v>
+        <v>206977</v>
       </c>
       <c r="AI86" s="15" t="n">
-        <v>206977</v>
+        <v>204200</v>
       </c>
       <c r="AJ86" s="15" t="n">
-        <v>204200</v>
+        <v>219647</v>
       </c>
       <c r="AK86" s="15" t="n">
-        <v>219647</v>
+        <v>223846</v>
       </c>
       <c r="AL86" s="15" t="n">
-        <v>223846</v>
+        <v>222433</v>
       </c>
       <c r="AM86" s="15" t="n">
-        <v>222433</v>
+        <v>211600</v>
       </c>
       <c r="AN86" s="15" t="n">
-        <v>211600</v>
+        <v>244959</v>
       </c>
       <c r="AO86" s="15" t="n">
-        <v>244959</v>
+        <v>211450</v>
       </c>
       <c r="AP86" s="15" t="n">
-        <v>211450</v>
+        <v>285268</v>
       </c>
       <c r="AQ86" s="15" t="n">
-        <v>285268</v>
+        <v>239439</v>
       </c>
       <c r="AR86" s="15" t="n">
-        <v>239439</v>
+        <v>247053</v>
       </c>
       <c r="AS86" s="15" t="n">
-        <v>247053</v>
+        <v>245651</v>
       </c>
       <c r="AT86" s="15" t="n">
-        <v>245651</v>
+        <v>238818</v>
       </c>
       <c r="AU86" s="15" t="n">
-        <v>238818</v>
+        <v>241129</v>
       </c>
       <c r="AV86" s="15" t="n">
-        <v>241129</v>
+        <v>285000</v>
       </c>
       <c r="AW86" s="15" t="n">
-        <v>285000</v>
+        <v>278499</v>
       </c>
       <c r="AX86" s="15" t="n">
-        <v>278499</v>
+        <v>285262</v>
       </c>
       <c r="AY86" s="15" t="n">
-        <v>285262</v>
+        <v>295121</v>
       </c>
       <c r="AZ86" s="15" t="n">
-        <v>295121</v>
+        <v>300287</v>
       </c>
       <c r="BA86" s="15" t="n">
-        <v>300287</v>
+        <v>306727</v>
       </c>
       <c r="BB86" s="15" t="n">
-        <v>306727</v>
+        <v>301843</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12951,44 +12951,44 @@
       <c r="AC87" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD87" s="12" t="s">
-        <v>57</v>
+      <c r="AD87" s="12" t="n">
+        <v>1089402</v>
       </c>
       <c r="AE87" s="12" t="n">
-        <v>1089402</v>
+        <v>914417</v>
       </c>
       <c r="AF87" s="12" t="n">
-        <v>914417</v>
+        <v>925846</v>
       </c>
       <c r="AG87" s="12" t="n">
-        <v>925846</v>
+        <v>1036797</v>
       </c>
       <c r="AH87" s="12" t="n">
-        <v>1036797</v>
+        <v>1162988</v>
       </c>
       <c r="AI87" s="12" t="n">
-        <v>1162988</v>
+        <v>1245142</v>
       </c>
       <c r="AJ87" s="12" t="n">
-        <v>1245142</v>
+        <v>1111240</v>
       </c>
       <c r="AK87" s="12" t="n">
-        <v>1111240</v>
+        <v>1394874</v>
       </c>
       <c r="AL87" s="12" t="n">
-        <v>1394874</v>
+        <v>1325386</v>
       </c>
       <c r="AM87" s="12" t="n">
-        <v>1325386</v>
+        <v>1296066</v>
       </c>
       <c r="AN87" s="12" t="n">
-        <v>1296066</v>
+        <v>1502342</v>
       </c>
       <c r="AO87" s="12" t="n">
-        <v>1502342</v>
-      </c>
-      <c r="AP87" s="12" t="n">
         <v>1500266</v>
+      </c>
+      <c r="AP87" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ87" s="12" t="s">
         <v>57</v>
@@ -13299,36 +13299,36 @@
       <c r="T90" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U90" s="15" t="s">
-        <v>57</v>
+      <c r="U90" s="15" t="n">
+        <v>494156</v>
       </c>
       <c r="V90" s="15" t="n">
-        <v>494156</v>
+        <v>652496</v>
       </c>
       <c r="W90" s="15" t="n">
-        <v>652496</v>
+        <v>668656</v>
       </c>
       <c r="X90" s="15" t="n">
-        <v>668656</v>
+        <v>933126</v>
       </c>
       <c r="Y90" s="15" t="n">
-        <v>933126</v>
+        <v>767561</v>
       </c>
       <c r="Z90" s="15" t="n">
-        <v>767561</v>
+        <v>821839</v>
       </c>
       <c r="AA90" s="15" t="n">
-        <v>821839</v>
+        <v>867207</v>
       </c>
       <c r="AB90" s="15" t="n">
-        <v>867207</v>
+        <v>729666</v>
       </c>
       <c r="AC90" s="15" t="n">
-        <v>729666</v>
-      </c>
-      <c r="AD90" s="15" t="n">
         <v>740370</v>
       </c>
+      <c r="AD90" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="AE90" s="15" t="s">
         <v>57</v>
       </c>
@@ -13362,44 +13362,44 @@
       <c r="AO90" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AP90" s="15" t="s">
-        <v>57</v>
+      <c r="AP90" s="15" t="n">
+        <v>822225</v>
       </c>
       <c r="AQ90" s="15" t="n">
-        <v>822225</v>
+        <v>1064411</v>
       </c>
       <c r="AR90" s="15" t="n">
-        <v>1064411</v>
+        <v>1252944</v>
       </c>
       <c r="AS90" s="15" t="n">
-        <v>1252944</v>
+        <v>1432475</v>
       </c>
       <c r="AT90" s="15" t="n">
-        <v>1432475</v>
+        <v>1360229</v>
       </c>
       <c r="AU90" s="15" t="n">
-        <v>1360229</v>
+        <v>1354213</v>
       </c>
       <c r="AV90" s="15" t="n">
-        <v>1354213</v>
+        <v>1546060</v>
       </c>
       <c r="AW90" s="15" t="n">
-        <v>1546060</v>
+        <v>1476908</v>
       </c>
       <c r="AX90" s="15" t="n">
-        <v>1476908</v>
+        <v>1705970</v>
       </c>
       <c r="AY90" s="15" t="n">
-        <v>1705970</v>
+        <v>1706376</v>
       </c>
       <c r="AZ90" s="15" t="n">
-        <v>1706376</v>
+        <v>1692198</v>
       </c>
       <c r="BA90" s="15" t="n">
-        <v>1692198</v>
+        <v>1744140</v>
       </c>
       <c r="BB90" s="15" t="n">
-        <v>1744140</v>
+        <v>2109450</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13458,107 +13458,107 @@
       <c r="T91" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U91" s="12" t="s">
-        <v>57</v>
+      <c r="U91" s="12" t="n">
+        <v>581751</v>
       </c>
       <c r="V91" s="12" t="n">
-        <v>581751</v>
+        <v>642700</v>
       </c>
       <c r="W91" s="12" t="n">
-        <v>642700</v>
+        <v>736776</v>
       </c>
       <c r="X91" s="12" t="n">
-        <v>736776</v>
+        <v>823939</v>
       </c>
       <c r="Y91" s="12" t="n">
-        <v>823939</v>
+        <v>822594</v>
       </c>
       <c r="Z91" s="12" t="n">
-        <v>822594</v>
+        <v>779771</v>
       </c>
       <c r="AA91" s="12" t="n">
-        <v>779771</v>
+        <v>779506</v>
       </c>
       <c r="AB91" s="12" t="n">
-        <v>779506</v>
+        <v>693311</v>
       </c>
       <c r="AC91" s="12" t="n">
-        <v>693311</v>
+        <v>757292</v>
       </c>
       <c r="AD91" s="12" t="n">
-        <v>757292</v>
+        <v>724198</v>
       </c>
       <c r="AE91" s="12" t="n">
-        <v>724198</v>
+        <v>659328</v>
       </c>
       <c r="AF91" s="12" t="n">
-        <v>659328</v>
+        <v>675548</v>
       </c>
       <c r="AG91" s="12" t="n">
-        <v>675548</v>
+        <v>723389</v>
       </c>
       <c r="AH91" s="12" t="n">
-        <v>723389</v>
+        <v>791027</v>
       </c>
       <c r="AI91" s="12" t="n">
-        <v>791027</v>
+        <v>873377</v>
       </c>
       <c r="AJ91" s="12" t="n">
-        <v>873377</v>
+        <v>883347</v>
       </c>
       <c r="AK91" s="12" t="n">
-        <v>883347</v>
+        <v>869845</v>
       </c>
       <c r="AL91" s="12" t="n">
-        <v>869845</v>
+        <v>887886</v>
       </c>
       <c r="AM91" s="12" t="n">
-        <v>887886</v>
+        <v>895947</v>
       </c>
       <c r="AN91" s="12" t="n">
-        <v>895947</v>
+        <v>811942</v>
       </c>
       <c r="AO91" s="12" t="n">
-        <v>811942</v>
+        <v>818894</v>
       </c>
       <c r="AP91" s="12" t="n">
-        <v>818894</v>
+        <v>823252</v>
       </c>
       <c r="AQ91" s="12" t="n">
-        <v>823252</v>
+        <v>847215</v>
       </c>
       <c r="AR91" s="12" t="n">
-        <v>847215</v>
+        <v>929134</v>
       </c>
       <c r="AS91" s="12" t="n">
-        <v>929134</v>
+        <v>971926</v>
       </c>
       <c r="AT91" s="12" t="n">
-        <v>971926</v>
+        <v>1044017</v>
       </c>
       <c r="AU91" s="12" t="n">
-        <v>1044017</v>
+        <v>953193</v>
       </c>
       <c r="AV91" s="12" t="n">
-        <v>953193</v>
+        <v>1060281</v>
       </c>
       <c r="AW91" s="12" t="n">
-        <v>1060281</v>
+        <v>1136453</v>
       </c>
       <c r="AX91" s="12" t="n">
-        <v>1136453</v>
+        <v>1234071</v>
       </c>
       <c r="AY91" s="12" t="n">
-        <v>1234071</v>
+        <v>1268865</v>
       </c>
       <c r="AZ91" s="12" t="n">
-        <v>1268865</v>
+        <v>1434553</v>
       </c>
       <c r="BA91" s="12" t="n">
-        <v>1434553</v>
+        <v>1438299</v>
       </c>
       <c r="BB91" s="12" t="n">
-        <v>1438299</v>
+        <v>1518275</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13617,107 +13617,107 @@
       <c r="T92" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="U92" s="15" t="s">
-        <v>57</v>
+      <c r="U92" s="15" t="n">
+        <v>103598</v>
       </c>
       <c r="V92" s="15" t="n">
-        <v>103598</v>
+        <v>100417</v>
       </c>
       <c r="W92" s="15" t="n">
-        <v>100417</v>
+        <v>114335</v>
       </c>
       <c r="X92" s="15" t="n">
-        <v>114335</v>
+        <v>141571</v>
       </c>
       <c r="Y92" s="15" t="n">
-        <v>141571</v>
+        <v>140675</v>
       </c>
       <c r="Z92" s="15" t="n">
-        <v>140675</v>
+        <v>124531</v>
       </c>
       <c r="AA92" s="15" t="n">
-        <v>124531</v>
+        <v>140972</v>
       </c>
       <c r="AB92" s="15" t="n">
-        <v>140972</v>
+        <v>131226</v>
       </c>
       <c r="AC92" s="15" t="n">
-        <v>131226</v>
+        <v>129172</v>
       </c>
       <c r="AD92" s="15" t="n">
-        <v>129172</v>
+        <v>92740</v>
       </c>
       <c r="AE92" s="15" t="n">
-        <v>92740</v>
+        <v>114858</v>
       </c>
       <c r="AF92" s="15" t="n">
-        <v>114858</v>
+        <v>115033</v>
       </c>
       <c r="AG92" s="15" t="n">
-        <v>115033</v>
+        <v>140206</v>
       </c>
       <c r="AH92" s="15" t="n">
-        <v>140206</v>
+        <v>131677</v>
       </c>
       <c r="AI92" s="15" t="n">
-        <v>131677</v>
+        <v>163980</v>
       </c>
       <c r="AJ92" s="15" t="n">
-        <v>163980</v>
+        <v>172090</v>
       </c>
       <c r="AK92" s="15" t="n">
-        <v>172090</v>
+        <v>162545</v>
       </c>
       <c r="AL92" s="15" t="n">
-        <v>162545</v>
+        <v>164057</v>
       </c>
       <c r="AM92" s="15" t="n">
-        <v>164057</v>
+        <v>173736</v>
       </c>
       <c r="AN92" s="15" t="n">
-        <v>173736</v>
+        <v>146441</v>
       </c>
       <c r="AO92" s="15" t="n">
-        <v>146441</v>
+        <v>174165</v>
       </c>
       <c r="AP92" s="15" t="n">
-        <v>174165</v>
+        <v>128632</v>
       </c>
       <c r="AQ92" s="15" t="n">
-        <v>128632</v>
+        <v>176152</v>
       </c>
       <c r="AR92" s="15" t="n">
-        <v>176152</v>
+        <v>171093</v>
       </c>
       <c r="AS92" s="15" t="n">
-        <v>171093</v>
+        <v>234998</v>
       </c>
       <c r="AT92" s="15" t="n">
-        <v>234998</v>
+        <v>224297</v>
       </c>
       <c r="AU92" s="15" t="n">
-        <v>224297</v>
+        <v>221866</v>
       </c>
       <c r="AV92" s="15" t="n">
-        <v>221866</v>
+        <v>243640</v>
       </c>
       <c r="AW92" s="15" t="n">
-        <v>243640</v>
+        <v>259480</v>
       </c>
       <c r="AX92" s="15" t="n">
-        <v>259480</v>
+        <v>286954</v>
       </c>
       <c r="AY92" s="15" t="n">
-        <v>286954</v>
+        <v>292111</v>
       </c>
       <c r="AZ92" s="15" t="n">
-        <v>292111</v>
+        <v>345366</v>
       </c>
       <c r="BA92" s="15" t="n">
-        <v>345366</v>
+        <v>268029</v>
       </c>
       <c r="BB92" s="15" t="n">
-        <v>268029</v>
+        <v>240711</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13803,44 +13803,44 @@
       <c r="AC93" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AD93" s="12" t="s">
-        <v>57</v>
+      <c r="AD93" s="12" t="n">
+        <v>711242</v>
       </c>
       <c r="AE93" s="12" t="n">
-        <v>711242</v>
+        <v>685999</v>
       </c>
       <c r="AF93" s="12" t="n">
-        <v>685999</v>
+        <v>709400</v>
       </c>
       <c r="AG93" s="12" t="n">
-        <v>709400</v>
+        <v>810208</v>
       </c>
       <c r="AH93" s="12" t="n">
-        <v>810208</v>
+        <v>910165</v>
       </c>
       <c r="AI93" s="12" t="n">
-        <v>910165</v>
+        <v>986484</v>
       </c>
       <c r="AJ93" s="12" t="n">
-        <v>986484</v>
+        <v>1122639</v>
       </c>
       <c r="AK93" s="12" t="n">
-        <v>1122639</v>
+        <v>1086770</v>
       </c>
       <c r="AL93" s="12" t="n">
-        <v>1086770</v>
+        <v>1128641</v>
       </c>
       <c r="AM93" s="12" t="n">
-        <v>1128641</v>
+        <v>1090550</v>
       </c>
       <c r="AN93" s="12" t="n">
-        <v>1090550</v>
+        <v>1006807</v>
       </c>
       <c r="AO93" s="12" t="n">
-        <v>1006807</v>
-      </c>
-      <c r="AP93" s="12" t="n">
         <v>883910</v>
+      </c>
+      <c r="AP93" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AQ93" s="12" t="s">
         <v>57</v>
